--- a/F_dataset/DUD-E/AKT1/AKT1_preprocessing/AKT1_valid.xlsx
+++ b/F_dataset/DUD-E/AKT1/AKT1_preprocessing/AKT1_valid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V122"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL379300</t>
+          <t>CHEMBL1171647</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc12</t>
+          <t>CCc1c[nH]c2ncnc(N3CC[C@](N)(CNC(=O)c4ccc(F)cc4F)C3)c12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc12</t>
+          <t>CCc1c[nH]c2ncnc(N3CC[C@](N)(CNC(=O)c4ccc(F)cc4F)C3)c12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,25 +575,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>397.48</v>
+        <v>400.43</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>92.61</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3E420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1A80&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL1171647</t>
+          <t>CHEMBL211018</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CCc1c[nH]c2ncnc(N3CC[C@](N)(CNC(=O)c4ccc(F)cc4F)C3)c12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3cnccc3c2)c1)Cc1ccc2ccccc2c1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CCc1c[nH]c2ncnc(N3CC[C@](N)(CNC(=O)c4ccc(F)cc4F)C3)c12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3cnccc3c2)c1)Cc1ccc2ccccc2c1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,25 +643,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>400.43</v>
+        <v>405.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" t="n">
         <v>5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>5</v>
       </c>
-      <c r="K3" t="n">
-        <v>4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3</v>
-      </c>
       <c r="M3" t="n">
-        <v>99.93000000000001</v>
+        <v>61.03</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3E490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1930&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL211018</t>
+          <t>CHEMBL254099</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3cnccc3c2)c1)Cc1ccc2ccccc2c1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5nnc(-c6ccccn6)[nH]5)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3cnccc3c2)c1)Cc1ccc2ccccc2c1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5nnc(-c6ccccn6)[nH]5)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,25 +711,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>405.5</v>
+        <v>570.73</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L4" t="n">
         <v>6</v>
       </c>
-      <c r="K4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5</v>
-      </c>
       <c r="M4" t="n">
-        <v>61.03</v>
+        <v>96.37</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3E500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C0F90&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL254099</t>
+          <t>CHEMBL402199</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5nnc(-c6ccccn6)[nH]5)CC4)cc3)nc2n1</t>
+          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5nnc(-c6ccccn6)[nH]5)CC4)cc3)nc2n1</t>
+          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,16 +779,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>570.73</v>
+        <v>527.63</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>7</v>
@@ -797,7 +797,7 @@
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>96.37</v>
+        <v>105.72</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3E570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC190&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL402199</t>
+          <t>CHEMBL1094320</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)c(-c3ccccc3)cc12</t>
+          <t>CC[C@@H](N)COc1cncc(-c2cc3c(cnc4cc(OC)c(OC)cc43)c(N)n2)c1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)c(-c3ccccc3)cc12</t>
+          <t>CC[C@@H](N)COc1cncc(-c2cc3c(cnc4cc(OC)c(OC)cc43)c(N)n2)c1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>527.63</v>
+        <v>419.49</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>105.72</v>
+        <v>118.4</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3EC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC510&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL181730</t>
+          <t>CHEMBL211224</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fc1ccc2[nH]c(C3CCN(Cc4ccc(-c5ncc(-c6nn[nH]n6)cc5-c5ccccc5)cc4)CC3)nc2c1</t>
+          <t>c1ccc2c(C[C@@H](COc3cncc(-c4cc5cnccc5s4)c3)Nc3cc4cnccc4s3)c[nH]c2c1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fc1ccc2[nH]c(C3CCN(Cc4ccc(-c5ncc(-c6nn[nH]n6)cc5-c5ccccc5)cc4)CC3)nc2c1</t>
+          <t>c1ccc2c(C[C@@H](COc3cncc(-c4cc5cnccc5s4)c3)Nc3cc4cnccc4s3)c[nH]c2c1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>530.61</v>
+        <v>533.6799999999999</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
         <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>99.27</v>
+        <v>75.72</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3ED50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC7B0&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL1094320</t>
+          <t>CHEMBL493067</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CC[C@@H](N)COc1cncc(-c2cc3c(cnc4cc(OC)c(OC)cc43)c(N)n2)c1</t>
+          <t>CCn1c(-c2nonc2N)nc2cncc(C(=O)NC3CCCNC3)c21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CC[C@@H](N)COc1cncc(-c2cc3c(cnc4cc(OC)c(OC)cc43)c(N)n2)c1</t>
+          <t>CCn1c(-c2nonc2N)nc2cncc(C(=O)NC3CCCNC3)c21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>419.49</v>
+        <v>356.39</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>118.4</v>
+        <v>136.78</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3F0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD5B0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL211224</t>
+          <t>CHEMBL376569</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,44 +1032,44 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>c1ccc2c(C[C@@H](COc3cncc(-c4cc5cnccc5s4)c3)Nc3cc4cnccc4s3)c[nH]c2c1</t>
+          <t>Cc1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc12</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>c1ccc2c(C[C@@H](COc3cncc(-c4cc5cnccc5s4)c3)Nc3cc4cnccc4s3)c[nH]c2c1</t>
+          <t>Cc1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>533.6799999999999</v>
+        <v>398.47</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>75.72</v>
+        <v>105.5</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3F140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC040&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL493067</t>
+          <t>CHEMBL470598</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,35 +1100,35 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(C(=O)NC3CCCNC3)c21</t>
+          <t>NC[C@H](CC1CCCCC1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(C(=O)NC3CCCNC3)c21</t>
+          <t>NC[C@H](CC1CCCCC1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>356.39</v>
+        <v>461.43</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
         <v>4</v>
@@ -1137,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>136.78</v>
+        <v>83.8</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3F5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC5F0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3FBC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC890&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL594933</t>
+          <t>CHEMBL506077</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2cnc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)cc12</t>
+          <t>Oc1nnc2c3cc(-c4ccccc4)c(-c4ccc(CN5CCC(c6n[nH]c(-c7ccccn7)n6)CC5)cc4)nc3ccn12</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2cnc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)cc12</t>
+          <t>Oc1nnc2c3cc(-c4ccccc4)c(-c4ccc(CN5CCC(c6n[nH]c(-c7ccccn7)n6)CC5)cc4)nc3ccn12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,25 +1255,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>464.53</v>
+        <v>579.67</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" t="n">
         <v>6</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
+        <v>8</v>
+      </c>
+      <c r="L12" t="n">
         <v>7</v>
       </c>
-      <c r="K12" t="n">
-        <v>6</v>
-      </c>
-      <c r="L12" t="n">
-        <v>6</v>
-      </c>
       <c r="M12" t="n">
-        <v>118.64</v>
+        <v>121.01</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3E110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCBA0&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL498051</t>
+          <t>CHEMBL470410</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NC[C@H](Cc1ccncc1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
+          <t>CNCC(NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NC[C@H](Cc1ccncc1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
+          <t>CNCC(NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>456.37</v>
+        <v>455.38</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>6</v>
@@ -1341,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>96.69</v>
+        <v>69.81</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3FA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCC10&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL470410</t>
+          <t>CHEMBL1096634</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CNCC(NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@H](N)c3ccccc3)cc21</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CNCC(NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@H](N)c3ccccc3)cc21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>455.38</v>
+        <v>447.5</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
         <v>6</v>
@@ -1409,7 +1409,7 @@
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>69.81</v>
+        <v>151.13</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3FD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD000&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL1096634</t>
+          <t>CHEMBL1202518</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@H](N)c3ccccc3)cc21</t>
+          <t>COc1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNCC3NC(=O)c3ccncc3)cc2)c1F</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@H](N)c3ccccc3)cc21</t>
+          <t>COc1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNCC3NC(=O)c3ccncc3)cc2)c1F</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>447.5</v>
+        <v>506.53</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K15" t="n">
         <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>151.13</v>
+        <v>129.65</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3CDD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD4D0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL210740</t>
+          <t>CHEMBL404554</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4ccc5ccccc5c4)c3)cc12</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5cc(-c6ccncc6)[nH]n5)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4ccc5ccccc5c4)c3)cc12</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5cc(-c6ccncc6)[nH]n5)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>408.51</v>
+        <v>569.74</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
+        <v>7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>7</v>
+      </c>
+      <c r="L16" t="n">
         <v>6</v>
       </c>
-      <c r="K16" t="n">
-        <v>5</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5</v>
-      </c>
       <c r="M16" t="n">
-        <v>76.81999999999999</v>
+        <v>83.48</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3FD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCDD0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL404554</t>
+          <t>CHEMBL576372</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5cc(-c6ccncc6)[nH]n5)CC4)cc3)nc2n1</t>
+          <t>Cc1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4cccc(OCC5CCNCC5)c4)c3)cc12</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5cc(-c6ccncc6)[nH]n5)CC4)cc3)nc2n1</t>
+          <t>Cc1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4cccc(OCC5CCNCC5)c4)c3)cc12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>569.74</v>
+        <v>472.59</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
         <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>83.48</v>
+        <v>110.97</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3D3F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC350&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL1080911</t>
+          <t>CHEMBL403356</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3nnc(NC[C@@H](N)Cc4ccc(C(F)(F)F)cc4)s3)cc12</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5nnc(N)s5)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3nnc(NC[C@@H](N)Cc4ccc(C(F)(F)F)cc4)s3)cc12</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5nnc(N)s5)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>432.48</v>
+        <v>525.71</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
         <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>92.51000000000001</v>
+        <v>93.70999999999999</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3DC40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCA50&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL403356</t>
+          <t>CHEMBL252856</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5nnc(N)s5)CC4)cc3)nc2n1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(C(=O)Nc5ccncc5)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5nnc(N)s5)CC4)cc3)nc2n1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(C(=O)Nc5ccncc5)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,16 +1731,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>525.71</v>
+        <v>546.7</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K19" t="n">
         <v>6</v>
@@ -1749,7 +1749,7 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>93.70999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3DCB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC0B0&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL1081829</t>
+          <t>CHEMBL596073</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>N[C@H](CNc1ncc(-c2ccc3[nH]ncc3c2)s1)Cc1ccc(C(F)(F)F)cc1</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)nc12</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>N[C@H](CNc1ncc(-c2ccc3[nH]ncc3c2)s1)Cc1ccc(C(F)(F)F)cc1</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)nc12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>417.46</v>
+        <v>464.53</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
+        <v>7</v>
+      </c>
+      <c r="K20" t="n">
         <v>6</v>
       </c>
-      <c r="K20" t="n">
-        <v>4</v>
-      </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>79.62</v>
+        <v>118.64</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3DF50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC120&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL252856</t>
+          <t>CHEMBL226744</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(C(=O)Nc5ccncc5)CC4)cc3)nc2n1</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4ccc5c(c4)OC(F)(F)C(F)(F)O5)c3)cc12</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(C(=O)Nc5ccncc5)CC4)cc3)nc2n1</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4ccc5c(c4)OC(F)(F)C(F)(F)O5)c3)cc12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>546.7</v>
+        <v>488.44</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>83.90000000000001</v>
+        <v>95.28</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3E730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC9E0&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3F4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCAC0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL383541</t>
+          <t>CHEMBL1081853</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(/C=C/c2ccncc2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>N[C@H](CNc1ncc(-c2ccc3[nH]c(=O)sc3c2)s1)Cc1ccc(C(F)(F)F)cc1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(/C=C/c2ccncc2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>N[C@H](CNc1ncc(-c2ccc3[nH]c(=O)sc3c2)s1)Cc1ccc(C(F)(F)F)cc1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,16 +2003,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>370.46</v>
+        <v>450.51</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K23" t="n">
         <v>4</v>
@@ -2021,7 +2021,7 @@
         <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>76.81999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3E6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC4A0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL260670</t>
+          <t>CHEMBL207217</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
+          <t>c1ccc2c(C[C@@H](COc3cncc(-c4ccc5nonc5c4)c3)Nc3ccc4nonc4c3)c[nH]c2c1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
+          <t>c1ccc2c(C[C@@H](COc3cncc(-c4ccc5nonc5c4)c3)Nc3ccc4nonc4c3)c[nH]c2c1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,25 +2071,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>523.64</v>
+        <v>503.52</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K24" t="n">
         <v>7</v>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M24" t="n">
-        <v>83.48</v>
+        <v>127.78</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3E960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCEB0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL258844</t>
+          <t>CHEMBL260670</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4cc5nc[nH]c5cc4nc3-c3ccccc3)cc2)CC1</t>
+          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4cc5nc[nH]c5cc4nc3-c3ccccc3)cc2)CC1</t>
+          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>551.65</v>
+        <v>523.64</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>95.48999999999999</v>
+        <v>83.48</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3F220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD620&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3FC30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC2E0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL1096271</t>
+          <t>CHEMBL203275</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COc1cc2ncc3c(N)nc(-c4cncc(OC[C@@H](N)Cc5cccc(Cl)c5)c4)cc3c2cc1OC</t>
+          <t>N[C@H](COc1cncc(/C=C/c2ccnc(NC3CC3)c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>COc1cc2ncc3c(N)nc(-c4cncc(OC[C@@H](N)Cc5cccc(Cl)c5)c4)cc3c2cc1OC</t>
+          <t>N[C@H](COc1cncc(/C=C/c2ccnc(NC3CC3)c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>516</v>
+        <v>425.54</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K27" t="n">
         <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>118.4</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3E030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC270&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3F760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC660&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3C350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC970&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL210237</t>
+          <t>CHEMBL381328</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CC(C)(Cc1c[nH]c2ccccc12)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>N[C@H](COc1cncc(/C=C/c2ccncc2)c1)Cc1ccc2ccccc2c1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CC(C)(Cc1c[nH]c2ccccc12)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>N[C@H](COc1cncc(/C=C/c2ccncc2)c1)Cc1ccc2ccccc2c1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2479,25 +2479,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>569.71</v>
+        <v>381.48</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>108.82</v>
+        <v>61.03</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3DD90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD310&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3CC80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC6D0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3E810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCC80&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL252056</t>
+          <t>CHEMBL276130</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4nccs4)cc3)nc2n1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCC(N)=O)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4nccs4)cc3)nc2n1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCC(N)=O)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>469.64</v>
+        <v>429.55</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
         <v>6</v>
@@ -2695,13 +2695,13 @@
         <v>8</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>63.59</v>
+        <v>93.79000000000001</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3E8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCF20&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL276130</t>
+          <t>CHEMBL493250</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCC(N)=O)cc3)nc2n1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(-c3ccccc3)ncc(OCCCN)c21</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCC(N)=O)cc3)nc2n1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(-c3ccccc3)ncc(OCCCN)c21</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,16 +2751,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>429.55</v>
+        <v>379.42</v>
       </c>
       <c r="H34" t="n">
         <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K34" t="n">
         <v>4</v>
@@ -2769,7 +2769,7 @@
         <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>93.79000000000001</v>
+        <v>130.9</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3EC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC820&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL388310</t>
+          <t>CHEMBL523586</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(OCCC5CCNCC5)c4)c3)cc12</t>
+          <t>NC[C@H](Cc1cccc(F)c1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(OCCC5CCNCC5)c4)c3)cc12</t>
+          <t>NC[C@H](Cc1cccc(F)c1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2815,29 +2815,29 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>485.63</v>
+        <v>473.37</v>
       </c>
       <c r="H35" t="n">
         <v>3</v>
       </c>
       <c r="I35" t="n">
+        <v>3</v>
+      </c>
+      <c r="J35" t="n">
         <v>6</v>
       </c>
-      <c r="J35" t="n">
-        <v>10</v>
-      </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
         <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>98.08</v>
+        <v>83.8</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3EFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC900&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL573393</t>
+          <t>CHEMBL572884</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3ncccc3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2cccs2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3ncccc3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2cccs2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2883,29 +2883,29 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>394.48</v>
+        <v>480.59</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="n">
+        <v>7</v>
+      </c>
+      <c r="K36" t="n">
         <v>6</v>
-      </c>
-      <c r="K36" t="n">
-        <v>5</v>
       </c>
       <c r="L36" t="n">
         <v>5</v>
       </c>
       <c r="M36" t="n">
-        <v>76.81999999999999</v>
+        <v>93.03</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3E880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD460&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL493250</t>
+          <t>CHEMBL229320</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(-c3ccccc3)ncc(OCCCN)c21</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(I)c4)c3)cc12</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(-c3ccccc3)ncc(OCCCN)c21</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(I)c4)c3)cc12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2951,20 +2951,20 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>379.42</v>
+        <v>484.34</v>
       </c>
       <c r="H37" t="n">
         <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K37" t="n">
         <v>4</v>
@@ -2973,7 +2973,7 @@
         <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>130.9</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3F3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BDBD0&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL523695</t>
+          <t>CHEMBL488428</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(C(=O)N3CC[C@@H](N)C3)c21</t>
+          <t>O=c1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)c[nH]1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(C(=O)N3CC[C@@H](N)C3)c21</t>
+          <t>O=c1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)c[nH]1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3019,29 +3019,29 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>342.36</v>
+        <v>555.64</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M38" t="n">
-        <v>141.98</v>
+        <v>123.42</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3F6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCE40&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL415220</t>
+          <t>CHEMBL494089</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(OCCN5CCOCC5)c4)c3)cc12</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC[C@H]3CCCNC3)c21</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(OCCN5CCOCC5)c4)c3)cc12</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC[C@H]3CCCNC3)c21</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3087,29 +3087,29 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>487.6</v>
+        <v>425.49</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>98.52</v>
+        <v>137.14</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3E3B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD0E0&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL572884</t>
+          <t>CHEMBL574764</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2cccs2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(-c4ccccc4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2cccs2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(-c4ccccc4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>480.59</v>
+        <v>459.55</v>
       </c>
       <c r="H40" t="n">
         <v>3</v>
@@ -3174,10 +3174,10 @@
         <v>6</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M40" t="n">
-        <v>93.03</v>
+        <v>92.61</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3EF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC580&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL488428</t>
+          <t>CHEMBL210034</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>O=c1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)c[nH]1</t>
+          <t>CC(C)(Cc1ccccc1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>O=c1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)c[nH]1</t>
+          <t>CC(C)(Cc1ccccc1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3227,25 +3227,25 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>555.64</v>
+        <v>530.67</v>
       </c>
       <c r="H41" t="n">
         <v>3</v>
       </c>
       <c r="I41" t="n">
+        <v>4</v>
+      </c>
+      <c r="J41" t="n">
+        <v>9</v>
+      </c>
+      <c r="K41" t="n">
         <v>6</v>
       </c>
-      <c r="J41" t="n">
-        <v>6</v>
-      </c>
-      <c r="K41" t="n">
-        <v>7</v>
-      </c>
       <c r="L41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M41" t="n">
-        <v>123.42</v>
+        <v>93.03</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3F530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCB30&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL494089</t>
+          <t>CHEMBL375485</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC[C@H]3CCCNC3)c21</t>
+          <t>N[C@H](COc1cncc(-c2cc3c(-c4ccco4)n[nH]c3cn2)c1)Cc1ccccc1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC[C@H]3CCCNC3)c21</t>
+          <t>N[C@H](COc1cncc(-c2cc3c(-c4ccco4)n[nH]c3cn2)c1)Cc1ccccc1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3295,25 +3295,25 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>425.49</v>
+        <v>411.47</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
+        <v>7</v>
+      </c>
+      <c r="K42" t="n">
         <v>5</v>
       </c>
-      <c r="K42" t="n">
-        <v>4</v>
-      </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
-        <v>137.14</v>
+        <v>102.85</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3FF40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCF90&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL375485</t>
+          <t>CHEMBL595709</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2cc3c(-c4ccco4)n[nH]c3cn2)c1)Cc1ccccc1</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4ccccc4)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2cc3c(-c4ccco4)n[nH]c3cn2)c1)Cc1ccccc1</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4ccccc4)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3363,13 +3363,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>411.47</v>
+        <v>424.5</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
         <v>7</v>
@@ -3381,7 +3381,7 @@
         <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>102.85</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -3392,7 +3392,7 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3CA50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC430&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL595709</t>
+          <t>CHEMBL408151</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4ccccc4)cnc3-c3ccoc3)cc12</t>
+          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4cc(-c5nn[nH]n5)ccc4nc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4ccccc4)cnc3-c3ccoc3)cc12</t>
+          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4cc(-c5nn[nH]n5)ccc4nc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3431,25 +3431,25 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>424.5</v>
+        <v>579.67</v>
       </c>
       <c r="H44" t="n">
         <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J44" t="n">
+        <v>6</v>
+      </c>
+      <c r="K44" t="n">
+        <v>8</v>
+      </c>
+      <c r="L44" t="n">
         <v>7</v>
       </c>
-      <c r="K44" t="n">
-        <v>5</v>
-      </c>
-      <c r="L44" t="n">
-        <v>5</v>
-      </c>
       <c r="M44" t="n">
-        <v>89.95999999999999</v>
+        <v>121.27</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -3460,7 +3460,7 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3D4D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCD60&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL408151</t>
+          <t>CHEMBL260184</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3480,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4cc(-c5nn[nH]n5)ccc4nc3-c3ccccc3)cc2)CC1</t>
+          <t>O=c1ccc(-c2cc(C3CCN(Cc4ccc(-c5nc6ncccc6cc5-c5ccccc5)cc4)CC3)n[nH]2)c[nH]1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4cc(-c5nn[nH]n5)ccc4nc3-c3ccccc3)cc2)CC1</t>
+          <t>O=c1ccc(-c2cc(C3CCN(Cc4ccc(-c5nc6ncccc6cc5-c5ccccc5)cc4)CC3)n[nH]2)c[nH]1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3499,25 +3499,25 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>579.67</v>
+        <v>538.66</v>
       </c>
       <c r="H45" t="n">
         <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J45" t="n">
         <v>6</v>
       </c>
       <c r="K45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M45" t="n">
-        <v>121.27</v>
+        <v>90.56</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -3528,7 +3528,7 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3DE00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC200&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3540,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL574289</t>
+          <t>CHEMBL210333</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3548,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4cc(-n5cnnn5)ccc4nc3-c3ccccc3)cc2)CC1</t>
+          <t>N[C@H](COc1cncc(-c2ccc3cnc(-c4ccco4)cc3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4cc(-n5cnnn5)ccc4nc3-c3ccccc3)cc2)CC1</t>
+          <t>N[C@H](COc1cncc(-c2ccc3cnc(-c4ccco4)cc3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3567,25 +3567,25 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>579.67</v>
+        <v>460.54</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" t="n">
         <v>7</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>6</v>
       </c>
-      <c r="K46" t="n">
-        <v>8</v>
-      </c>
       <c r="L46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M46" t="n">
-        <v>110.41</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
@@ -3596,7 +3596,7 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3E650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCCF0&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3608,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL260184</t>
+          <t>CHEMBL252054</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>O=c1ccc(-c2cc(C3CCN(Cc4ccc(-c5nc6ncccc6cc5-c5ccccc5)cc4)CC3)n[nH]2)c[nH]1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4c[nH]cn4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>O=c1ccc(-c2cc(C3CCN(Cc4ccc(-c5nc6ncccc6cc5-c5ccccc5)cc4)CC3)n[nH]2)c[nH]1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4c[nH]cn4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3635,25 +3635,25 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>538.66</v>
+        <v>452.59</v>
       </c>
       <c r="H47" t="n">
         <v>2</v>
       </c>
       <c r="I47" t="n">
+        <v>6</v>
+      </c>
+      <c r="J47" t="n">
+        <v>8</v>
+      </c>
+      <c r="K47" t="n">
         <v>5</v>
       </c>
-      <c r="J47" t="n">
-        <v>6</v>
-      </c>
-      <c r="K47" t="n">
-        <v>7</v>
-      </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M47" t="n">
-        <v>90.56</v>
+        <v>79.38</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -3664,7 +3664,7 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3F610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD540&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL210333</t>
+          <t>CHEMBL573394</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3684,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3cnc(-c4ccco4)cc3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3nnccc3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3cnc(-c4ccco4)cc3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3nnccc3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3703,7 +3703,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>460.54</v>
+        <v>395.47</v>
       </c>
       <c r="H48" t="n">
         <v>2</v>
@@ -3712,16 +3712,16 @@
         <v>5</v>
       </c>
       <c r="J48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M48" t="n">
-        <v>89.95999999999999</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -3732,7 +3732,7 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3CEB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC740&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL252054</t>
+          <t>CHEMBL252652</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4c[nH]cn4)cc3)nc2n1</t>
+          <t>CCNC(=O)NC1CCN(Cc2ccc(-c3nc4nc(SC)ncc4cc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4c[nH]cn4)cc3)nc2n1</t>
+          <t>CCNC(=O)NC1CCN(Cc2ccc(-c3nc4nc(SC)ncc4cc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3767,11 +3767,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>452.59</v>
+        <v>512.6799999999999</v>
       </c>
       <c r="H49" t="n">
         <v>2</v>
@@ -3780,27 +3780,53 @@
         <v>6</v>
       </c>
       <c r="J49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K49" t="n">
         <v>5</v>
       </c>
       <c r="L49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>79.38</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
+        <v>83.04000000000001</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>IC50</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>nM</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>81</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>CHEMBL928491</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Inhibition of Akt1</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3F370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD380&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3812,89 +3838,63 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL252652</t>
+          <t>C13651282</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CCNC(=O)NC1CCN(Cc2ccc(-c3nc4nc(SC)ncc4cc3-c3ccccc3)cc2)CC1</t>
+          <t>CCN(CC)c1ccc(N2CCN(C(=O)[C@]3(C)CCc4c(C)c(O)c(C)c(C)c4O3)CC2)[nH+]c1N(CC)CC</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CCNC(=O)NC1CCN(Cc2ccc(-c3nc4nc(SC)ncc4cc3-c3ccccc3)cc2)CC1</t>
+          <t>CCN(CC)c1ccc(N2CCN(C(=O)[C@]3(C)CCc4c(C)c(O)c(C)c(C)c4O3)CC2)[nH+]c1N(CC)CC</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>512.6799999999999</v>
+        <v>538.76</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>6</v>
       </c>
       <c r="J50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
-        <v>83.04000000000001</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>81</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>CHEMBL928491</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt1</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>73.63</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BDA1F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849881ED50&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -3906,7 +3906,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C13651282</t>
+          <t>C32644030</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3914,12 +3914,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CCN(CC)c1ccc(N2CCN(C(=O)[C@]3(C)CCc4c(C)c(O)c(C)c(C)c4O3)CC2)[nH+]c1N(CC)CC</t>
+          <t>COc1ccc(S(=O)(=O)N2Cc3ccccc3C[C@@H]2C(=O)NC2CC(C)(C)[NH+](C)C(C)(C)C2)cc1OC</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CCN(CC)c1ccc(N2CCN(C(=O)[C@]3(C)CCc4c(C)c(O)c(C)c(C)c4O3)CC2)[nH+]c1N(CC)CC</t>
+          <t>COc1ccc(S(=O)(=O)N2Cc3ccccc3C[C@@H]2C(=O)NC2CC(C)(C)[NH+](C)C(C)(C)C2)cc1OC</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3933,16 +3933,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>538.76</v>
+        <v>530.71</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
+        <v>5</v>
+      </c>
+      <c r="J51" t="n">
         <v>6</v>
-      </c>
-      <c r="J51" t="n">
-        <v>8</v>
       </c>
       <c r="K51" t="n">
         <v>4</v>
@@ -3951,7 +3951,7 @@
         <v>2</v>
       </c>
       <c r="M51" t="n">
-        <v>73.63</v>
+        <v>89.38</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -3962,7 +3962,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFEF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849881EDC0&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -3974,7 +3974,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C32644030</t>
+          <t>C20617596</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3982,12 +3982,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>COc1ccc(S(=O)(=O)N2Cc3ccccc3C[C@@H]2C(=O)NC2CC(C)(C)[NH+](C)C(C)(C)C2)cc1OC</t>
+          <t>CC(=O)OCc1cnc(C)c2o/c(=[NH+]\c3ccc(F)c(Cl)c3)c(C(=O)Nc3ccccc3Cl)cc12</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>COc1ccc(S(=O)(=O)N2Cc3ccccc3C[C@@H]2C(=O)NC2CC(C)(C)[NH+](C)C(C)(C)C2)cc1OC</t>
+          <t>CC(=O)OCc1cnc(C)c2o/c(=[NH+]\c3ccc(F)c(Cl)c3)c(C(=O)Nc3ccccc3Cl)cc12</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4001,7 +4001,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>530.71</v>
+        <v>515.35</v>
       </c>
       <c r="H52" t="n">
         <v>2</v>
@@ -4010,16 +4010,16 @@
         <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K52" t="n">
         <v>4</v>
       </c>
       <c r="L52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
-        <v>89.38</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFFED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849881EE30&gt;</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -4042,7 +4042,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>C20617596</t>
+          <t>C45231078</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4050,12 +4050,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CC(=O)OCc1cnc(C)c2o/c(=[NH+]\c3ccc(F)c(Cl)c3)c(C(=O)Nc3ccccc3Cl)cc12</t>
+          <t>COc1ccc2ccc(F)c(CC(=O)N3CCO[C@@H](C[NH2+]Cc4cccc(-c5ccc(F)cc5)n4)C3)c2n1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CC(=O)OCc1cnc(C)c2o/c(=[NH+]\c3ccc(F)c(Cl)c3)c(C(=O)Nc3ccccc3Cl)cc12</t>
+          <t>COc1ccc2ccc(F)c(CC(=O)N3CCO[C@@H](C[NH2+]Cc4cccc(-c5ccc(F)cc5)n4)C3)c2n1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4069,25 +4069,25 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>515.35</v>
+        <v>519.5700000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>5</v>
       </c>
       <c r="J53" t="n">
+        <v>8</v>
+      </c>
+      <c r="K53" t="n">
         <v>5</v>
       </c>
-      <c r="K53" t="n">
-        <v>4</v>
-      </c>
       <c r="L53" t="n">
         <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>95.40000000000001</v>
+        <v>81.16</v>
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -4098,7 +4098,7 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9EB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849881EC70&gt;</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -4110,7 +4110,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>C45231078</t>
+          <t>C33812565</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4118,12 +4118,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>COc1ccc2ccc(F)c(CC(=O)N3CCO[C@@H](C[NH2+]Cc4cccc(-c5ccc(F)cc5)n4)C3)c2n1</t>
+          <t>CCCn1c(N2CC[NH+](CC)CC2)c(/C=C2\SC(=S)N(C[C@H]3CCCO3)C2=O)c(C)c(C#N)c1=O</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>COc1ccc2ccc(F)c(CC(=O)N3CCO[C@@H](C[NH2+]Cc4cccc(-c5ccc(F)cc5)n4)C3)c2n1</t>
+          <t>CCCn1c(N2CC[NH+](CC)CC2)c(/C=C2\SC(=S)N(C[C@H]3CCCO3)C2=O)c(C)c(C#N)c1=O</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4137,25 +4137,25 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>519.5700000000001</v>
+        <v>516.71</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>81.16</v>
+        <v>83.01000000000001</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -4166,7 +4166,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9DAF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849777BDF0&gt;</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -4178,7 +4178,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C33812565</t>
+          <t>C39550704</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4186,12 +4186,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CCCn1c(N2CC[NH+](CC)CC2)c(/C=C2\SC(=S)N(C[C@H]3CCCO3)C2=O)c(C)c(C#N)c1=O</t>
+          <t>O=S1(=O)c2ccccc2Oc2ccc(-c3[nH+]c(-c4ccc(O)c(O)c4)[nH]c3-c3ccccc3)cc21</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>CCCn1c(N2CC[NH+](CC)CC2)c(/C=C2\SC(=S)N(C[C@H]3CCCO3)C2=O)c(C)c(C#N)c1=O</t>
+          <t>O=S1(=O)c2ccccc2Oc2ccc(-c3[nH+]c(-c4ccc(O)c(O)c4)[nH]c3-c3ccccc3)cc21</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4205,25 +4205,25 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>516.71</v>
+        <v>483.53</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
-        <v>83.01000000000001</v>
+        <v>113.76</v>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -4234,7 +4234,7 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9D4D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895EFF0&gt;</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -4246,7 +4246,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>C39550704</t>
+          <t>C01833566</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4254,12 +4254,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>O=S1(=O)c2ccccc2Oc2ccc(-c3[nH+]c(-c4ccc(O)c(O)c4)[nH]c3-c3ccccc3)cc21</t>
+          <t>C=C(N/[NH+]=C1\NC(C)(C)Cc2ccccc21)/C(C)=N\[NH+]=C1/NC(C)(C)Cc2ccccc21</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>O=S1(=O)c2ccccc2Oc2ccc(-c3[nH+]c(-c4ccc(O)c(O)c4)[nH]c3-c3ccccc3)cc21</t>
+          <t>C=C(N/[NH+]=C1\NC(C)(C)Cc2ccccc21)/C(C)=N\[NH+]=C1/NC(C)(C)Cc2ccccc21</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4273,25 +4273,25 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>483.53</v>
+        <v>430.6</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K56" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M56" t="n">
-        <v>113.76</v>
+        <v>76.39</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -4302,7 +4302,7 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9C900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895F0D0&gt;</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -4314,7 +4314,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>C01833566</t>
+          <t>C20310515</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4322,12 +4322,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>C=C(N/[NH+]=C1\NC(C)(C)Cc2ccccc21)/C(C)=N\[NH+]=C1/NC(C)(C)Cc2ccccc21</t>
+          <t>CC(=O)OCc1nc2c(c([O-])c(N=O)c3nc(COC(C)=O)n([O-])c32)n1[O-]</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>C=C(N/[NH+]=C1\NC(C)(C)Cc2ccccc21)/C(C)=N\[NH+]=C1/NC(C)(C)Cc2ccccc21</t>
+          <t>CC(=O)OCc1nc2c(c([O-])c(N=O)c3nc(COC(C)=O)n([O-])c32)n1[O-]</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4341,25 +4341,25 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>430.6</v>
+        <v>376.26</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>10</v>
+      </c>
+      <c r="J57" t="n">
         <v>5</v>
       </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4</v>
-      </c>
       <c r="K57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>76.39</v>
+        <v>186.85</v>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -4370,7 +4370,7 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9DFC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895EF80&gt;</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -4382,7 +4382,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>C20310515</t>
+          <t>C39227626</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4390,12 +4390,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CC(=O)OCc1nc2c(c([O-])c(N=O)c3nc(COC(C)=O)n([O-])c32)n1[O-]</t>
+          <t>C[C@H](O)CN(C[C@H](C)O)C(=O)c1ccc(-c2ccc3c(c2)[C@H](O)CC2(CC[NH+](C)CC2)O3)cc1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CC(=O)OCc1nc2c(c([O-])c(N=O)c3nc(COC(C)=O)n([O-])c32)n1[O-]</t>
+          <t>C[C@H](O)CN(C[C@H](C)O)C(=O)c1ccc(-c2ccc3c(c2)[C@H](O)CC2(CC[NH+](C)CC2)O3)cc1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4409,25 +4409,25 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>376.26</v>
+        <v>469.6</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M58" t="n">
-        <v>186.85</v>
+        <v>94.67</v>
       </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
@@ -4438,7 +4438,7 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9DBD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895EEA0&gt;</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -4450,7 +4450,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>C39227626</t>
+          <t>C64167188</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4458,12 +4458,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>C[C@H](O)CN(C[C@H](C)O)C(=O)c1ccc(-c2ccc3c(c2)[C@H](O)CC2(CC[NH+](C)CC2)O3)cc1</t>
+          <t>CC1=c2cccc(Cl)c2=[NH+][C@@H]1C[NH2+][C@H]1CCC[C@@H]2C1=CNN2c1ccccn1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>C[C@H](O)CN(C[C@H](C)O)C(=O)c1ccc(-c2ccc3c(c2)[C@H](O)CC2(CC[NH+](C)CC2)O3)cc1</t>
+          <t>CC1=c2cccc(Cl)c2=[NH+][C@@H]1C[NH2+][C@H]1CCC[C@@H]2C1=CNN2c1ccccn1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4477,25 +4477,25 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>469.6</v>
+        <v>395.94</v>
       </c>
       <c r="H59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I59" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4</v>
+      </c>
+      <c r="K59" t="n">
         <v>5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>6</v>
-      </c>
-      <c r="K59" t="n">
-        <v>4</v>
       </c>
       <c r="L59" t="n">
         <v>2</v>
       </c>
       <c r="M59" t="n">
-        <v>94.67</v>
+        <v>58.74</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -4506,7 +4506,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9DB60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1A80&gt;</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -4518,7 +4518,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>C64167188</t>
+          <t>C22699366</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4526,12 +4526,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CC1=c2cccc(Cl)c2=[NH+][C@@H]1C[NH2+][C@H]1CCC[C@@H]2C1=CNN2c1ccccn1</t>
+          <t>COC(=O)c1c(C)[nH]c(C(=O)[C@@H](C)Sc2nc(C(C)(C)C)nc3c2c(=O)n(C)c(=O)n3C)c1C</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>CC1=c2cccc(Cl)c2=[NH+][C@@H]1C[NH2+][C@H]1CCC[C@@H]2C1=CNN2c1ccccn1</t>
+          <t>COC(=O)c1c(C)[nH]c(C(=O)[C@@H](C)Sc2nc(C(C)(C)C)nc3c2c(=O)n(C)c(=O)n3C)c1C</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4545,25 +4545,25 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>395.94</v>
+        <v>487.58</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>58.74</v>
+        <v>128.94</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -4574,7 +4574,7 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9D2A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1AF0&gt;</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -4586,7 +4586,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>C22699366</t>
+          <t>C31983170</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4594,12 +4594,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>COC(=O)c1c(C)[nH]c(C(=O)[C@@H](C)Sc2nc(C(C)(C)C)nc3c2c(=O)n(C)c(=O)n3C)c1C</t>
+          <t>C=C[C@]1(C)C[C@@H](OC(=O)CSCC[NH+](CC)CC)[C@@]2(C)[C@H](C)CC[C@@]3(CCC(=O)[C@@H]32)[C@@H](C)[C@@H]1O</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>COC(=O)c1c(C)[nH]c(C(=O)[C@@H](C)Sc2nc(C(C)(C)C)nc3c2c(=O)n(C)c(=O)n3C)c1C</t>
+          <t>C=C[C@]1(C)C[C@@H](OC(=O)CSCC[NH+](CC)CC)[C@]2(C)[C@H]3C(=O)CC[C@]3(CC[C@H]2C)[C@@H](C)[C@@H]1O</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4613,25 +4613,25 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>487.58</v>
+        <v>494.76</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J61" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K61" t="n">
         <v>3</v>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>128.94</v>
+        <v>68.04000000000001</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9EF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1EE0&gt;</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -4654,7 +4654,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>C31983170</t>
+          <t>C33507204</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4662,12 +4662,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>C=C[C@]1(C)C[C@@H](OC(=O)CSCC[NH+](CC)CC)[C@@]2(C)[C@H](C)CC[C@@]3(CCC(=O)[C@@H]32)[C@@H](C)[C@@H]1O</t>
+          <t>CC(C)c1ccc(-c2nc3ccc(Cl)cn3c2[C@H](C)C[NH3+])cc1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>C=C[C@]1(C)C[C@@H](OC(=O)CSCC[NH+](CC)CC)[C@]2(C)[C@H]3C(=O)CC[C@]3(CC[C@H]2C)[C@@H](C)[C@@H]1O</t>
+          <t>CC(C)c1ccc(-c2nc3ccc(Cl)cn3c2[C@H](C)C[NH3+])cc1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4681,25 +4681,25 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>494.76</v>
+        <v>328.87</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K62" t="n">
         <v>3</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
-        <v>68.04000000000001</v>
+        <v>44.94</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -4710,7 +4710,7 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9F7D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1930&gt;</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -4722,7 +4722,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>C33507204</t>
+          <t>C61277601</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4730,12 +4730,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CC(C)c1ccc(-c2nc3ccc(Cl)cn3c2[C@H](C)C[NH3+])cc1</t>
+          <t>c1nc2c(c(N[C@H]3CC[NH2+]C4(CCC4)C3)n1)CCC2</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>CC(C)c1ccc(-c2nc3ccc(Cl)cn3c2[C@H](C)C[NH3+])cc1</t>
+          <t>c1nc2c(c(N[C@H]3CC[NH2+]C4(CCC4)C3)n1)CCC2</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4749,25 +4749,25 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>328.87</v>
+        <v>259.38</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>44.94</v>
+        <v>54.42</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -4778,7 +4778,7 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9D620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2030&gt;</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -4790,7 +4790,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C61277601</t>
+          <t>C37014352</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -4798,12 +4798,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>c1nc2c(c(N[C@H]3CC[NH2+]C4(CCC4)C3)n1)CCC2</t>
+          <t>C[C@]1(NC(=O)[C@@H]2C[C@@H]3CCCC[C@@H]3[NH2+]2)CCS(=O)(=O)C1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>c1nc2c(c(N[C@H]3CC[NH2+]C4(CCC4)C3)n1)CCC2</t>
+          <t>C[C@]1(NC(=O)[C@@H]2C[C@@H]3CCCC[C@@H]3[NH2+]2)CCS(=O)(=O)C1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4817,7 +4817,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>259.38</v>
+        <v>301.43</v>
       </c>
       <c r="H64" t="n">
         <v>2</v>
@@ -4829,13 +4829,13 @@
         <v>2</v>
       </c>
       <c r="K64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>54.42</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -4846,7 +4846,7 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9D690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1A10&gt;</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -4858,7 +4858,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C37014352</t>
+          <t>C16804736</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -4866,12 +4866,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>C[C@]1(NC(=O)[C@@H]2C[C@@H]3CCCC[C@@H]3[NH2+]2)CCS(=O)(=O)C1</t>
+          <t>NC(=O)CCN(C(=O)COC(=O)c1nc(Cl)c(Cl)c(N)c1Cl)c1ccc(F)cc1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>C[C@]1(NC(=O)[C@@H]2C[C@@H]3CCCC[C@@H]3[NH2+]2)CCS(=O)(=O)C1</t>
+          <t>NC(=O)CCN(C(=O)COC(=O)c1nc(Cl)c(Cl)c(N)c1Cl)c1ccc(F)cc1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4885,25 +4885,25 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>301.43</v>
+        <v>463.68</v>
       </c>
       <c r="H65" t="n">
         <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J65" t="n">
+        <v>7</v>
+      </c>
+      <c r="K65" t="n">
         <v>2</v>
       </c>
-      <c r="K65" t="n">
-        <v>3</v>
-      </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M65" t="n">
-        <v>79.84999999999999</v>
+        <v>128.61</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -4914,7 +4914,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9CDD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C2880&gt;</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -4926,7 +4926,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C16804736</t>
+          <t>C49532581</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -4934,12 +4934,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NC(=O)CCN(C(=O)COC(=O)c1nc(Cl)c(Cl)c(N)c1Cl)c1ccc(F)cc1</t>
+          <t>CC[C@H](NS(=O)(=O)c1ccc(C[NH3+])s1)c1cccs1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NC(=O)CCN(C(=O)COC(=O)c1nc(Cl)c(Cl)c(N)c1Cl)c1ccc(F)cc1</t>
+          <t>CC[C@H](NS(=O)(=O)c1ccc(C[NH3+])s1)c1cccs1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4953,16 +4953,16 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>463.68</v>
+        <v>317.48</v>
       </c>
       <c r="H66" t="n">
         <v>2</v>
       </c>
       <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
         <v>6</v>
-      </c>
-      <c r="J66" t="n">
-        <v>7</v>
       </c>
       <c r="K66" t="n">
         <v>2</v>
@@ -4971,7 +4971,7 @@
         <v>2</v>
       </c>
       <c r="M66" t="n">
-        <v>128.61</v>
+        <v>73.81</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -4982,7 +4982,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9D3F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1D20&gt;</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -4994,7 +4994,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C49532581</t>
+          <t>C38664304</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -5002,12 +5002,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CC[C@H](NS(=O)(=O)c1ccc(C[NH3+])s1)c1cccs1</t>
+          <t>N#C[C@H]1C=C2C(=NC1=O)CC[C@H]1C2=Nc2ccccc21</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>CC[C@H](NS(=O)(=O)c1ccc(C[NH3+])s1)c1cccs1</t>
+          <t>N#C[C@H]1C=C2C(=NC1=O)CC[C@H]1C2=Nc2ccccc21</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5021,25 +5021,25 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>317.48</v>
+        <v>261.28</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
-        <v>73.81</v>
+        <v>65.58</v>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
@@ -5050,7 +5050,7 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9E570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1D90&gt;</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -5062,7 +5062,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C38664304</t>
+          <t>C32964038</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5070,12 +5070,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>N#C[C@H]1C=C2C(=NC1=O)CC[C@H]1C2=Nc2ccccc21</t>
+          <t>[H]/N=C1C(=C\c2cccn2-c2ccc3ccccc3c2)/C(=O)N=C2SC=NN2/1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>N#C[C@H]1C=C2C(=NC1=O)CC[C@H]1C2=Nc2ccccc21</t>
+          <t>[H]/N=C1C(=C\c2cccn2-c2ccc3ccccc3c2)/C(=O)N=C2SC=NN2/1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5089,25 +5089,25 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>261.28</v>
+        <v>371.43</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" t="n">
         <v>2</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
       <c r="K68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M68" t="n">
-        <v>65.58</v>
+        <v>73.81</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -5118,7 +5118,7 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9F0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C21F0&gt;</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -5130,7 +5130,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C32964038</t>
+          <t>C20728904</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5138,12 +5138,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[H]/N=C1C(=C\c2cccn2-c2ccc3ccccc3c2)/C(=O)N=C2SC=NN2/1</t>
+          <t>Cc1nn(-c2ncccn2)c2c1[C@H](c1ccc(F)cc1F)SCC(O)=N2</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[H]/N=C1C(=C\c2cccn2-c2ccc3ccccc3c2)/C(=O)N=C2SC=NN2/1</t>
+          <t>Cc1nn(-c2ncccn2)c2c1[C@H](c1ccc(F)cc1F)SCC(O)=N2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5157,25 +5157,25 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>371.43</v>
+        <v>373.39</v>
       </c>
       <c r="H69" t="n">
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J69" t="n">
         <v>2</v>
       </c>
       <c r="K69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L69" t="n">
         <v>3</v>
       </c>
       <c r="M69" t="n">
-        <v>73.81</v>
+        <v>76.19</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -5186,7 +5186,7 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9EC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C27A0&gt;</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -5198,7 +5198,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C20728904</t>
+          <t>C15229247</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5206,12 +5206,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Cc1nn(-c2ncccn2)c2c1[C@H](c1ccc(F)cc1F)SCC(O)=N2</t>
+          <t>CC(=O)[C@H]1[C@@H]2[C@H](C(=O)[C@H]3OC[C@@H]2O3)[C@@H]2C=Cc3ccc4ccccc4c3N21</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Cc1nn(-c2ncccn2)c2c1[C@H](c1ccc(F)cc1F)SCC(O)=N2</t>
+          <t>CC(=O)[C@H]1[C@@H]2[C@H](C(=O)[C@H]3OC[C@@H]2O3)[C@@H]2C=Cc3ccc4ccccc4c3N21</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5225,25 +5225,25 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>373.39</v>
+        <v>361.4</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>5</v>
       </c>
       <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>6</v>
+      </c>
+      <c r="L70" t="n">
         <v>2</v>
       </c>
-      <c r="K70" t="n">
-        <v>4</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3</v>
-      </c>
       <c r="M70" t="n">
-        <v>76.19</v>
+        <v>55.84</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -5254,7 +5254,7 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9E260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1EE0&gt;</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -5266,7 +5266,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C15229247</t>
+          <t>C12661770</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5274,12 +5274,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CC(=O)[C@H]1[C@@H]2[C@H](C(=O)[C@H]3OC[C@@H]2O3)[C@@H]2C=Cc3ccc4ccccc4c3N21</t>
+          <t>CC(=O)[C@@H]1[C@H](C)C[C@@H]2[C@H]3CC=C4C[C@@H](OC(=O)CC[NH+]5CCCCC5)CC[C@]4(C)[C@@H]3CC[C@@]21C</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>CC(=O)[C@H]1[C@@H]2[C@H](C(=O)[C@H]3OC[C@@H]2O3)[C@@H]2C=Cc3ccc4ccccc4c3N21</t>
+          <t>CC(=O)[C@@H]1[C@H](C)C[C@@H]2[C@H]3CC=C4C[C@@H](OC(=O)CC[NH+]5CCCCC5)CC[C@]4(C)[C@@H]3CC[C@@]21C</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5293,25 +5293,25 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>361.4</v>
+        <v>470.72</v>
       </c>
       <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3</v>
+      </c>
+      <c r="J71" t="n">
+        <v>5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>5</v>
+      </c>
+      <c r="L71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>5</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" t="n">
-        <v>6</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2</v>
-      </c>
       <c r="M71" t="n">
-        <v>55.84</v>
+        <v>47.81</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -5322,7 +5322,7 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9F680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C2180&gt;</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -5334,7 +5334,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C12661770</t>
+          <t>C38592292</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5342,12 +5342,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CC(=O)[C@@H]1[C@H](C)C[C@@H]2[C@H]3CC=C4C[C@@H](OC(=O)CC[NH+]5CCCCC5)CC[C@]4(C)[C@@H]3CC[C@@]21C</t>
+          <t>CCOc1ccc2nc(S[C@H]3C(=O)[NH+]=c4ccc(Cl)cc4=C3c3ccccc3)sc2c1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>CC(=O)[C@@H]1[C@H](C)C[C@@H]2[C@H]3CC=C4C[C@@H](OC(=O)CC[NH+]5CCCCC5)CC[C@]4(C)[C@@H]3CC[C@@]21C</t>
+          <t>CCOc1ccc2nc(S[C@H]3C(=O)[NH+]=c4ccc(Cl)cc4=C3c3ccccc3)sc2c1</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5361,13 +5361,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>470.72</v>
+        <v>466.01</v>
       </c>
       <c r="H72" t="n">
         <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J72" t="n">
         <v>5</v>
@@ -5376,10 +5376,10 @@
         <v>5</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M72" t="n">
-        <v>47.81</v>
+        <v>53.16</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -5390,7 +5390,7 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9D070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C2030&gt;</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -5402,7 +5402,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C38592292</t>
+          <t>C28048965</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5410,12 +5410,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CCOc1ccc2nc(S[C@H]3C(=O)[NH+]=c4ccc(Cl)cc4=C3c3ccccc3)sc2c1</t>
+          <t>Cc1cc(Br)ccc1S(=O)(=O)Nc1c(O)oc2ccccc2c1=[NH+]C1CCCCC1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>CCOc1ccc2nc(S[C@H]3C(=O)[NH+]=c4ccc(Cl)cc4=C3c3ccccc3)sc2c1</t>
+          <t>Cc1cc(Br)ccc1S(=O)(=O)Nc1c(O)oc2ccccc2c1=[NH+]C1CCCCC1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5429,25 +5429,25 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>466.01</v>
+        <v>492.42</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
         <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M73" t="n">
-        <v>53.16</v>
+        <v>93.51000000000001</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -5458,7 +5458,7 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9D5B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C2730&gt;</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -5470,7 +5470,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C28048965</t>
+          <t>C03876357</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5478,12 +5478,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Cc1cc(Br)ccc1S(=O)(=O)Nc1c(O)oc2ccccc2c1=[NH+]C1CCCCC1</t>
+          <t>O=C1[NH+]=c2ccc(Br)cc2=C(c2ccccc2)/C1=C1/C[C@@H](c2cccc([N+](=O)[O-])c2)NN1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Cc1cc(Br)ccc1S(=O)(=O)Nc1c(O)oc2ccccc2c1=[NH+]C1CCCCC1</t>
+          <t>O=C1[NH+]=c2ccc(Br)cc2=C(c2ccccc2)/C1=C1/C[C@@H](c2cccc([N+](=O)[O-])c2)NN1</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5497,25 +5497,25 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>492.42</v>
+        <v>490.34</v>
       </c>
       <c r="H74" t="n">
         <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L74" t="n">
         <v>3</v>
       </c>
       <c r="M74" t="n">
-        <v>93.51000000000001</v>
+        <v>98.23999999999999</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -5526,7 +5526,7 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9E500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C2110&gt;</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -5538,7 +5538,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C03876357</t>
+          <t>C42909069</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5546,12 +5546,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>O=C1[NH+]=c2ccc(Br)cc2=C(c2ccccc2)/C1=C1/C[C@@H](c2cccc([N+](=O)[O-])c2)NN1</t>
+          <t>CCOC(=O)N[C@@H](CNC(=O)NC1CC(C)(C)[NH2+]C(C)(C)C1)CC(C)C</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>O=C1[NH+]=c2ccc(Br)cc2=C(c2ccccc2)/C1=C1/C[C@@H](c2cccc([N+](=O)[O-])c2)NN1</t>
+          <t>CCOC(=O)N[C@@H](CNC(=O)NC1CC(C)(C)[NH2+]C(C)(C)C1)CC(C)C</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5565,25 +5565,25 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>490.34</v>
+        <v>371.55</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K75" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>98.23999999999999</v>
+        <v>96.06999999999999</v>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -5594,7 +5594,7 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9EA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1E70&gt;</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -5606,7 +5606,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C42909069</t>
+          <t>C39500634</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5614,12 +5614,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CCOC(=O)N[C@@H](CNC(=O)NC1CC(C)(C)[NH2+]C(C)(C)C1)CC(C)C</t>
+          <t>O=C(Nc1ccc([C@@H]2C=CNN2)cc1)[C@@H]1CCC[NH+](Cc2cc(C#CCO)cs2)C1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>CCOC(=O)N[C@@H](CNC(=O)NC1CC(C)(C)[NH2+]C(C)(C)C1)CC(C)C</t>
+          <t>O=C(Nc1ccc([C@@H]2C=CNN2)cc1)[C@@H]1CCC[NH+](Cc2cc(C#CCO)cs2)C1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5633,25 +5633,25 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>371.55</v>
+        <v>423.56</v>
       </c>
       <c r="H76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J76" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M76" t="n">
-        <v>96.06999999999999</v>
+        <v>77.83</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -5662,7 +5662,7 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9D850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C22D0&gt;</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -5674,7 +5674,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C39500634</t>
+          <t>C39387785</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5682,12 +5682,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc([C@@H]2C=CNN2)cc1)[C@@H]1CCC[NH+](Cc2cc(C#CCO)cs2)C1</t>
+          <t>COc1ccc(N2NC=C([C@@H](C)[NH2+]Cc3[nH]c4ccc(OC)cc4c3C)[C@@H]2C)cc1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc([C@@H]2C=CNN2)cc1)[C@@H]1CCC[NH+](Cc2cc(C#CCO)cs2)C1</t>
+          <t>COc1ccc(N2NC=C([C@@H](C)[NH2+]Cc3[nH]c4ccc(OC)cc4c3C)[C@@H]2C)cc1</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5701,25 +5701,25 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>423.56</v>
+        <v>407.54</v>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
         <v>4</v>
       </c>
       <c r="J77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K77" t="n">
         <v>4</v>
       </c>
       <c r="L77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M77" t="n">
-        <v>77.83</v>
+        <v>66.13</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -5730,7 +5730,7 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9CCF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1E00&gt;</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -5742,7 +5742,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>C39387785</t>
+          <t>C66244099</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5750,12 +5750,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>COc1ccc(N2NC=C([C@@H](C)[NH2+]Cc3[nH]c4ccc(OC)cc4c3C)[C@@H]2C)cc1</t>
+          <t>N/C(NCCc1cc(Cl)cc(Cl)c1)=[NH+]\C[C@H]1CCCO1</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>COc1ccc(N2NC=C([C@@H](C)[NH2+]Cc3[nH]c4ccc(OC)cc4c3C)[C@@H]2C)cc1</t>
+          <t>N/C(NCCc1cc(Cl)cc(Cl)c1)=[NH+]\C[C@H]1CCCO1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5769,25 +5769,25 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>407.54</v>
+        <v>317.24</v>
       </c>
       <c r="H78" t="n">
         <v>3</v>
       </c>
       <c r="I78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J78" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>66.13</v>
+        <v>61.25</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -5798,7 +5798,7 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9DC40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C20A0&gt;</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -5810,7 +5810,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C66244099</t>
+          <t>C50595140</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -5818,12 +5818,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>N/C(NCCc1cc(Cl)cc(Cl)c1)=[NH+]\C[C@H]1CCCO1</t>
+          <t>CCOC(=O)[C@](C)([NH3+])CCCCn1nc(C)c(Br)c1C</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>N/C(NCCc1cc(Cl)cc(Cl)c1)=[NH+]\C[C@H]1CCCO1</t>
+          <t>CCOC(=O)[C@](C)([NH3+])CCCCn1nc(C)c(Br)c1C</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5837,25 +5837,25 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>317.24</v>
+        <v>347.28</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
       <c r="M79" t="n">
-        <v>61.25</v>
+        <v>71.76000000000001</v>
       </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -5866,7 +5866,7 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9EFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1F50&gt;</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -5878,7 +5878,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C50595140</t>
+          <t>C65944383</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -5886,12 +5886,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CCOC(=O)[C@](C)([NH3+])CCCCn1nc(C)c(Br)c1C</t>
+          <t>O=C1C(=O)N(CN2CC3C[C@@H]4CC2C[C@H](C3)C4)C(=O)N1Cc1cccs1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>CCOC(=O)[C@](C)([NH3+])CCCCn1nc(C)c(Br)c1C</t>
+          <t>O=C1C(=O)N(CN2CC3C[C@H]4CC2C[C@@H](C3)C4)C(=O)N1Cc1cccs1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5905,25 +5905,25 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>347.28</v>
+        <v>373.48</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>71.76000000000001</v>
+        <v>60.93</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -5934,7 +5934,7 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9E810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C2340&gt;</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -5946,7 +5946,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C65944383</t>
+          <t>C12566679</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -5954,12 +5954,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>O=C1C(=O)N(CN2CC3C[C@@H]4CC2C[C@H](C3)C4)C(=O)N1Cc1cccs1</t>
+          <t>Cc1ccc(NC(=S)N(CC[NH+](C)C)Cc2cc3cc(C)cc(C)c3[nH]c2=O)c(C)c1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>O=C1C(=O)N(CN2CC3C[C@H]4CC2C[C@@H](C3)C4)C(=O)N1Cc1cccs1</t>
+          <t>Cc1ccc(NC(=S)N(CC[NH+](C)C)Cc2cc3cc(C)cc(C)c3[nH]c2=O)c(C)c1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5973,25 +5973,25 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>373.48</v>
+        <v>437.63</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I81" t="n">
         <v>4</v>
       </c>
       <c r="J81" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K81" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M81" t="n">
-        <v>60.93</v>
+        <v>52.57</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -6002,7 +6002,7 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9FD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BDB60&gt;</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -6014,7 +6014,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C12566679</t>
+          <t>C01612853</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -6022,12 +6022,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=S)N(CC[NH+](C)C)Cc2cc3cc(C)cc(C)c3[nH]c2=O)c(C)c1</t>
+          <t>CO[C@]1(Cc2cc(O)c(O)c(Br)c2Br)C(=O)O[C@@H]2[C@@H](O)CO[C@@]21O</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=S)N(CC[NH+](C)C)Cc2cc3cc(C)cc(C)c3[nH]c2=O)c(C)c1</t>
+          <t>CO[C@]1(Cc2cc(O)c(O)c(Br)c2Br)C(=O)O[C@@H]2[C@@H](O)CO[C@@]21O</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -6041,25 +6041,25 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>437.63</v>
+        <v>470.07</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J82" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K82" t="n">
         <v>3</v>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M82" t="n">
-        <v>52.57</v>
+        <v>125.68</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -6070,7 +6070,7 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9EAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD9A0&gt;</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -6082,7 +6082,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>C01612853</t>
+          <t>C63195391</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6090,12 +6090,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CO[C@]1(Cc2cc(O)c(O)c(Br)c2Br)C(=O)O[C@@H]2[C@@H](O)CO[C@@]21O</t>
+          <t>C=CCNC(=O)NC(=O)CN1CCCC[C@@H]1[C@H](C)[NH3+]</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>CO[C@]1(Cc2cc(O)c(O)c(Br)c2Br)C(=O)O[C@@H]2[C@@H](O)CO[C@@]21O</t>
+          <t>C=CCNC(=O)NC(=O)CN1CCCC[C@@H]1[C@H](C)[NH3+]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -6109,25 +6109,25 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>470.07</v>
+        <v>269.37</v>
       </c>
       <c r="H83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I83" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>125.68</v>
+        <v>89.08</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -6138,7 +6138,7 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9D7E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BDC40&gt;</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -6150,7 +6150,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C63195391</t>
+          <t>C02792782</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6158,12 +6158,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>C=CCNC(=O)NC(=O)CN1CCCC[C@@H]1[C@H](C)[NH3+]</t>
+          <t>Cc1ccc(-n2c([S-])nnc2CSc2nnc(-c3ccn(C)n3)n2C[C@@H]2CCCO2)cc1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>C=CCNC(=O)NC(=O)CN1CCCC[C@@H]1[C@H](C)[NH3+]</t>
+          <t>Cc1ccc(-n2c([S-])nnc2CSc2nnc(-c3ccn(C)n3)n2C[C@@H]2CCCO2)cc1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -6177,25 +6177,25 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>269.37</v>
+        <v>467.6</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J84" t="n">
+        <v>7</v>
+      </c>
+      <c r="K84" t="n">
         <v>5</v>
       </c>
-      <c r="K84" t="n">
-        <v>1</v>
-      </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M84" t="n">
-        <v>89.08</v>
+        <v>88.47</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -6206,7 +6206,7 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9F300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BDA10&gt;</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -6218,7 +6218,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>C02792782</t>
+          <t>C19327658</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6226,12 +6226,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Cc1ccc(-n2c([S-])nnc2CSc2nnc(-c3ccn(C)n3)n2C[C@@H]2CCCO2)cc1</t>
+          <t>Cc1ccc(O)c(C[NH+]2CCN(Cc3cc(O)ccc3C)[C@@H]2c2ccccc2)c1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Cc1ccc(-n2c([S-])nnc2CSc2nnc(-c3ccn(C)n3)n2C[C@@H]2CCCO2)cc1</t>
+          <t>Cc1ccc(O)c(C[NH+]2CCN(Cc3cc(O)ccc3C)[C@@H]2c2ccccc2)c1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -6245,25 +6245,25 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>467.6</v>
+        <v>389.52</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M85" t="n">
-        <v>88.47</v>
+        <v>48.14</v>
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -6274,7 +6274,7 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9DA10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD8C0&gt;</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -6286,7 +6286,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C19327658</t>
+          <t>C33928151</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6294,12 +6294,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Cc1ccc(O)c(C[NH+]2CCN(Cc3cc(O)ccc3C)[C@@H]2c2ccccc2)c1</t>
+          <t>N#CC1=C(SCC(N)=O)N[C@@](O)(C(F)(F)F)[C@H](C(=O)c2cccs2)[C@@H]1c1ccccc1Cl</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Cc1ccc(O)c(C[NH+]2CCN(Cc3cc(O)ccc3C)[C@@H]2c2ccccc2)c1</t>
+          <t>N#CC1=C(SCC(N)=O)N[C@@](O)(C(F)(F)F)[C@H](C(=O)c2cccs2)[C@@H]1c1ccccc1Cl</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -6313,25 +6313,25 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>389.52</v>
+        <v>501.94</v>
       </c>
       <c r="H86" t="n">
         <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J86" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M86" t="n">
-        <v>48.14</v>
+        <v>116.21</v>
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
@@ -6342,7 +6342,7 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9D540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD930&gt;</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -6354,7 +6354,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C33928151</t>
+          <t>C39316185</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6362,12 +6362,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>N#CC1=C(SCC(N)=O)N[C@@](O)(C(F)(F)F)[C@H](C(=O)c2cccs2)[C@@H]1c1ccccc1Cl</t>
+          <t>Cc1ccc(C)n1[C@H]1C=CS[C@H]1[C@@H]1C=C(/[NH+]=c2/c(C=O)coc3ccc(F)cc23)N=N1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>N#CC1=C(SCC(N)=O)N[C@@](O)(C(F)(F)F)[C@H](C(=O)c2cccs2)[C@@H]1c1ccccc1Cl</t>
+          <t>Cc1ccc(C)n1[C@H]1C=CS[C@H]1[C@@H]1C=C(/[NH+]=c2/c(C=O)coc3ccc(F)cc23)N=N1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6381,25 +6381,25 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>501.94</v>
+        <v>435.5</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M87" t="n">
-        <v>116.21</v>
+        <v>73.83</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -6410,7 +6410,7 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9FED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD7E0&gt;</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -6422,7 +6422,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>C39316185</t>
+          <t>C15707529</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6430,12 +6430,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Cc1ccc(C)n1[C@H]1C=CS[C@H]1[C@@H]1C=C(/[NH+]=c2/c(C=O)coc3ccc(F)cc23)N=N1</t>
+          <t>COCCNC(=S)N[C@H]1C[C@H]2C(=O)NC[C@@H](CCC(=O)N3CCCC3)[NH+]2C1</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Cc1ccc(C)n1[C@H]1C=CS[C@H]1[C@@H]1C=C(/[NH+]=c2/c(C=O)coc3ccc(F)cc23)N=N1</t>
+          <t>COCCNC(=S)N[C@H]1C[C@H]2C(=O)NC[C@@H](CCC(=O)N3CCCC3)[NH+]2C1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6449,25 +6449,25 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>435.5</v>
+        <v>398.55</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J88" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>73.83</v>
+        <v>87.14</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -6478,7 +6478,7 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9F370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD850&gt;</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -6490,7 +6490,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>C15707529</t>
+          <t>C09467827</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6498,12 +6498,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>COCCNC(=S)N[C@H]1C[C@H]2C(=O)NC[C@@H](CCC(=O)N3CCCC3)[NH+]2C1</t>
+          <t>Cc1ccc(Nc2nc(N)nc(C[NH+](C)Cc3ccco3)n2)cc1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>COCCNC(=S)N[C@H]1C[C@H]2C(=O)NC[C@@H](CCC(=O)N3CCCC3)[NH+]2C1</t>
+          <t>Cc1ccc(Nc2nc(N)nc(C[NH+](C)Cc3ccco3)n2)cc1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6517,25 +6517,25 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>398.55</v>
+        <v>325.4</v>
       </c>
       <c r="H89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I89" t="n">
         <v>6</v>
       </c>
       <c r="J89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K89" t="n">
         <v>3</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M89" t="n">
-        <v>87.14</v>
+        <v>94.3</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9F4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BDA80&gt;</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
@@ -6558,7 +6558,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>C09467827</t>
+          <t>C36369753</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6566,12 +6566,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Cc1ccc(Nc2nc(N)nc(C[NH+](C)Cc3ccco3)n2)cc1</t>
+          <t>OC[C@@H](O)[C@@H](O)[C@@H](O)[C@H](O)[C@@H]1N2C[C@@]3(c4ccccc4)C[NH+]1C[C@@](c1ccccc1)(C2)C3O</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Cc1ccc(Nc2nc(N)nc(C[NH+](C)Cc3ccco3)n2)cc1</t>
+          <t>OC[C@@H](O)[C@@H](O)[C@@H](O)[C@H](O)[C@@H]1N2C[C@@]3(c4ccccc4)C[NH+]1C[C@@](c1ccccc1)(C2)C3O</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6585,25 +6585,25 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>325.4</v>
+        <v>457.55</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I90" t="n">
+        <v>7</v>
+      </c>
+      <c r="J90" t="n">
+        <v>7</v>
+      </c>
+      <c r="K90" t="n">
         <v>6</v>
       </c>
-      <c r="J90" t="n">
-        <v>6</v>
-      </c>
-      <c r="K90" t="n">
-        <v>3</v>
-      </c>
       <c r="L90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M90" t="n">
-        <v>94.3</v>
+        <v>129.06</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -6614,7 +6614,7 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9C970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BDAF0&gt;</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -6626,7 +6626,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>C36369753</t>
+          <t>C43277621</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6634,12 +6634,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>OC[C@@H](O)[C@@H](O)[C@@H](O)[C@H](O)[C@@H]1N2C[C@@]3(c4ccccc4)C[NH+]1C[C@@](c1ccccc1)(C2)C3O</t>
+          <t>Nc1ccc2cc3ccc(=[NH2+])cc-3n(CCCC(=O)NCCN3C(=O)C=CC3=O)c2c1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>OC[C@@H](O)[C@@H](O)[C@@H](O)[C@H](O)[C@@H]1N2C[C@@]3(c4ccccc4)C[NH+]1C[C@@](c1ccccc1)(C2)C3O</t>
+          <t>Nc1ccc2cc3ccc(=[NH2+])cc-3n(CCCC(=O)NCCN3C(=O)C=CC3=O)c2c1</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6653,25 +6653,25 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>457.55</v>
+        <v>418.48</v>
       </c>
       <c r="H91" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I91" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J91" t="n">
         <v>7</v>
       </c>
       <c r="K91" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M91" t="n">
-        <v>129.06</v>
+        <v>123.02</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -6682,7 +6682,7 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9F3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849779EAB0&gt;</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -6694,7 +6694,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>C43277621</t>
+          <t>C38717990</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6702,12 +6702,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Nc1ccc2cc3ccc(=[NH2+])cc-3n(CCCC(=O)NCCN3C(=O)C=CC3=O)c2c1</t>
+          <t>C[NH+]1CCN(NC(=O)C(=O)NCCN2CCOCC2)CC1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Nc1ccc2cc3ccc(=[NH2+])cc-3n(CCCC(=O)NCCN3C(=O)C=CC3=O)c2c1</t>
+          <t>C[NH+]1CCN(NC(=O)C(=O)NCCN2CCOCC2)CC1</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6721,25 +6721,25 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>418.48</v>
+        <v>300.38</v>
       </c>
       <c r="H92" t="n">
         <v>3</v>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J92" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>123.02</v>
+        <v>78.34999999999999</v>
       </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
@@ -6750,7 +6750,7 @@
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9D230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849779E8F0&gt;</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
@@ -6762,7 +6762,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>C38717990</t>
+          <t>C36298801</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -6770,12 +6770,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>C[NH+]1CCN(NC(=O)C(=O)NCCN2CCOCC2)CC1</t>
+          <t>CC(C)C[C@H]([NH3+])CNS(=O)(=O)c1cn(C)c(=O)n(C)c1=O</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>C[NH+]1CCN(NC(=O)C(=O)NCCN2CCOCC2)CC1</t>
+          <t>CC(C)C[C@H]([NH3+])CNS(=O)(=O)c1cn(C)c(=O)n(C)c1=O</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6789,25 +6789,25 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>300.38</v>
+        <v>319.41</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J93" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="n">
-        <v>78.34999999999999</v>
+        <v>117.81</v>
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
@@ -6818,7 +6818,7 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9CC10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849779EB20&gt;</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -6830,7 +6830,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>C36298801</t>
+          <t>C15062423</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -6838,12 +6838,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CC(C)C[C@H]([NH3+])CNS(=O)(=O)c1cn(C)c(=O)n(C)c1=O</t>
+          <t>O=C1N(CC2CC2)CCC[C@]1(O)C[NH2+]C1CCN(c2ccccc2)CC1</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>CC(C)C[C@H]([NH3+])CNS(=O)(=O)c1cn(C)c(=O)n(C)c1=O</t>
+          <t>O=C1N(CC2CC2)CCC[C@]1(O)C[NH2+]C1CCN(c2ccccc2)CC1</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6857,25 +6857,25 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>319.41</v>
+        <v>358.51</v>
       </c>
       <c r="H94" t="n">
         <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
         <v>6</v>
       </c>
       <c r="K94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
       <c r="M94" t="n">
-        <v>117.81</v>
+        <v>60.39</v>
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9CB30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849779E880&gt;</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -6898,7 +6898,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>C15062423</t>
+          <t>C20203547</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -6906,12 +6906,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>O=C1N(CC2CC2)CCC[C@]1(O)C[NH2+]C1CCN(c2ccccc2)CC1</t>
+          <t>Cc1ccc(Cn2cnc3sc4c(c3c2=O)CC[C@@H]([NH2+]CC(C)(C)CO)C4)cc1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>O=C1N(CC2CC2)CCC[C@]1(O)C[NH2+]C1CCN(c2ccccc2)CC1</t>
+          <t>Cc1ccc(Cn2cnc3sc4c(c3c2=O)CC[C@@H]([NH2+]CC(C)(C)CO)C4)cc1</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -6925,7 +6925,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>358.51</v>
+        <v>412.58</v>
       </c>
       <c r="H95" t="n">
         <v>2</v>
@@ -6940,10 +6940,10 @@
         <v>4</v>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M95" t="n">
-        <v>60.39</v>
+        <v>71.73</v>
       </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
@@ -6954,7 +6954,7 @@
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9E2D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849779E7A0&gt;</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -6966,7 +6966,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>C20203547</t>
+          <t>C39738095</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -6974,12 +6974,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Cc1ccc(Cn2cnc3sc4c(c3c2=O)CC[C@@H]([NH2+]CC(C)(C)CO)C4)cc1</t>
+          <t>Nc1c(/N=N/c2cccc(/C=C/C3[NH+]=c4ccccc4=[NH+]3)c2)cc(S(=O)(=O)[O-])c2ccccc12</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Cc1ccc(Cn2cnc3sc4c(c3c2=O)CC[C@@H]([NH2+]CC(C)(C)CO)C4)cc1</t>
+          <t>Nc1c(/N=N/c2cccc(/C=C/C3[NH+]=c4ccccc4=[NH+]3)c2)cc(S(=O)(=O)[O-])c2ccccc12</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -6993,25 +6993,25 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>412.58</v>
+        <v>470.53</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M96" t="n">
-        <v>71.73</v>
+        <v>135.88</v>
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
@@ -7022,7 +7022,7 @@
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9CF20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849779E810&gt;</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
@@ -7034,7 +7034,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>C39738095</t>
+          <t>C13489294</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -7042,12 +7042,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Nc1c(/N=N/c2cccc(/C=C/C3[NH+]=c4ccccc4=[NH+]3)c2)cc(S(=O)(=O)[O-])c2ccccc12</t>
+          <t>COC(=O)[C@H](CSC1CCCCC1)n1c(=O)n2n(c1=O)[C@@H](C(=O)NCc1ccc(N)[nH+]c1C)C=CC2</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Nc1c(/N=N/c2cccc(/C=C/C3[NH+]=c4ccccc4=[NH+]3)c2)cc(S(=O)(=O)[O-])c2ccccc12</t>
+          <t>COC(=O)[C@H](CSC1CCCCC1)n1c(=O)n2n(c1=O)[C@@H](C(=O)NCc1ccc(N)[nH+]c1C)C=CC2</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -7061,25 +7061,25 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>470.53</v>
+        <v>517.63</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J97" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M97" t="n">
-        <v>135.88</v>
+        <v>144.49</v>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
@@ -7090,7 +7090,7 @@
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9FCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849779E650&gt;</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
@@ -7102,7 +7102,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>C13489294</t>
+          <t>C14542489</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -7110,12 +7110,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>COC(=O)[C@H](CSC1CCCCC1)n1c(=O)n2n(c1=O)[C@@H](C(=O)NCc1ccc(N)[nH+]c1C)C=CC2</t>
+          <t>CC(C)C[C@H]([NH2+][C@H]1CCc2c(c(C(=O)N(C)C)nn2CC2CCCCC2)C1)C(N)=O</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>COC(=O)[C@H](CSC1CCCCC1)n1c(=O)n2n(c1=O)[C@@H](C(=O)NCc1ccc(N)[nH+]c1C)C=CC2</t>
+          <t>CC(C)C[C@H]([NH2+][C@H]1CCc2c(c(C(=O)N(C)C)nn2CC2CCCCC2)C1)C(N)=O</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -7129,25 +7129,25 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>517.63</v>
+        <v>418.61</v>
       </c>
       <c r="H98" t="n">
         <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J98" t="n">
         <v>8</v>
       </c>
       <c r="K98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M98" t="n">
-        <v>144.49</v>
+        <v>97.83</v>
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -7158,7 +7158,7 @@
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9DE00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849779E9D0&gt;</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
@@ -7170,7 +7170,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>C14542489</t>
+          <t>C03840706</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -7178,12 +7178,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CC(C)C[C@H]([NH2+][C@H]1CCc2c(c(C(=O)N(C)C)nn2CC2CCCCC2)C1)C(N)=O</t>
+          <t>C[C@H](C(=O)N1CC[NH+](C)CC1)[C@H]1CC[C@@]2(C)Cc3sc(COC(=O)C(C)(C)C)nc3[C@@H](C)[C@@H]2[C@H]1O</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CC(C)C[C@H]([NH2+][C@H]1CCc2c(c(C(=O)N(C)C)nn2CC2CCCCC2)C1)C(N)=O</t>
+          <t>C[C@@H]1c2nc(COC(=O)C(C)(C)C)sc2C[C@]2(C)CC[C@H]([C@H](C)C(=O)N3CC[NH+](C)CC3)[C@H](O)[C@@H]12</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -7193,29 +7193,29 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>418.61</v>
+        <v>506.73</v>
       </c>
       <c r="H99" t="n">
         <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J99" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
       <c r="M99" t="n">
-        <v>97.83</v>
+        <v>84.17</v>
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -7226,7 +7226,7 @@
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9E8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849779EA40&gt;</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
@@ -7238,7 +7238,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>C03840706</t>
+          <t>C49634647</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7246,12 +7246,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>C[C@H](C(=O)N1CC[NH+](C)CC1)[C@H]1CC[C@@]2(C)Cc3sc(COC(=O)C(C)(C)C)nc3[C@@H](C)[C@@H]2[C@H]1O</t>
+          <t>C[C@H](Sc1nnc([C@@H](C)[NH+](C)C)n1-c1ccc(F)cc1)C(=O)/N=c1/[nH]c(-c2ccccc2)cs1</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>C[C@@H]1c2nc(COC(=O)C(C)(C)C)sc2C[C@]2(C)CC[C@H]([C@H](C)C(=O)N3CC[NH+](C)CC3)[C@H](O)[C@@H]12</t>
+          <t>C[C@H](Sc1nnc([C@@H](C)[NH+](C)C)n1-c1ccc(F)cc1)C(=O)/N=c1/[nH]c(-c2ccccc2)cs1</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -7265,25 +7265,25 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>506.73</v>
+        <v>497.65</v>
       </c>
       <c r="H100" t="n">
         <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J100" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K100" t="n">
         <v>4</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M100" t="n">
-        <v>84.17</v>
+        <v>80.37</v>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
@@ -7294,7 +7294,7 @@
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9E420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849779E960&gt;</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
@@ -7306,7 +7306,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>C49634647</t>
+          <t>C43741815</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7314,12 +7314,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>C[C@H](Sc1nnc([C@@H](C)[NH+](C)C)n1-c1ccc(F)cc1)C(=O)/N=c1/[nH]c(-c2ccccc2)cs1</t>
+          <t>C[C@@]12CC/C(=N/OCC(=O)NCc3ccncc3)C=C1CC[C@H]1[C@@H]2[C@H](O)C[C@]2(C)[C@@H]1CC[C@@]2(O)C(=O)CO</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>C[C@H](Sc1nnc([C@@H](C)[NH+](C)C)n1-c1ccc(F)cc1)C(=O)/N=c1/[nH]c(-c2ccccc2)cs1</t>
+          <t>C[C@@]12CC/C(=N/OCC(=O)NCc3ccncc3)C=C1CC[C@H]1[C@@H]2[C@H](O)C[C@]2(C)[C@@H]1CC[C@@]2(O)C(=O)CO</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -7333,25 +7333,25 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>497.65</v>
+        <v>525.65</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I101" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J101" t="n">
         <v>7</v>
       </c>
       <c r="K101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M101" t="n">
-        <v>80.37</v>
+        <v>141.34</v>
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
@@ -7362,7 +7362,7 @@
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9CA50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887F990&gt;</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
@@ -7374,7 +7374,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>C43741815</t>
+          <t>C39265540</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7382,12 +7382,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>C[C@@]12CC/C(=N/OCC(=O)NCc3ccncc3)C=C1CC[C@H]1[C@@H]2[C@H](O)C[C@]2(C)[C@@H]1CC[C@@]2(O)C(=O)CO</t>
+          <t>[H]/N=C1\N=C2N=CN=C2[C@@H](S[C@@H](C)C(=O)N[C@@]2(c3ccccc3)CCCC[C@H]2O)N1</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>C[C@@]12CC/C(=N/OCC(=O)NCc3ccncc3)C=C1CC[C@H]1[C@@H]2[C@H](O)C[C@]2(C)[C@@H]1CC[C@@]2(O)C(=O)CO</t>
+          <t>[H]/N=C1\N=C2N=CN=C2[C@@H](S[C@@H](C)C(=O)N[C@@]2(c3ccccc3)CCCC[C@H]2O)N1</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -7401,25 +7401,25 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>525.65</v>
+        <v>412.52</v>
       </c>
       <c r="H102" t="n">
         <v>4</v>
       </c>
       <c r="I102" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J102" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
       <c r="M102" t="n">
-        <v>141.34</v>
+        <v>122.29</v>
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
@@ -7430,7 +7430,7 @@
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9E340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887D150&gt;</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
@@ -7442,7 +7442,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>C39265540</t>
+          <t>C63205687</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -7450,12 +7450,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[H]/N=C1\N=C2N=CN=C2[C@@H](S[C@@H](C)C(=O)N[C@@]2(c3ccccc3)CCCC[C@H]2O)N1</t>
+          <t>O=C([C@@H](NC[C@@H](C1=c2ccccc2=[NH+]C1)c1ccccc1)c1ccccc1)N1CCOCC1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>[H]/N=C1\N=C2N=CN=C2[C@@H](S[C@@H](C)C(=O)N[C@@]2(c3ccccc3)CCCC[C@H]2O)N1</t>
+          <t>O=C([C@@H](NC[C@@H](C1=c2ccccc2=[NH+]C1)c1ccccc1)c1ccccc1)N1CCOCC1</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7469,25 +7469,25 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>412.52</v>
+        <v>440.57</v>
       </c>
       <c r="H103" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J103" t="n">
+        <v>7</v>
+      </c>
+      <c r="K103" t="n">
         <v>5</v>
       </c>
-      <c r="K103" t="n">
-        <v>4</v>
-      </c>
       <c r="L103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M103" t="n">
-        <v>122.29</v>
+        <v>55.54</v>
       </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
@@ -7498,7 +7498,7 @@
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9D930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887EE30&gt;</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
@@ -7510,7 +7510,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>C63205687</t>
+          <t>C03084920</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -7518,12 +7518,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>O=C([C@@H](NC[C@@H](C1=c2ccccc2=[NH+]C1)c1ccccc1)c1ccccc1)N1CCOCC1</t>
+          <t>O=[N+]([O-])c1ccc(Oc2ccc(/C=N/c3ccc(-c4nc5ccccc5s4)c(O)c3)cc2)c([N+](=O)[O-])c1</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>O=C([C@@H](NC[C@@H](C1=c2ccccc2=[NH+]C1)c1ccccc1)c1ccccc1)N1CCOCC1</t>
+          <t>O=[N+]([O-])c1ccc(Oc2ccc(/C=N/c3ccc(-c4nc5ccccc5s4)c(O)c3)cc2)c([N+](=O)[O-])c1</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -7537,13 +7537,13 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>440.57</v>
+        <v>512.5</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J104" t="n">
         <v>7</v>
@@ -7552,10 +7552,10 @@
         <v>5</v>
       </c>
       <c r="L104" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M104" t="n">
-        <v>55.54</v>
+        <v>140.99</v>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -7566,7 +7566,7 @@
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9CC80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887F680&gt;</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
@@ -7578,7 +7578,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>C03084920</t>
+          <t>C37892407</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -7586,12 +7586,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccc(Oc2ccc(/C=N/c3ccc(-c4nc5ccccc5s4)c(O)c3)cc2)c([N+](=O)[O-])c1</t>
+          <t>Cc1ccc(OC[C@H](O)C[NH2+]CC(=O)NC(C)C)c(Br)c1</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccc(Oc2ccc(/C=N/c3ccc(-c4nc5ccccc5s4)c(O)c3)cc2)c([N+](=O)[O-])c1</t>
+          <t>Cc1ccc(OC[C@H](O)C[NH2+]CC(=O)NC(C)C)c(Br)c1</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -7605,25 +7605,25 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>512.5</v>
+        <v>360.27</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J105" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K105" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L105" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M105" t="n">
-        <v>140.99</v>
+        <v>75.17</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -7634,7 +7634,7 @@
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9F060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887CA50&gt;</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
@@ -7646,7 +7646,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>C37892407</t>
+          <t>C59818976</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -7654,12 +7654,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Cc1ccc(OC[C@H](O)C[NH2+]CC(=O)NC(C)C)c(Br)c1</t>
+          <t>CCN(C)C(=O)[C@@H](C)Sc1n[nH]c(N/N=C/c2cc(Br)c(O)c(Br)c2)n1</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Cc1ccc(OC[C@H](O)C[NH2+]CC(=O)NC(C)C)c(Br)c1</t>
+          <t>CCN(C)C(=O)[C@@H](C)Sc1n[nH]c(N/N=C/c2cc(Br)c(O)c(Br)c2)n1</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -7673,25 +7673,25 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>360.27</v>
+        <v>506.22</v>
       </c>
       <c r="H106" t="n">
         <v>3</v>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J106" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M106" t="n">
-        <v>75.17</v>
+        <v>106.5</v>
       </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
@@ -7702,7 +7702,7 @@
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9FDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887E420&gt;</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
@@ -7714,7 +7714,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>C59818976</t>
+          <t>C25680387</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -7722,12 +7722,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CCN(C)C(=O)[C@@H](C)Sc1n[nH]c(N/N=C/c2cc(Br)c(O)c(Br)c2)n1</t>
+          <t>C[C@@H](C(=O)Nc1sc2c(c1C#N)CCCCC2)[NH+]1CC=C(c2ccc(O)cc2)CC1</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>CCN(C)C(=O)[C@@H](C)Sc1n[nH]c(N/N=C/c2cc(Br)c(O)c(Br)c2)n1</t>
+          <t>C[C@@H](C(=O)Nc1sc2c(c1C#N)CCCCC2)[NH+]1CC=C(c2ccc(O)cc2)CC1</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -7741,25 +7741,25 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>506.22</v>
+        <v>422.57</v>
       </c>
       <c r="H107" t="n">
         <v>3</v>
       </c>
       <c r="I107" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K107" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L107" t="n">
         <v>2</v>
       </c>
       <c r="M107" t="n">
-        <v>106.5</v>
+        <v>77.56</v>
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
@@ -7770,7 +7770,7 @@
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9FF40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887CE40&gt;</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
@@ -7782,7 +7782,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>C25680387</t>
+          <t>C16957850</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -7790,12 +7790,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>C[C@@H](C(=O)Nc1sc2c(c1C#N)CCCCC2)[NH+]1CC=C(c2ccc(O)cc2)CC1</t>
+          <t>[H]/N=C\CCN(CC/C=N/[H])c1ccc(/C=C2/CN(NC(=O)c3ccc(Cl)cc3)C(c3ccccc3)=[NH+]2)cc1</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>C[C@@H](C(=O)Nc1sc2c(c1C#N)CCCCC2)[NH+]1CC=C(c2ccc(O)cc2)CC1</t>
+          <t>[H]/N=C\CCN(CC/C=N/[H])c1ccc(/C=C2/CN(NC(=O)c3ccc(Cl)cc3)C(c3ccccc3)=[NH+]2)cc1</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -7809,25 +7809,25 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>422.57</v>
+        <v>514.05</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I108" t="n">
         <v>3</v>
       </c>
       <c r="J108" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K108" t="n">
         <v>4</v>
       </c>
       <c r="L108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M108" t="n">
-        <v>77.56</v>
+        <v>97.25</v>
       </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
@@ -7838,7 +7838,7 @@
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9FBC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887F6F0&gt;</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
@@ -7850,7 +7850,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>C16957850</t>
+          <t>C09236225</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -7858,12 +7858,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[H]/N=C\CCN(CC/C=N/[H])c1ccc(/C=C2/CN(NC(=O)c3ccc(Cl)cc3)C(c3ccccc3)=[NH+]2)cc1</t>
+          <t>COC(=O)c1ccc([C@@H]2Nn3c(nnc3-c3ccccc3)S[C@H]2C(=O)Nc2cccc(C)c2C)cc1</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[H]/N=C\CCN(CC/C=N/[H])c1ccc(/C=C2/CN(NC(=O)c3ccc(Cl)cc3)C(c3ccccc3)=[NH+]2)cc1</t>
+          <t>COC(=O)c1ccc([C@@H]2Nn3c(nnc3-c3ccccc3)S[C@H]2C(=O)Nc2cccc(C)c2C)cc1</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -7877,25 +7877,25 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>514.05</v>
+        <v>499.6</v>
       </c>
       <c r="H109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J109" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K109" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M109" t="n">
-        <v>97.25</v>
+        <v>98.14</v>
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -7906,7 +7906,7 @@
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9F140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887EDC0&gt;</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
@@ -7918,7 +7918,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>C09236225</t>
+          <t>C37012195</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -7926,12 +7926,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>COC(=O)c1ccc([C@@H]2Nn3c(nnc3-c3ccccc3)S[C@H]2C(=O)Nc2cccc(C)c2C)cc1</t>
+          <t>O=C(Nc1ccccc1SC(F)(F)F)[C@@H]1C[C@@H](O)C[NH2+]1</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>COC(=O)c1ccc([C@@H]2Nn3c(nnc3-c3ccccc3)S[C@H]2C(=O)Nc2cccc(C)c2C)cc1</t>
+          <t>O=C(Nc1ccccc1SC(F)(F)F)[C@@H]1C[C@@H](O)C[NH2+]1</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -7945,25 +7945,25 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>499.6</v>
+        <v>307.32</v>
       </c>
       <c r="H110" t="n">
+        <v>3</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3</v>
+      </c>
+      <c r="K110" t="n">
         <v>2</v>
       </c>
-      <c r="I110" t="n">
-        <v>7</v>
-      </c>
-      <c r="J110" t="n">
-        <v>5</v>
-      </c>
-      <c r="K110" t="n">
-        <v>5</v>
-      </c>
       <c r="L110" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M110" t="n">
-        <v>98.14</v>
+        <v>65.94</v>
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
@@ -7974,7 +7974,7 @@
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9F8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887ECE0&gt;</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
@@ -7986,7 +7986,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>C37012195</t>
+          <t>C63781088</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -7994,12 +7994,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccccc1SC(F)(F)F)[C@@H]1C[C@@H](O)C[NH2+]1</t>
+          <t>CC(C)[C@H]1N=N/C(=N\C(=O)[C@@H]2CC(=O)N(c3ccc(Br)cc3)C2)S1</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccccc1SC(F)(F)F)[C@@H]1C[C@@H](O)C[NH2+]1</t>
+          <t>CC(C)[C@H]1N=N/C(=N\C(=O)[C@@H]2CC(=O)N(c3ccc(Br)cc3)C2)S1</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -8013,10 +8013,10 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>307.32</v>
+        <v>409.31</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
@@ -8025,13 +8025,13 @@
         <v>3</v>
       </c>
       <c r="K111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
       <c r="M111" t="n">
-        <v>65.94</v>
+        <v>74.45999999999999</v>
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
@@ -8042,7 +8042,7 @@
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9C7B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887E5E0&gt;</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
@@ -8054,7 +8054,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>C63781088</t>
+          <t>C36609344</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -8062,12 +8062,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CC(C)[C@H]1N=N/C(=N\C(=O)[C@@H]2CC(=O)N(c3ccc(Br)cc3)C2)S1</t>
+          <t>CCCCNC(=O)[C@@H](c1c(O)cc(O)cc1O)N(C(=O)c1cc([N+](=O)[O-])ccc1O)c1ccccc1</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>CC(C)[C@H]1N=N/C(=N\C(=O)[C@@H]2CC(=O)N(c3ccc(Br)cc3)C2)S1</t>
+          <t>CCCCNC(=O)[C@@H](c1c(O)cc(O)cc1O)N(C(=O)c1cc([N+](=O)[O-])ccc1O)c1ccccc1</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -8081,25 +8081,25 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>409.31</v>
+        <v>495.49</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J112" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K112" t="n">
         <v>3</v>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M112" t="n">
-        <v>74.45999999999999</v>
+        <v>173.47</v>
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
@@ -8110,7 +8110,7 @@
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9CBA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887F8B0&gt;</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
@@ -8122,7 +8122,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>C36609344</t>
+          <t>CHEMBL579387</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -8130,12 +8130,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CCCCNC(=O)[C@@H](c1c(O)cc(O)cc1O)N(C(=O)c1cc([N+](=O)[O-])ccc1O)c1ccccc1</t>
+          <t>O=C1OC(c2ccccc2)=N/C1=C\c1cccnc1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>CCCCNC(=O)[C@@H](c1c(O)cc(O)cc1O)N(C(=O)c1cc([N+](=O)[O-])ccc1O)c1ccccc1</t>
+          <t>O=C1OC(c2ccccc2)=N/C1=C\c1cccnc1</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -8145,40 +8145,66 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>495.49</v>
+        <v>250.26</v>
       </c>
       <c r="H113" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J113" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K113" t="n">
         <v>3</v>
       </c>
       <c r="L113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M113" t="n">
-        <v>173.47</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
+        <v>51.55</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>12</v>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>CHEMBL1113463</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>Inhibition of AKT1 at 10 uM</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9F6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887C510&gt;</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
@@ -8190,7 +8216,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CHEMBL579387</t>
+          <t>CHEMBL1215346</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -8198,12 +8224,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>O=C1OC(c2ccccc2)=N/C1=C\c1cccnc1</t>
+          <t>CN(C)CCCc1c(/C=C2\C(=O)Nc3ccc(NS(=O)(=O)c4ccccc4)cc32)[nH]c2c1C(=O)CCC2</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>O=C1OC(c2ccccc2)=N/C1=C\c1cccnc1</t>
+          <t>CN(C)CCCc1c(/C=C2\C(=O)Nc3ccc(NS(=O)(=O)c4ccccc4)cc32)[nH]c2c1C(=O)CCC2</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -8217,25 +8243,25 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>250.26</v>
+        <v>518.64</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J114" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K114" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M114" t="n">
-        <v>51.55</v>
+        <v>111.37</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8253,16 +8279,16 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>CHEMBL1113463</t>
+          <t>CHEMBL1219734</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>Inhibition of AKT1 at 10 uM</t>
+          <t>Inhibition of AKT1 at 1 uM by radiometric method</t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
@@ -8272,7 +8298,7 @@
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9E030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887D620&gt;</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
@@ -8284,7 +8310,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CHEMBL1215346</t>
+          <t>CHEMBL3408382</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -8292,12 +8318,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CN(C)CCCc1c(/C=C2\C(=O)Nc3ccc(NS(=O)(=O)c4ccccc4)cc32)[nH]c2c1C(=O)CCC2</t>
+          <t>N#Cc1c(-c2ccccc2)cc(-c2ccccc2)nc1/N=c1\sc(-c2ccccc2)nn1-c1ccccc1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>CN(C)CCCc1c(/C=C2\C(=O)Nc3ccc(NS(=O)(=O)c4ccccc4)cc32)[nH]c2c1C(=O)CCC2</t>
+          <t>N#Cc1c(-c2ccccc2)cc(-c2ccccc2)nc1/N=c1\sc(-c2ccccc2)nn1-c1ccccc1</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -8311,25 +8337,25 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>518.64</v>
+        <v>507.62</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
+        <v>3</v>
+      </c>
+      <c r="J115" t="n">
         <v>5</v>
       </c>
-      <c r="J115" t="n">
-        <v>8</v>
-      </c>
       <c r="K115" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L115" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M115" t="n">
-        <v>111.37</v>
+        <v>66.86</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8347,16 +8373,16 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>CHEMBL1219734</t>
+          <t>CHEMBL3412788</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>Inhibition of AKT1 at 1 uM by radiometric method</t>
+          <t>Inhibition of AKT1 (unknown origin) assessed as inhibition of peptide phosphorylation at 30 uM by based microfluidic mobility shift assay</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
@@ -8366,7 +8392,7 @@
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9ECE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887DEE0&gt;</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
@@ -8378,7 +8404,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CHEMBL3408382</t>
+          <t>CHEMBL3746022</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -8386,12 +8412,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>N#Cc1c(-c2ccccc2)cc(-c2ccccc2)nc1/N=c1\sc(-c2ccccc2)nn1-c1ccccc1</t>
+          <t>CN1CCN(CCCNc2ncc3cc(Oc4ccc(F)cc4F)c(=O)n(C)c3n2)CC1</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>N#Cc1c(-c2ccccc2)cc(-c2ccccc2)nc1/N=c1\sc(-c2ccccc2)nn1-c1ccccc1</t>
+          <t>CN1CCN(CCCNc2ncc3cc(Oc4ccc(F)cc4F)c(=O)n(C)c3n2)CC1</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -8405,52 +8431,52 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>507.62</v>
+        <v>444.49</v>
       </c>
       <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>7</v>
+      </c>
+      <c r="J116" t="n">
+        <v>7</v>
+      </c>
+      <c r="K116" t="n">
+        <v>4</v>
+      </c>
+      <c r="L116" t="n">
+        <v>3</v>
+      </c>
+      <c r="M116" t="n">
+        <v>75.52</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>3</v>
-      </c>
-      <c r="J116" t="n">
-        <v>5</v>
-      </c>
-      <c r="K116" t="n">
-        <v>6</v>
-      </c>
-      <c r="L116" t="n">
-        <v>6</v>
-      </c>
-      <c r="M116" t="n">
-        <v>66.86</v>
-      </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q116" t="n">
-        <v>2</v>
-      </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>CHEMBL3412788</t>
+          <t>CHEMBL3751441</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>Inhibition of AKT1 (unknown origin) assessed as inhibition of peptide phosphorylation at 30 uM by based microfluidic mobility shift assay</t>
+          <t>Inhibition of AKT1 (unknown origin) at 10 uM</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
@@ -8460,7 +8486,7 @@
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9D700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887C820&gt;</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
@@ -8472,7 +8498,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CHEMBL3746022</t>
+          <t>CHEMBL4463436</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -8480,12 +8506,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CN1CCN(CCCNc2ncc3cc(Oc4ccc(F)cc4F)c(=O)n(C)c3n2)CC1</t>
+          <t>Cc1nccc(Nc2cc(NC3CCN(c4ccc(C#N)cc4)CC3)c(C(N)=O)cn2)n1</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>CN1CCN(CCCNc2ncc3cc(Oc4ccc(F)cc4F)c(=O)n(C)c3n2)CC1</t>
+          <t>Cc1nccc(Nc2cc(NC3CCN(c4ccc(C#N)cc4)CC3)c(C(N)=O)cn2)n1</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -8499,16 +8525,16 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>444.49</v>
+        <v>428.5</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I117" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J117" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K117" t="n">
         <v>4</v>
@@ -8517,7 +8543,7 @@
         <v>3</v>
       </c>
       <c r="M117" t="n">
-        <v>75.52</v>
+        <v>132.85</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8535,16 +8561,16 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>CHEMBL3751441</t>
+          <t>CHEMBL4429545</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>Inhibition of AKT1 (unknown origin) at 10 uM</t>
+          <t>Inhibition of AKT1 (unknown origin) at 1 uM</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
@@ -8554,7 +8580,7 @@
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9FB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887F140&gt;</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
@@ -8566,7 +8592,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CHEMBL4463436</t>
+          <t>CHEMBL160937</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -8574,12 +8600,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Cc1nccc(Nc2cc(NC3CCN(c4ccc(C#N)cc4)CC3)c(C(N)=O)cn2)n1</t>
+          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cccc(O)c1</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Cc1nccc(Nc2cc(NC3CCN(c4ccc(C#N)cc4)CC3)c(C(N)=O)cn2)n1</t>
+          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cccc(O)c1</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -8593,25 +8619,25 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>428.5</v>
+        <v>314.73</v>
       </c>
       <c r="H118" t="n">
         <v>3</v>
       </c>
       <c r="I118" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J118" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K118" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M118" t="n">
-        <v>132.85</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8629,16 +8655,16 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>CHEMBL4429545</t>
+          <t>CHEMBL1961874</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>Inhibition of AKT1 (unknown origin) at 1 uM</t>
+          <t>GSK_PKIS: AKT1 mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T118" t="inlineStr">
@@ -8648,7 +8674,7 @@
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9F920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887C2E0&gt;</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
@@ -8660,7 +8686,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CHEMBL160937</t>
+          <t>CHEMBL187985</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -8668,12 +8694,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cccc(O)c1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(N3CCCC3)nccc21</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cccc(O)c1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(N3CCCC3)nccc21</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -8687,25 +8713,25 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>314.73</v>
+        <v>299.34</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J119" t="n">
         <v>3</v>
       </c>
       <c r="K119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M119" t="n">
-        <v>78.43000000000001</v>
+        <v>98.89</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8723,7 +8749,7 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>1.01</v>
+        <v>-2.14</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8742,7 +8768,7 @@
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9F5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887C430&gt;</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
@@ -8754,7 +8780,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CHEMBL187985</t>
+          <t>CHEMBL188381</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -8762,12 +8788,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(N3CCCC3)nccc21</t>
+          <t>CN(c1ccc(NC(=O)Nc2ccc(OC(F)(F)F)cc2)cc1)c1ccnc(Nc2cccc(S(N)(=O)=O)c2)n1</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(N3CCCC3)nccc21</t>
+          <t>CN(c1ccc(NC(=O)Nc2ccc(OC(F)(F)F)cc2)cc1)c1ccnc(Nc2cccc(S(N)(=O)=O)c2)n1</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -8781,25 +8807,25 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>299.34</v>
+        <v>573.5599999999999</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I120" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J120" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K120" t="n">
         <v>4</v>
       </c>
       <c r="L120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M120" t="n">
-        <v>98.89</v>
+        <v>151.57</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -8817,16 +8843,16 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>-2.14</v>
+        <v>0.82</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>CHEMBL1961874</t>
+          <t>CHEMBL1961875</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: AKT1 mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T120" t="inlineStr">
@@ -8836,7 +8862,7 @@
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9FA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887C890&gt;</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
@@ -8848,7 +8874,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CHEMBL188381</t>
+          <t>CHEMBL202891</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -8856,12 +8882,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CN(c1ccc(NC(=O)Nc2ccc(OC(F)(F)F)cc2)cc1)c1ccnc(Nc2cccc(S(N)(=O)=O)c2)n1</t>
+          <t>COc1ccc(-c2cc(-c3c[nH]nc3-c3ccccn3)ccn2)cc1</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>CN(c1ccc(NC(=O)Nc2ccc(OC(F)(F)F)cc2)cc1)c1ccnc(Nc2cccc(S(N)(=O)=O)c2)n1</t>
+          <t>COc1ccc(-c2cc(-c3c[nH]nc3-c3ccccn3)ccn2)cc1</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -8875,16 +8901,16 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>573.5599999999999</v>
+        <v>328.38</v>
       </c>
       <c r="H121" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J121" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K121" t="n">
         <v>4</v>
@@ -8893,7 +8919,7 @@
         <v>4</v>
       </c>
       <c r="M121" t="n">
-        <v>151.57</v>
+        <v>63.69</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -8911,16 +8937,16 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>0.82</v>
+        <v>1.22</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>CHEMBL1961875</t>
+          <t>CHEMBL1961874</t>
         </is>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: AKT1 mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T121" t="inlineStr">
@@ -8930,104 +8956,10 @@
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9D150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887C200&gt;</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>CHEMBL202891</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>0</v>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2cc(-c3c[nH]nc3-c3ccccn3)ccn2)cc1</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2cc(-c3c[nH]nc3-c3ccccn3)ccn2)cc1</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G122" t="n">
-        <v>328.38</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>4</v>
-      </c>
-      <c r="J122" t="n">
-        <v>4</v>
-      </c>
-      <c r="K122" t="n">
-        <v>4</v>
-      </c>
-      <c r="L122" t="n">
-        <v>4</v>
-      </c>
-      <c r="M122" t="n">
-        <v>63.69</v>
-      </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q122" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R122" t="inlineStr">
-        <is>
-          <t>CHEMBL1961874</t>
-        </is>
-      </c>
-      <c r="S122" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T122" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U122" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4C9D310&gt;</t>
-        </is>
-      </c>
-      <c r="V122" t="inlineStr">
         <is>
           <t>G2</t>
         </is>

--- a/F_dataset/DUD-E/AKT1/AKT1_preprocessing/AKT1_valid.xlsx
+++ b/F_dataset/DUD-E/AKT1/AKT1_preprocessing/AKT1_valid.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL1171647</t>
+          <t>CHEMBL211018</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CCc1c[nH]c2ncnc(N3CC[C@](N)(CNC(=O)c4ccc(F)cc4F)C3)c12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3cnccc3c2)c1)Cc1ccc2ccccc2c1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CCc1c[nH]c2ncnc(N3CC[C@](N)(CNC(=O)c4ccc(F)cc4F)C3)c12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3cnccc3c2)c1)Cc1ccc2ccccc2c1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,25 +575,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>400.43</v>
+        <v>405.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="n">
         <v>5</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>5</v>
       </c>
-      <c r="K2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3</v>
-      </c>
       <c r="M2" t="n">
-        <v>99.93000000000001</v>
+        <v>61.03</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DA2D0&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL211018</t>
+          <t>CHEMBL470202</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3cnccc3c2)c1)Cc1ccc2ccccc2c1</t>
+          <t>NCC(NC(=O)c1cc(-c2cn[nH]c2)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3cnccc3c2)c1)Cc1ccc2ccccc2c1</t>
+          <t>NCC(NC(=O)c1cc(-c2cn[nH]c2)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>405.5</v>
+        <v>428.52</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
@@ -661,7 +661,7 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>61.03</v>
+        <v>112.48</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D99A0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL254099</t>
+          <t>CHEMBL211224</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5nnc(-c6ccccn6)[nH]5)CC4)cc3)nc2n1</t>
+          <t>c1ccc2c(C[C@@H](COc3cncc(-c4cc5cnccc5s4)c3)Nc3cc4cnccc4s3)c[nH]c2c1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5nnc(-c6ccccn6)[nH]5)CC4)cc3)nc2n1</t>
+          <t>c1ccc2c(C[C@@H](COc3cncc(-c4cc5cnccc5s4)c3)Nc3cc4cnccc4s3)c[nH]c2c1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,25 +711,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>570.73</v>
+        <v>533.6799999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
         <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7</v>
       </c>
       <c r="K4" t="n">
         <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>96.37</v>
+        <v>75.72</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C0F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D9A10&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL402199</t>
+          <t>CHEMBL607374</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,44 +760,44 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)c(-c3ccccc3)cc12</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5cc(F)ccc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)c(-c3ccccc3)cc12</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5cc(F)ccc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>527.63</v>
+        <v>481.53</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" t="n">
         <v>6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>105.72</v>
+        <v>105.75</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DADC0&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL1094320</t>
+          <t>CHEMBL603197</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,44 +828,44 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CC[C@@H](N)COc1cncc(-c2cc3c(cnc4cc(OC)c(OC)cc43)c(N)n2)c1</t>
+          <t>Cc1n[nH]c2cnc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)nc12</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CC[C@@H](N)COc1cncc(-c2cc3c(cnc4cc(OC)c(OC)cc43)c(N)n2)c1</t>
+          <t>Cc1n[nH]c2cnc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)nc12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>419.49</v>
+        <v>465.52</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
         <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>118.4</v>
+        <v>131.53</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DB370&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL211224</t>
+          <t>CHEMBL594933</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,44 +896,44 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>c1ccc2c(C[C@@H](COc3cncc(-c4cc5cnccc5s4)c3)Nc3cc4cnccc4s3)c[nH]c2c1</t>
+          <t>Cc1n[nH]c2cnc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>c1ccc2c(C[C@@H](COc3cncc(-c4cc5cnccc5s4)c3)Nc3cc4cnccc4s3)c[nH]c2c1</t>
+          <t>Cc1n[nH]c2cnc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>533.6799999999999</v>
+        <v>464.53</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>75.72</v>
+        <v>118.64</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC7B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DB450&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL493067</t>
+          <t>CHEMBL1096634</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,44 +964,44 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(C(=O)NC3CCCNC3)c21</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@H](N)c3ccccc3)cc21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(C(=O)NC3CCCNC3)c21</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@H](N)c3ccccc3)cc21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>356.39</v>
+        <v>447.5</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>136.78</v>
+        <v>151.13</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD5B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DBAE0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL376569</t>
+          <t>CHEMBL210740</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc12</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4ccc5ccccc5c4)c3)cc12</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc12</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4ccc5ccccc5c4)c3)cc12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>398.47</v>
+        <v>408.51</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>6</v>
@@ -1069,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>105.5</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D8C80&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL470598</t>
+          <t>CHEMBL259753</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NC[C@H](CC1CCCCC1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
+          <t>c1ccc(-c2cc3ncccc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NC[C@H](CC1CCCCC1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
+          <t>c1ccc(-c2cc3ncccc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>461.43</v>
+        <v>523.64</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
         <v>6</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>83.8</v>
+        <v>83.48</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC5F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DBA00&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL572908</t>
+          <t>CHEMBL576372</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CCc1ncc(OC[C@@H](N)Cc2c[nH]c3ccccc23)cc1-c1ccc2cnccc2c1</t>
+          <t>Cc1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4cccc(OCC5CCNCC5)c4)c3)cc12</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CCc1ncc(OC[C@@H](N)Cc2c[nH]c3ccccc23)cc1-c1ccc2cnccc2c1</t>
+          <t>Cc1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4cccc(OCC5CCNCC5)c4)c3)cc12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>422.53</v>
+        <v>472.59</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K11" t="n">
         <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>76.81999999999999</v>
+        <v>110.97</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D8270&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL506077</t>
+          <t>CHEMBL494088</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Oc1nnc2c3cc(-c4ccccc4)c(-c4ccc(CN5CCC(c6n[nH]c(-c7ccccn7)n6)CC5)cc4)nc3ccn12</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC3CCNC3)c21</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Oc1nnc2c3cc(-c4ccccc4)c(-c4ccc(CN5CCC(c6n[nH]c(-c7ccccn7)n6)CC5)cc4)nc3ccn12</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC3CCNC3)c21</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,25 +1255,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>579.67</v>
+        <v>411.47</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>121.01</v>
+        <v>137.14</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCBA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D89E0&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL470410</t>
+          <t>CHEMBL226383</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CNCC(NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
+          <t>N[C@H](COc1cncc(-c2cc3c(-c4ccccc4)n[nH]c3cn2)c1)Cc1ccccc1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CNCC(NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
+          <t>N[C@H](COc1cncc(-c2cc3c(-c4ccccc4)n[nH]c3cn2)c1)Cc1ccccc1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>455.38</v>
+        <v>421.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>69.81</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCC10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DA9D0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL1096634</t>
+          <t>CHEMBL1081829</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@H](N)c3ccccc3)cc21</t>
+          <t>N[C@H](CNc1ncc(-c2ccc3[nH]ncc3c2)s1)Cc1ccc(C(F)(F)F)cc1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@H](N)c3ccccc3)cc21</t>
+          <t>N[C@H](CNc1ncc(-c2ccc3[nH]ncc3c2)s1)Cc1ccc(C(F)(F)F)cc1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>447.5</v>
+        <v>417.46</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
         <v>6</v>
@@ -1409,7 +1409,7 @@
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>151.13</v>
+        <v>79.62</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DB4C0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL1202518</t>
+          <t>CHEMBL574995</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>COc1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNCC3NC(=O)c3ccncc3)cc2)c1F</t>
+          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(-c4nccs4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>COc1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNCC3NC(=O)c3ccncc3)cc2)c1F</t>
+          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(-c4nccs4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>506.53</v>
+        <v>466.57</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>7</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>129.65</v>
+        <v>105.5</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD4D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D9D20&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL404554</t>
+          <t>CHEMBL605838</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5cc(-c6ccncc6)[nH]n5)CC4)cc3)nc2n1</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5cccnc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5cc(-c6ccncc6)[nH]n5)CC4)cc3)nc2n1</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5cccnc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>569.74</v>
+        <v>464.53</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
         <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>83.48</v>
+        <v>118.64</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCDD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D8D60&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL576372</t>
+          <t>CHEMBL576135</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4cccc(OCC5CCNCC5)c4)c3)cc12</t>
+          <t>Cc1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4cccc5c4OC(F)(F)O5)c3)cc12</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4cccc(OCC5CCNCC5)c4)c3)cc12</t>
+          <t>Cc1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4cccc5c4OC(F)(F)O5)c3)cc12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,16 +1595,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>472.59</v>
+        <v>439.42</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
         <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
         <v>5</v>
@@ -1613,7 +1613,7 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>110.97</v>
+        <v>108.17</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D95B0&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL403356</t>
+          <t>CHEMBL259968</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5nnc(N)s5)CC4)cc3)nc2n1</t>
+          <t>c1ccc(-c2cc3ccncc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5nnc(N)s5)CC4)cc3)nc2n1</t>
+          <t>c1ccc(-c2cc3ccncc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>525.71</v>
+        <v>523.64</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
         <v>6</v>
       </c>
       <c r="K18" t="n">
+        <v>7</v>
+      </c>
+      <c r="L18" t="n">
         <v>6</v>
       </c>
-      <c r="L18" t="n">
-        <v>5</v>
-      </c>
       <c r="M18" t="n">
-        <v>93.70999999999999</v>
+        <v>83.48</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCA50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DAC00&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL252856</t>
+          <t>CHEMBL604060</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(C(=O)Nc5ccncc5)CC4)cc3)nc2n1</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4ccccc4)cnc3-c3ccsc3)cc12</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(C(=O)Nc5ccncc5)CC4)cc3)nc2n1</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4ccccc4)cnc3-c3ccsc3)cc12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>546.7</v>
+        <v>440.57</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
         <v>7</v>
       </c>
       <c r="K19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>83.90000000000001</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC0B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DACE0&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL596073</t>
+          <t>CHEMBL575384</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)nc12</t>
+          <t>CC(C)=C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)nc12</t>
+          <t>CC(C)=C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>464.53</v>
+        <v>438.53</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
       </c>
       <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
         <v>6</v>
       </c>
-      <c r="J20" t="n">
-        <v>7</v>
-      </c>
       <c r="K20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>118.64</v>
+        <v>93.03</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DBF40&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL226744</t>
+          <t>CHEMBL573096</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4ccc5c(c4)OC(F)(F)C(F)(F)O5)c3)cc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2c[nH]c4ccccc24)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4ccc5c(c4)OC(F)(F)C(F)(F)O5)c3)cc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2c[nH]c4ccccc24)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>488.44</v>
+        <v>513.6</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7</v>
+      </c>
+      <c r="L21" t="n">
         <v>6</v>
       </c>
-      <c r="J21" t="n">
-        <v>6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4</v>
-      </c>
       <c r="M21" t="n">
-        <v>95.28</v>
+        <v>108.82</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC9E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D82E0&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL576135</t>
+          <t>CHEMBL210237</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4cccc5c4OC(F)(F)O5)c3)cc12</t>
+          <t>CC(C)(Cc1c[nH]c2ccccc12)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4cccc5c4OC(F)(F)O5)c3)cc12</t>
+          <t>CC(C)(Cc1c[nH]c2ccccc12)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>439.42</v>
+        <v>569.71</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>9</v>
+      </c>
+      <c r="K22" t="n">
         <v>7</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6</v>
       </c>
-      <c r="K22" t="n">
-        <v>5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4</v>
-      </c>
       <c r="M22" t="n">
-        <v>108.17</v>
+        <v>108.82</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCAC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D8430&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL1081853</t>
+          <t>CHEMBL388310</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>N[C@H](CNc1ncc(-c2ccc3[nH]c(=O)sc3c2)s1)Cc1ccc(C(F)(F)F)cc1</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(OCCC5CCNCC5)c4)c3)cc12</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>N[C@H](CNc1ncc(-c2ccc3[nH]c(=O)sc3c2)s1)Cc1ccc(C(F)(F)F)cc1</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(OCCC5CCNCC5)c4)c3)cc12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,25 +2003,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>450.51</v>
+        <v>485.63</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
         <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>83.8</v>
+        <v>98.08</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC4A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D84A0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL207217</t>
+          <t>CHEMBL573393</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>c1ccc2c(C[C@@H](COc3cncc(-c4ccc5nonc5c4)c3)Nc3ccc4nonc4c3)c[nH]c2c1</t>
+          <t>N[C@H](COc1cncc(-c2ccc3ncccc3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>c1ccc2c(C[C@@H](COc3cncc(-c4ccc5nonc5c4)c3)Nc3ccc4nonc4c3)c[nH]c2c1</t>
+          <t>N[C@H](COc1cncc(-c2ccc3ncccc3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,25 +2071,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>503.52</v>
+        <v>394.48</v>
       </c>
       <c r="H24" t="n">
         <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>127.78</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCEB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D85F0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL260670</t>
+          <t>CHEMBL415220</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(OCCN5CCOCC5)c4)c3)cc12</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(OCCN5CCOCC5)c4)c3)cc12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>523.64</v>
+        <v>487.6</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>83.48</v>
+        <v>98.52</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D8660&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL469357</t>
+          <t>CHEMBL573326</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NCC(NC(=O)c1cc(-c2cccnc2)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccco2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NCC(NC(=O)c1cc(-c2cccnc2)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccco2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2203,29 +2203,29 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>439.54</v>
+        <v>464.53</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
+        <v>7</v>
+      </c>
+      <c r="K26" t="n">
         <v>6</v>
-      </c>
-      <c r="K26" t="n">
-        <v>5</v>
       </c>
       <c r="L26" t="n">
         <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>96.69</v>
+        <v>106.17</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC2E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D8970&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL203275</t>
+          <t>CHEMBL210954</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(/C=C/c2ccnc(NC3CC3)c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CC(C)(Cc1ccco1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(/C=C/c2ccnc(NC3CC3)c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CC(C)(Cc1ccco1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2271,11 +2271,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>425.54</v>
+        <v>520.63</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
@@ -2287,13 +2287,13 @@
         <v>9</v>
       </c>
       <c r="K27" t="n">
+        <v>6</v>
+      </c>
+      <c r="L27" t="n">
         <v>5</v>
       </c>
-      <c r="L27" t="n">
-        <v>4</v>
-      </c>
       <c r="M27" t="n">
-        <v>88.84999999999999</v>
+        <v>106.17</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D9850&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL575384</t>
+          <t>CHEMBL572884</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CC(C)=C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2cccs2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CC(C)=C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2cccs2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2339,11 +2339,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>438.53</v>
+        <v>480.59</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
@@ -2352,13 +2352,13 @@
         <v>4</v>
       </c>
       <c r="J28" t="n">
+        <v>7</v>
+      </c>
+      <c r="K28" t="n">
         <v>6</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>5</v>
-      </c>
-      <c r="L28" t="n">
-        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>93.03</v>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D9AF0&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL252259</t>
+          <t>CHEMBL209826</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCCn4ccnc4)cc3)nc2n1</t>
+          <t>CC(C)(Cc1cccs1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCCn4ccnc4)cc3)nc2n1</t>
+          <t>CC(C)(Cc1cccs1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2407,29 +2407,29 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>466.61</v>
+        <v>536.7</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
         <v>9</v>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
         <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>68.52</v>
+        <v>93.03</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D9F50&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL381328</t>
+          <t>CHEMBL229320</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(/C=C/c2ccncc2)c1)Cc1ccc2ccccc2c1</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(I)c4)c3)cc12</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(/C=C/c2ccncc2)c1)Cc1ccc2ccccc2c1</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(I)c4)c3)cc12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2475,20 +2475,20 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>381.48</v>
+        <v>484.34</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K30" t="n">
         <v>4</v>
@@ -2497,7 +2497,7 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>61.03</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D9FC0&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL516429</t>
+          <t>CHEMBL488428</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2cc3ccncc3s2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>O=c1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)c[nH]1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2cc3ccncc3s2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>O=c1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)c[nH]1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2543,29 +2543,29 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>400.51</v>
+        <v>555.64</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
         <v>6</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
-        <v>76.81999999999999</v>
+        <v>123.42</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC6D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DA340&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL377687</t>
+          <t>CHEMBL572670</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>O=C1Nc2ccc(N[C@H](COc3cncc(-c4ccc5c(c4)C(=O)C(=O)N5)c3)Cc3c[nH]c4ccccc34)cc2C1=O</t>
+          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(-c4ccc[nH]4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>O=C1Nc2ccc(N[C@H](COc3cncc(-c4ccc5c(c4)C(=O)C(=O)N5)c3)Cc3c[nH]c4ccccc34)cc2C1=O</t>
+          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(-c4ccc[nH]4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>557.5700000000001</v>
+        <v>448.53</v>
       </c>
       <c r="H32" t="n">
         <v>4</v>
       </c>
       <c r="I32" t="n">
+        <v>4</v>
+      </c>
+      <c r="J32" t="n">
         <v>7</v>
       </c>
-      <c r="J32" t="n">
-        <v>8</v>
-      </c>
       <c r="K32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M32" t="n">
-        <v>142.28</v>
+        <v>108.4</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCC80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DA960&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL276130</t>
+          <t>CHEMBL210940</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCC(N)=O)cc3)nc2n1</t>
+          <t>CC(C)(Cc1cc[nH]c1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCC(N)=O)cc3)nc2n1</t>
+          <t>CC(C)(Cc1cc[nH]c1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2679,29 +2679,29 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>429.55</v>
+        <v>519.65</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
+        <v>4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>9</v>
+      </c>
+      <c r="K33" t="n">
         <v>6</v>
       </c>
-      <c r="J33" t="n">
-        <v>8</v>
-      </c>
-      <c r="K33" t="n">
-        <v>4</v>
-      </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>93.79000000000001</v>
+        <v>108.82</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCF20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DAAB0&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL493250</t>
+          <t>CHEMBL576733</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(-c3ccccc3)ncc(OCCCN)c21</t>
+          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(-c4cccs4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(-c3ccccc3)ncc(OCCCN)c21</t>
+          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(-c4cccs4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2747,29 +2747,29 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>379.42</v>
+        <v>465.58</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
         <v>7</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
-        <v>130.9</v>
+        <v>92.61</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DAB20&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL523586</t>
+          <t>CHEMBL576348</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NC[C@H](Cc1cccc(F)c1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccc[nH]2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NC[C@H](Cc1cccc(F)c1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccc[nH]2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2819,25 +2819,25 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>473.37</v>
+        <v>463.54</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
+        <v>7</v>
+      </c>
+      <c r="K35" t="n">
         <v>6</v>
       </c>
-      <c r="K35" t="n">
-        <v>4</v>
-      </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>83.8</v>
+        <v>108.82</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DB060&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL572884</t>
+          <t>CHEMBL377603</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2cccs2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CC(C)(Cc1ccc[nH]1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2cccs2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CC(C)(Cc1ccc[nH]1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2887,16 +2887,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>480.59</v>
+        <v>519.65</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K36" t="n">
         <v>6</v>
@@ -2905,7 +2905,7 @@
         <v>5</v>
       </c>
       <c r="M36" t="n">
-        <v>93.03</v>
+        <v>108.82</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DB0D0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL229320</t>
+          <t>CHEMBL378827</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(I)c4)c3)cc12</t>
+          <t>CC(C)(CC1CC1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(I)c4)c3)cc12</t>
+          <t>CC(C)(CC1CC1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2955,25 +2955,25 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>484.34</v>
+        <v>494.64</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="n">
+        <v>9</v>
+      </c>
+      <c r="K37" t="n">
         <v>6</v>
       </c>
-      <c r="K37" t="n">
-        <v>4</v>
-      </c>
       <c r="L37" t="n">
         <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>76.81999999999999</v>
+        <v>93.03</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BDBD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DB1B0&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL488428</t>
+          <t>CHEMBL444136</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>O=c1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)c[nH]1</t>
+          <t>O=c1[nH]ccc2nc(-c3ccc(CN4CCC(c5nnc(-c6cnccn6)[nH]5)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>O=c1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)c[nH]1</t>
+          <t>O=c1[nH]ccc2nc(-c3ccc(CN4CCC(c5nnc(-c6cnccn6)[nH]5)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3023,13 +3023,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>555.64</v>
+        <v>540.63</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J38" t="n">
         <v>6</v>
@@ -3041,7 +3041,7 @@
         <v>6</v>
       </c>
       <c r="M38" t="n">
-        <v>123.42</v>
+        <v>116.34</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCE40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DB220&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL494089</t>
+          <t>CHEMBL579053</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC[C@H]3CCCNC3)c21</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ncc[nH]2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC[C@H]3CCCNC3)c21</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ncc[nH]2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3091,25 +3091,25 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>425.49</v>
+        <v>464.53</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
+        <v>7</v>
+      </c>
+      <c r="K39" t="n">
+        <v>6</v>
+      </c>
+      <c r="L39" t="n">
         <v>5</v>
       </c>
-      <c r="K39" t="n">
-        <v>4</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3</v>
-      </c>
       <c r="M39" t="n">
-        <v>137.14</v>
+        <v>121.71</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD0E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DB290&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL574764</t>
+          <t>CHEMBL210209</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(-c4ccccc4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CC(C)(Cc1ncc[nH]1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(-c4ccccc4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CC(C)(Cc1ncc[nH]1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3159,25 +3159,25 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>459.55</v>
+        <v>520.64</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K40" t="n">
         <v>6</v>
       </c>
       <c r="L40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
-        <v>92.61</v>
+        <v>121.71</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DB920&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL210034</t>
+          <t>CHEMBL594310</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CC(C)(Cc1ccccc1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ncccc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CC(C)(Cc1ccccc1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ncccc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3227,25 +3227,25 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>530.67</v>
+        <v>464.53</v>
       </c>
       <c r="H41" t="n">
         <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J41" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K41" t="n">
         <v>6</v>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M41" t="n">
-        <v>93.03</v>
+        <v>118.64</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCB30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DBB50&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL375485</t>
+          <t>CHEMBL573334</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2cc3c(-c4ccco4)n[nH]c3cn2)c1)Cc1ccccc1</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccccn2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2cc3c(-c4ccco4)n[nH]c3cn2)c1)Cc1ccccc1</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccccn2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3295,25 +3295,25 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>411.47</v>
+        <v>475.55</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
         <v>7</v>
       </c>
       <c r="K42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L42" t="n">
         <v>5</v>
       </c>
       <c r="M42" t="n">
-        <v>102.85</v>
+        <v>105.92</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCF90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DBA70&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL595709</t>
+          <t>CHEMBL211774</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4ccccc4)cnc3-c3ccoc3)cc12</t>
+          <t>CC(C)(Cc1ccccn1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4ccccc4)cnc3-c3ccoc3)cc12</t>
+          <t>CC(C)(Cc1ccccn1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3363,25 +3363,25 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>424.5</v>
+        <v>531.66</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
         <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L43" t="n">
         <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>89.95999999999999</v>
+        <v>105.92</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -3392,7 +3392,7 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DB8B0&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL408151</t>
+          <t>CHEMBL576386</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4cc(-c5nn[nH]n5)ccc4nc3-c3ccccc3)cc2)CC1</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2cccnc2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4cc(-c5nn[nH]n5)ccc4nc3-c3ccccc3)cc2)CC1</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2cccnc2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3431,25 +3431,25 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>579.67</v>
+        <v>475.55</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
+        <v>5</v>
+      </c>
+      <c r="J44" t="n">
         <v>7</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>6</v>
       </c>
-      <c r="K44" t="n">
-        <v>8</v>
-      </c>
       <c r="L44" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M44" t="n">
-        <v>121.27</v>
+        <v>105.92</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -3460,7 +3460,7 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCD60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DA500&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL260184</t>
+          <t>CHEMBL211690</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3480,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>O=c1ccc(-c2cc(C3CCN(Cc4ccc(-c5nc6ncccc6cc5-c5ccccc5)cc4)CC3)n[nH]2)c[nH]1</t>
+          <t>CC(C)(Cc1cccnc1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>O=c1ccc(-c2cc(C3CCN(Cc4ccc(-c5nc6ncccc6cc5-c5ccccc5)cc4)CC3)n[nH]2)c[nH]1</t>
+          <t>CC(C)(Cc1cccnc1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3499,25 +3499,25 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>538.66</v>
+        <v>531.66</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
         <v>5</v>
       </c>
       <c r="J45" t="n">
+        <v>9</v>
+      </c>
+      <c r="K45" t="n">
         <v>6</v>
       </c>
-      <c r="K45" t="n">
-        <v>7</v>
-      </c>
       <c r="L45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
-        <v>90.56</v>
+        <v>105.92</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -3528,7 +3528,7 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855DA260&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3540,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL210333</t>
+          <t>CHEMBL259982</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3548,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3cnc(-c4ccco4)cc3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5ccccn5)[nH]n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3cnc(-c4ccco4)cc3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5ccccn5)[nH]n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3567,25 +3567,25 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>460.54</v>
+        <v>522.66</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>5</v>
       </c>
       <c r="J46" t="n">
+        <v>6</v>
+      </c>
+      <c r="K46" t="n">
         <v>7</v>
-      </c>
-      <c r="K46" t="n">
-        <v>6</v>
       </c>
       <c r="L46" t="n">
         <v>6</v>
       </c>
       <c r="M46" t="n">
-        <v>89.95999999999999</v>
+        <v>70.59</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
@@ -3596,7 +3596,7 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BCCF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D93F0&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3608,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL252054</t>
+          <t>CHEMBL210333</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4c[nH]cn4)cc3)nc2n1</t>
+          <t>N[C@H](COc1cncc(-c2ccc3cnc(-c4ccco4)cc3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4c[nH]cn4)cc3)nc2n1</t>
+          <t>N[C@H](COc1cncc(-c2ccc3cnc(-c4ccco4)cc3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3635,25 +3635,25 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>452.59</v>
+        <v>460.54</v>
       </c>
       <c r="H47" t="n">
         <v>2</v>
       </c>
       <c r="I47" t="n">
+        <v>5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>7</v>
+      </c>
+      <c r="K47" t="n">
         <v>6</v>
       </c>
-      <c r="J47" t="n">
-        <v>8</v>
-      </c>
-      <c r="K47" t="n">
-        <v>5</v>
-      </c>
       <c r="L47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
-        <v>79.38</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -3664,7 +3664,7 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D8740&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL573394</t>
+          <t>CHEMBL261540</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3684,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3nnccc3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5ccncc5)[nH]n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3nnccc3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5ccncc5)[nH]n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3703,10 +3703,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>395.47</v>
+        <v>522.66</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>5</v>
@@ -3715,13 +3715,13 @@
         <v>6</v>
       </c>
       <c r="K48" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M48" t="n">
-        <v>89.70999999999999</v>
+        <v>70.59</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -3732,7 +3732,7 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D8DD0&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL252652</t>
+          <t>CHEMBL209564</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CCNC(=O)NC1CCN(Cc2ccc(-c3nc4nc(SC)ncc4cc3-c3ccccc3)cc2)CC1</t>
+          <t>N[C@H](COc1cncc(-c2ccc3cnc(-c4ccncc4)cc3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CCNC(=O)NC1CCN(Cc2ccc(-c3nc4nc(SC)ncc4cc3-c3ccccc3)cc2)CC1</t>
+          <t>N[C@H](COc1cncc(-c2ccc3cnc(-c4ccncc4)cc3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3767,66 +3767,40 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>512.6799999999999</v>
+        <v>471.56</v>
       </c>
       <c r="H49" t="n">
         <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J49" t="n">
         <v>7</v>
       </c>
       <c r="K49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M49" t="n">
-        <v>83.04000000000001</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>81</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>CHEMBL928491</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt1</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>89.70999999999999</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A855D91C0&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3838,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>C13651282</t>
+          <t>C67063209</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3846,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CCN(CC)c1ccc(N2CCN(C(=O)[C@]3(C)CCc4c(C)c(O)c(C)c(C)c4O3)CC2)[nH+]c1N(CC)CC</t>
+          <t>O=C(CCC1CCCCC1)NNC(=O)N[C@H]1CCSc2c(F)cccc21</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CCN(CC)c1ccc(N2CCN(C(=O)[C@]3(C)CCc4c(C)c(O)c(C)c(C)c4O3)CC2)[nH+]c1N(CC)CC</t>
+          <t>O=C(CCC1CCCCC1)NNC(=O)N[C@H]1CCSc2c(F)cccc21</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3865,25 +3839,25 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>538.76</v>
+        <v>379.5</v>
       </c>
       <c r="H50" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3</v>
+      </c>
+      <c r="L50" t="n">
         <v>1</v>
       </c>
-      <c r="I50" t="n">
-        <v>6</v>
-      </c>
-      <c r="J50" t="n">
-        <v>8</v>
-      </c>
-      <c r="K50" t="n">
-        <v>4</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2</v>
-      </c>
       <c r="M50" t="n">
-        <v>73.63</v>
+        <v>70.23</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -3894,7 +3868,7 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849881ED50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85367ED0&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -3906,7 +3880,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C32644030</t>
+          <t>C67160702</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3914,12 +3888,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>COc1ccc(S(=O)(=O)N2Cc3ccccc3C[C@@H]2C(=O)NC2CC(C)(C)[NH+](C)C(C)(C)C2)cc1OC</t>
+          <t>Cc1cc(C)c(CNC(=O)CCCC[C@@H]2SC[C@H]3NC(=O)N[C@H]23)c(C)c1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>COc1ccc(S(=O)(=O)N2Cc3ccccc3C[C@@H]2C(=O)NC2CC(C)(C)[NH+](C)C(C)(C)C2)cc1OC</t>
+          <t>Cc1cc(C)c(CNC(=O)CCCC[C@@H]2SC[C@H]3NC(=O)N[C@@H]32)c(C)c1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3933,25 +3907,25 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>530.71</v>
+        <v>375.54</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>89.38</v>
+        <v>70.23</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -3962,7 +3936,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849881EDC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85366180&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -3974,7 +3948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C20617596</t>
+          <t>C28537689</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3982,12 +3956,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CC(=O)OCc1cnc(C)c2o/c(=[NH+]\c3ccc(F)c(Cl)c3)c(C(=O)Nc3ccccc3Cl)cc12</t>
+          <t>C[C@H]1CC[C@H]2[C@](C)(CO)[C@@H](O)CC[C@@]2(C)[C@@]12CC[C@@](CO)(CCO)O2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CC(=O)OCc1cnc(C)c2o/c(=[NH+]\c3ccc(F)c(Cl)c3)c(C(=O)Nc3ccccc3Cl)cc12</t>
+          <t>C[C@H]1CC[C@H]2[C@](C)(CO)[C@@H](O)CC[C@@]2(C)[C@@]12CC[C@@](CO)(CCO)O2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4001,25 +3975,25 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>515.35</v>
+        <v>356.5</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I52" t="n">
         <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>95.40000000000001</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -4030,7 +4004,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849881EE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85365E00&gt;</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -4042,7 +4016,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>C45231078</t>
+          <t>C14986374</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4050,12 +4024,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>COc1ccc2ccc(F)c(CC(=O)N3CCO[C@@H](C[NH2+]Cc4cccc(-c5ccc(F)cc5)n4)C3)c2n1</t>
+          <t>O=c1c(C[NH2+]C(c2ccccc2)c2ccccc2)cc2cc3c(cc2n1Cc1cccc(F)c1)OCO3</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>COc1ccc2ccc(F)c(CC(=O)N3CCO[C@@H](C[NH2+]Cc4cccc(-c5ccc(F)cc5)n4)C3)c2n1</t>
+          <t>O=c1c(C[NH2+]C(c2ccccc2)c2ccccc2)cc2cc3c(cc2n1Cc1cccc(F)c1)OCO3</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4069,25 +4043,25 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>519.5700000000001</v>
+        <v>493.56</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
       </c>
       <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>7</v>
+      </c>
+      <c r="K53" t="n">
+        <v>6</v>
+      </c>
+      <c r="L53" t="n">
         <v>5</v>
       </c>
-      <c r="J53" t="n">
-        <v>8</v>
-      </c>
-      <c r="K53" t="n">
-        <v>5</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4</v>
-      </c>
       <c r="M53" t="n">
-        <v>81.16</v>
+        <v>57.07</v>
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -4098,7 +4072,7 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849881EC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A853669D0&gt;</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -4110,7 +4084,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>C33812565</t>
+          <t>C20617596</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4118,12 +4092,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CCCn1c(N2CC[NH+](CC)CC2)c(/C=C2\SC(=S)N(C[C@H]3CCCO3)C2=O)c(C)c(C#N)c1=O</t>
+          <t>CC(=O)OCc1cnc(C)c2o/c(=[NH+]\c3ccc(F)c(Cl)c3)c(C(=O)Nc3ccccc3Cl)cc12</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CCCn1c(N2CC[NH+](CC)CC2)c(/C=C2\SC(=S)N(C[C@H]3CCCO3)C2=O)c(C)c(C#N)c1=O</t>
+          <t>CC(=O)OCc1cnc(C)c2o/c(=[NH+]\c3ccc(F)c(Cl)c3)c(C(=O)Nc3ccccc3Cl)cc12</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4137,25 +4111,25 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>516.71</v>
+        <v>515.35</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J54" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K54" t="n">
         <v>4</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>83.01000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -4166,7 +4140,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849777BDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85367B50&gt;</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -4178,7 +4152,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C39550704</t>
+          <t>C19897210</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4186,12 +4160,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>O=S1(=O)c2ccccc2Oc2ccc(-c3[nH+]c(-c4ccc(O)c(O)c4)[nH]c3-c3ccccc3)cc21</t>
+          <t>COc1cc(/C=C2/C(=[NH2+])N3N=C(C(C)C)SC3=NC2=O)ccc1OCCSc1ccc(C)cc1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>O=S1(=O)c2ccccc2Oc2ccc(-c3[nH+]c(-c4ccc(O)c(O)c4)[nH]c3-c3ccccc3)cc21</t>
+          <t>COc1cc(/C=C2/C(=[NH2+])N3N=C(C(C)C)SC3=NC2=O)ccc1OCCSc1ccc(C)cc1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4205,25 +4179,25 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>483.53</v>
+        <v>495.65</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
-        <v>113.76</v>
+        <v>89.08</v>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -4234,7 +4208,7 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895EFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85366CE0&gt;</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -4246,7 +4220,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>C01833566</t>
+          <t>C01568124</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4254,12 +4228,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>C=C(N/[NH+]=C1\NC(C)(C)Cc2ccccc21)/C(C)=N\[NH+]=C1/NC(C)(C)Cc2ccccc21</t>
+          <t>O=C1CS[C@H](c2ccccc2O)N1c1ccc(N2C(=O)CS[C@@H]2c2ccccc2O)cc1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>C=C(N/[NH+]=C1\NC(C)(C)Cc2ccccc21)/C(C)=N\[NH+]=C1/NC(C)(C)Cc2ccccc21</t>
+          <t>O=C1CS[C@H](c2ccccc2O)N1c1ccc(N2C(=O)CS[C@@H]2c2ccccc2O)cc1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4273,25 +4247,25 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>430.6</v>
+        <v>464.57</v>
       </c>
       <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" t="n">
+        <v>6</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4</v>
+      </c>
+      <c r="K56" t="n">
         <v>5</v>
       </c>
-      <c r="I56" t="n">
-        <v>3</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4</v>
-      </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>76.39</v>
+        <v>81.08</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -4302,7 +4276,7 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895F0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85364350&gt;</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -4314,7 +4288,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>C20310515</t>
+          <t>C64167188</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4322,12 +4296,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CC(=O)OCc1nc2c(c([O-])c(N=O)c3nc(COC(C)=O)n([O-])c32)n1[O-]</t>
+          <t>CC1=c2cccc(Cl)c2=[NH+][C@@H]1C[NH2+][C@H]1CCC[C@@H]2C1=CNN2c1ccccn1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>CC(=O)OCc1nc2c(c([O-])c(N=O)c3nc(COC(C)=O)n([O-])c32)n1[O-]</t>
+          <t>CC1=c2cccc(Cl)c2=[NH+][C@@H]1C[NH2+][C@H]1CCC[C@@H]2C1=CNN2c1ccccn1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4341,25 +4315,25 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>376.26</v>
+        <v>395.94</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
+        <v>4</v>
+      </c>
+      <c r="K57" t="n">
         <v>5</v>
       </c>
-      <c r="K57" t="n">
-        <v>3</v>
-      </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M57" t="n">
-        <v>186.85</v>
+        <v>58.74</v>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -4370,7 +4344,7 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895EF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85366490&gt;</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -4382,7 +4356,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>C39227626</t>
+          <t>C29124326</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4390,12 +4364,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>C[C@H](O)CN(C[C@H](C)O)C(=O)c1ccc(-c2ccc3c(c2)[C@H](O)CC2(CC[NH+](C)CC2)O3)cc1</t>
+          <t>CO/N=C(\N)c1ccc(-c2ccc3nc(-c4ccc(/C(N)=N\OC)cc4)cn3c2)cc1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>C[C@H](O)CN(C[C@H](C)O)C(=O)c1ccc(-c2ccc3c(c2)[C@H](O)CC2(CC[NH+](C)CC2)O3)cc1</t>
+          <t>CO/N=C(\N)c1ccc(-c2ccc3nc(-c4ccc(/C(N)=N\OC)cc4)cn3c2)cc1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4409,10 +4383,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>469.6</v>
+        <v>414.47</v>
       </c>
       <c r="H58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
         <v>5</v>
@@ -4424,10 +4398,10 @@
         <v>4</v>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>94.67</v>
+        <v>112.52</v>
       </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
@@ -4438,7 +4412,7 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895EEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85365AF0&gt;</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -4450,7 +4424,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>C64167188</t>
+          <t>C35395262</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4458,12 +4432,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CC1=c2cccc(Cl)c2=[NH+][C@@H]1C[NH2+][C@H]1CCC[C@@H]2C1=CNN2c1ccccn1</t>
+          <t>O=c1oc2cc(O[C@@H]3O[C@@H](CO)[C@@H](O)[C@@H](O)[C@H]3O)ccc2cc1-c1nc2ccccc2o1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>CC1=c2cccc(Cl)c2=[NH+][C@@H]1C[NH2+][C@H]1CCC[C@@H]2C1=CNN2c1ccccn1</t>
+          <t>O=c1oc2cc(O[C@@H]3O[C@@H](CO)[C@@H](O)[C@@H](O)[C@H]3O)ccc2cc1-c1nc2ccccc2o1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4477,13 +4451,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>395.94</v>
+        <v>441.39</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J59" t="n">
         <v>4</v>
@@ -4492,10 +4466,10 @@
         <v>5</v>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>58.74</v>
+        <v>155.62</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -4506,7 +4480,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A853673E0&gt;</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -4518,7 +4492,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>C22699366</t>
+          <t>C43553888</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4526,12 +4500,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>COC(=O)c1c(C)[nH]c(C(=O)[C@@H](C)Sc2nc(C(C)(C)C)nc3c2c(=O)n(C)c(=O)n3C)c1C</t>
+          <t>CCCNC(=O)O[C@@H]1CC[C@@]2(C)[C@@H](CC[C@@H](O)[C@H]2CC(=O)N2CC[C@@H](O)C2)[C@]1(C)CO</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>COC(=O)c1c(C)[nH]c(C(=O)[C@@H](C)Sc2nc(C(C)(C)C)nc3c2c(=O)n(C)c(=O)n3C)c1C</t>
+          <t>CCCNC(=O)O[C@@H]1CC[C@]2(C)[C@H](CC(=O)N3CC[C@@H](O)C3)[C@H](O)CC[C@H]2[C@]1(C)CO</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4545,25 +4519,25 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>487.58</v>
+        <v>440.58</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I60" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K60" t="n">
         <v>3</v>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>128.94</v>
+        <v>119.33</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -4574,7 +4548,7 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A853652A0&gt;</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -4586,7 +4560,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>C31983170</t>
+          <t>C50810165</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4594,12 +4568,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>C=C[C@]1(C)C[C@@H](OC(=O)CSCC[NH+](CC)CC)[C@@]2(C)[C@H](C)CC[C@@]3(CCC(=O)[C@@H]32)[C@@H](C)[C@@H]1O</t>
+          <t>CC(C)(C)OC(=O)N1CCCC[C@H]1C(=O)N1CCO[C@H](C(N)=O)C1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>C=C[C@]1(C)C[C@@H](OC(=O)CSCC[NH+](CC)CC)[C@]2(C)[C@H]3C(=O)CC[C@]3(CC[C@H]2C)[C@@H](C)[C@@H]1O</t>
+          <t>CC(C)(C)OC(=O)N1CCCC[C@H]1C(=O)N1CCO[C@H](C(N)=O)C1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4613,25 +4587,25 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>494.76</v>
+        <v>341.41</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>5</v>
       </c>
       <c r="J61" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>68.04000000000001</v>
+        <v>102.17</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -4642,7 +4616,7 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85366C70&gt;</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -4654,7 +4628,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>C33507204</t>
+          <t>C64044169</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4662,12 +4636,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CC(C)c1ccc(-c2nc3ccc(Cl)cn3c2[C@H](C)C[NH3+])cc1</t>
+          <t>CN(Cc1cc2ccccc2s1)C(=O)[C@@H]1C[C@@H](SC2[NH+]=c3ccccc3=[NH+]2)CN1Cc1ccccn1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CC(C)c1ccc(-c2nc3ccc(Cl)cn3c2[C@H](C)C[NH3+])cc1</t>
+          <t>CN(Cc1cc2ccccc2s1)C(=O)[C@@H]1C[C@@H](SC2[NH+]=c3ccccc3=[NH+]2)CN1Cc1ccccn1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4681,25 +4655,25 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>328.87</v>
+        <v>515.71</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K62" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M62" t="n">
-        <v>44.94</v>
+        <v>64.38</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -4710,7 +4684,7 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85366030&gt;</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -4722,7 +4696,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>C61277601</t>
+          <t>C37943956</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4730,12 +4704,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>c1nc2c(c(N[C@H]3CC[NH2+]C4(CCC4)C3)n1)CCC2</t>
+          <t>NC(=O)[C@@]1([NH+]2CCCNCC2)CCc2ccccc2C1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>c1nc2c(c(N[C@H]3CC[NH2+]C4(CCC4)C3)n1)CCC2</t>
+          <t>NC(=O)[C@@]1([NH+]2CCCNCC2)CCc2ccccc2C1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4749,25 +4723,25 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>259.38</v>
+        <v>274.39</v>
       </c>
       <c r="H63" t="n">
+        <v>3</v>
+      </c>
+      <c r="I63" t="n">
         <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3</v>
       </c>
       <c r="J63" t="n">
         <v>2</v>
       </c>
       <c r="K63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>54.42</v>
+        <v>59.56</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -4778,7 +4752,7 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A2030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A853643C0&gt;</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -4790,7 +4764,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C37014352</t>
+          <t>C20759482</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -4798,12 +4772,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>C[C@]1(NC(=O)[C@@H]2C[C@@H]3CCCC[C@@H]3[NH2+]2)CCS(=O)(=O)C1</t>
+          <t>CCOc1ccccc1NC(=O)CSc1nc2n[nH]c(C)c2c(=[NH2+])n1-c1cccc(C)c1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>C[C@]1(NC(=O)[C@@H]2C[C@@H]3CCCC[C@@H]3[NH2+]2)CCS(=O)(=O)C1</t>
+          <t>CCOc1ccccc1NC(=O)CSc1nc2n[nH]c(C)c2c(=[NH2+])n1-c1cccc(C)c1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4817,25 +4791,25 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>301.43</v>
+        <v>449.56</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M64" t="n">
-        <v>79.84999999999999</v>
+        <v>110.42</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -4846,7 +4820,7 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977A1A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A853662D0&gt;</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -4858,7 +4832,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C16804736</t>
+          <t>C39387750</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -4866,12 +4840,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NC(=O)CCN(C(=O)COC(=O)c1nc(Cl)c(Cl)c(N)c1Cl)c1ccc(F)cc1</t>
+          <t>C[NH+](Cc1ccsc1)Cc1ccc(C(=O)NC[C@@H]2Nc3ccccc3S2)c(=O)[nH]1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NC(=O)CCN(C(=O)COC(=O)c1nc(Cl)c(Cl)c(N)c1Cl)c1ccc(F)cc1</t>
+          <t>C[NH+](Cc1ccsc1)Cc1ccc(C(=O)NC[C@@H]2Nc3ccccc3S2)c(=O)[nH]1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4885,25 +4859,25 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>463.68</v>
+        <v>427.58</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J65" t="n">
         <v>7</v>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
-        <v>128.61</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -4914,7 +4888,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C2880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A853660A0&gt;</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -4926,7 +4900,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C49532581</t>
+          <t>C44409695</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -4934,12 +4908,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CC[C@H](NS(=O)(=O)c1ccc(C[NH3+])s1)c1cccs1</t>
+          <t>CC[C@H]([NH3+])Cc1c(OC)cc(C)c2c1Oc1c(c(C)c(O)c3c1[C@H](O)OC3=O)OC2=O</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>CC[C@H](NS(=O)(=O)c1ccc(C[NH3+])s1)c1cccs1</t>
+          <t>CC[C@H]([NH3+])Cc1c(OC)cc(C)c2c1Oc1c(c(C)c(O)c3c1[C@H](O)OC3=O)OC2=O</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4953,25 +4927,25 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>317.48</v>
+        <v>430.43</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L66" t="n">
         <v>2</v>
       </c>
       <c r="M66" t="n">
-        <v>73.81</v>
+        <v>139.16</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -4982,7 +4956,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A853670D0&gt;</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -4994,7 +4968,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C38664304</t>
+          <t>C66908769</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -5002,12 +4976,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>N#C[C@H]1C=C2C(=NC1=O)CC[C@H]1C2=Nc2ccccc21</t>
+          <t>O=C(NCCc1cn2c([nH+]1)CCCC2)NC[C@@]1(O)CCCc2ccccc21</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>N#C[C@H]1C=C2C(=NC1=O)CC[C@H]1C2=Nc2ccccc21</t>
+          <t>O=C(NCCc1cn2c([nH+]1)CCCC2)NC[C@@]1(O)CCCc2ccccc21</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5021,25 +4995,25 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>261.28</v>
+        <v>369.49</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I67" t="n">
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K67" t="n">
         <v>4</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M67" t="n">
-        <v>65.58</v>
+        <v>80.43000000000001</v>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
@@ -5050,7 +5024,7 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A853650E0&gt;</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -5062,7 +5036,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C32964038</t>
+          <t>C49532581</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5070,12 +5044,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[H]/N=C1C(=C\c2cccn2-c2ccc3ccccc3c2)/C(=O)N=C2SC=NN2/1</t>
+          <t>CC[C@H](NS(=O)(=O)c1ccc(C[NH3+])s1)c1cccs1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[H]/N=C1C(=C\c2cccn2-c2ccc3ccccc3c2)/C(=O)N=C2SC=NN2/1</t>
+          <t>CC[C@H](NS(=O)(=O)c1ccc(C[NH3+])s1)c1cccs1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5089,22 +5063,22 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>371.43</v>
+        <v>317.48</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
+        <v>6</v>
+      </c>
+      <c r="K68" t="n">
         <v>2</v>
       </c>
-      <c r="K68" t="n">
-        <v>5</v>
-      </c>
       <c r="L68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M68" t="n">
         <v>73.81</v>
@@ -5118,7 +5092,7 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C21F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85364120&gt;</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -5130,7 +5104,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C20728904</t>
+          <t>C67020427</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5138,12 +5112,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cc1nn(-c2ncccn2)c2c1[C@H](c1ccc(F)cc1F)SCC(O)=N2</t>
+          <t>Cc1nc2cc(=O)[nH]n2c(C)c1CC(=O)N1CCC[C@H]2C[C@@H](C)CC[C@H]21</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Cc1nn(-c2ncccn2)c2c1[C@H](c1ccc(F)cc1F)SCC(O)=N2</t>
+          <t>Cc1nc2cc(=O)[nH]n2c(C)c1CC(=O)N1CCC[C@H]2C[C@@H](C)CC[C@H]21</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5157,13 +5131,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>373.39</v>
+        <v>356.47</v>
       </c>
       <c r="H69" t="n">
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
         <v>2</v>
@@ -5172,10 +5146,10 @@
         <v>4</v>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M69" t="n">
-        <v>76.19</v>
+        <v>70.47</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -5186,7 +5160,7 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C27A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85367140&gt;</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -5198,7 +5172,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C15229247</t>
+          <t>C39205034</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5206,12 +5180,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CC(=O)[C@H]1[C@@H]2[C@H](C(=O)[C@H]3OC[C@@H]2O3)[C@@H]2C=Cc3ccc4ccccc4c3N21</t>
+          <t>O=C1N=NC(=O)c2c(/N=C/c3ccc(Br)s3)cccc21</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>CC(=O)[C@H]1[C@@H]2[C@H](C(=O)[C@H]3OC[C@@H]2O3)[C@@H]2C=Cc3ccc4ccccc4c3N21</t>
+          <t>O=C1N=NC(=O)c2c(/N=C/c3ccc(Br)s3)cccc21</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5225,25 +5199,25 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>361.4</v>
+        <v>348.18</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L70" t="n">
         <v>2</v>
       </c>
       <c r="M70" t="n">
-        <v>55.84</v>
+        <v>71.22</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -5254,7 +5228,7 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85367060&gt;</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -5266,7 +5240,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C12661770</t>
+          <t>C66786875</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5274,12 +5248,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CC(=O)[C@@H]1[C@H](C)C[C@@H]2[C@H]3CC=C4C[C@@H](OC(=O)CC[NH+]5CCCCC5)CC[C@]4(C)[C@@H]3CC[C@@]21C</t>
+          <t>Cc1ccc(F)c2c1N(C(=O)[C@@H]1CCCN(S(C)(=O)=O)C1)CCC2</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>CC(=O)[C@@H]1[C@H](C)C[C@@H]2[C@H]3CC=C4C[C@@H](OC(=O)CC[NH+]5CCCCC5)CC[C@]4(C)[C@@H]3CC[C@@]21C</t>
+          <t>Cc1ccc(F)c2c1N(C(=O)[C@@H]1CCCN(S(C)(=O)=O)C1)CCC2</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5293,25 +5267,25 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>470.72</v>
+        <v>354.45</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3</v>
+      </c>
+      <c r="L71" t="n">
         <v>1</v>
       </c>
-      <c r="I71" t="n">
-        <v>3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>5</v>
-      </c>
-      <c r="K71" t="n">
-        <v>5</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
       <c r="M71" t="n">
-        <v>47.81</v>
+        <v>57.69</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -5322,7 +5296,7 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C2180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85365230&gt;</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -5334,7 +5308,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C38592292</t>
+          <t>C20806868</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5342,12 +5316,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CCOc1ccc2nc(S[C@H]3C(=O)[NH+]=c4ccc(Cl)cc4=C3c3ccccc3)sc2c1</t>
+          <t>CCCCC[C@@H](C)[C@H](C)c1cc(O)c2c(c1)OC(C)(C)C1=C2C[NH+](CC(N)=O)CC1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>CCOc1ccc2nc(S[C@H]3C(=O)[NH+]=c4ccc(Cl)cc4=C3c3ccccc3)sc2c1</t>
+          <t>CCCCC[C@@H](C)[C@H](C)c1cc(O)c2c(c1)OC(C)(C)C1=C2C[NH+](CC(N)=O)CC1</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5361,25 +5335,25 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>466.01</v>
+        <v>415.6</v>
       </c>
       <c r="H72" t="n">
+        <v>3</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3</v>
+      </c>
+      <c r="J72" t="n">
+        <v>8</v>
+      </c>
+      <c r="K72" t="n">
+        <v>3</v>
+      </c>
+      <c r="L72" t="n">
         <v>1</v>
       </c>
-      <c r="I72" t="n">
-        <v>4</v>
-      </c>
-      <c r="J72" t="n">
-        <v>5</v>
-      </c>
-      <c r="K72" t="n">
-        <v>5</v>
-      </c>
-      <c r="L72" t="n">
-        <v>4</v>
-      </c>
       <c r="M72" t="n">
-        <v>53.16</v>
+        <v>76.98999999999999</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -5390,7 +5364,7 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C2030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85364270&gt;</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -5402,7 +5376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C28048965</t>
+          <t>C08923130</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5410,12 +5384,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cc1cc(Br)ccc1S(=O)(=O)Nc1c(O)oc2ccccc2c1=[NH+]C1CCCCC1</t>
+          <t>CC(C)[NH+]1CCc2c(sc3c2C(O)=N[C@@H](c2ccc(OC(=O)c4cccc5ccccc45)cc2)N3)C1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Cc1cc(Br)ccc1S(=O)(=O)Nc1c(O)oc2ccccc2c1=[NH+]C1CCCCC1</t>
+          <t>CC(C)[NH+]1CCc2c(sc3c2C(O)=N[C@@H](c2ccc(OC(=O)c4cccc5ccccc45)cc2)N3)C1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5429,7 +5403,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>492.42</v>
+        <v>498.63</v>
       </c>
       <c r="H73" t="n">
         <v>3</v>
@@ -5441,13 +5415,13 @@
         <v>4</v>
       </c>
       <c r="K73" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M73" t="n">
-        <v>93.51000000000001</v>
+        <v>75.36</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -5458,7 +5432,7 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C2730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85367290&gt;</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -5526,7 +5500,7 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C2110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85365310&gt;</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -5538,7 +5512,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C42909069</t>
+          <t>C03048166</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5546,12 +5520,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CCOC(=O)N[C@@H](CNC(=O)NC1CC(C)(C)[NH2+]C(C)(C)C1)CC(C)C</t>
+          <t>Cc1ccccc1NC(=S)N/N=C1/C(=O)N(CN2CCN(c3cccc[nH+]3)CC2)c2ccccc21</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>CCOC(=O)N[C@@H](CNC(=O)NC1CC(C)(C)[NH2+]C(C)(C)C1)CC(C)C</t>
+          <t>Cc1ccccc1NC(=S)N/N=C1/C(=O)N(CN2CCN(c3cccc[nH+]3)CC2)c2ccccc21</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5565,25 +5539,25 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>371.55</v>
+        <v>486.63</v>
       </c>
       <c r="H75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J75" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M75" t="n">
-        <v>96.06999999999999</v>
+        <v>77.34999999999999</v>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -5594,7 +5568,7 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A853663B0&gt;</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -5606,7 +5580,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C39500634</t>
+          <t>C40813436</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5614,12 +5588,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc([C@@H]2C=CNN2)cc1)[C@@H]1CCC[NH+](Cc2cc(C#CCO)cs2)C1</t>
+          <t>Cc1ccc(NC(=O)c2oc3c(c2C)/C(=N/NC(=O)c2ccc(Cl)c([N+](=O)[O-])c2)CCC3)cc1Cl</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc([C@@H]2C=CNN2)cc1)[C@@H]1CCC[NH+](Cc2cc(C#CCO)cs2)C1</t>
+          <t>Cc1ccc(NC(=O)c2oc3c(c2C)/C(=N/NC(=O)c2ccc(Cl)c([N+](=O)[O-])c2)CCC3)cc1Cl</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5633,13 +5607,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>423.56</v>
+        <v>515.35</v>
       </c>
       <c r="H76" t="n">
+        <v>2</v>
+      </c>
+      <c r="I76" t="n">
         <v>5</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4</v>
       </c>
       <c r="J76" t="n">
         <v>5</v>
@@ -5648,10 +5622,10 @@
         <v>4</v>
       </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M76" t="n">
-        <v>77.83</v>
+        <v>126.84</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -5662,7 +5636,7 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C22D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85364430&gt;</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -5674,7 +5648,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C39387785</t>
+          <t>C01390123</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5682,12 +5656,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>COc1ccc(N2NC=C([C@@H](C)[NH2+]Cc3[nH]c4ccc(OC)cc4c3C)[C@@H]2C)cc1</t>
+          <t>O=C(NNC(=O)c1cnn(-c2ccccc2)c1-c1ccccc1)c1cnn(-c2ccccc2)c1-c1ccccc1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>COc1ccc(N2NC=C([C@@H](C)[NH2+]Cc3[nH]c4ccc(OC)cc4c3C)[C@@H]2C)cc1</t>
+          <t>O=C(NNC(=O)c1cnn(-c2ccccc2)c1-c1ccccc1)c1cnn(-c2ccccc2)c1-c1ccccc1</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5701,25 +5675,25 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>407.54</v>
+        <v>524.58</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
         <v>4</v>
       </c>
       <c r="J77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K77" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L77" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M77" t="n">
-        <v>66.13</v>
+        <v>93.84</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -5730,7 +5704,7 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85365460&gt;</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -5742,7 +5716,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>C66244099</t>
+          <t>C14275538</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5750,12 +5724,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>N/C(NCCc1cc(Cl)cc(Cl)c1)=[NH+]\C[C@H]1CCCO1</t>
+          <t>COc1ccc(-c2nc3cc(C(C)C)ccc3o2)cc1NC(=S)NC(=O)c1ccc(OC)c(OC)c1</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>N/C(NCCc1cc(Cl)cc(Cl)c1)=[NH+]\C[C@H]1CCCO1</t>
+          <t>COc1ccc(-c2nc3cc(C(C)C)ccc3o2)cc1NC(=S)NC(=O)c1ccc(OC)c(OC)c1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5769,25 +5743,25 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>317.24</v>
+        <v>505.6</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J78" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M78" t="n">
-        <v>61.25</v>
+        <v>94.84999999999999</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -5798,7 +5772,7 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C20A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A853644A0&gt;</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -5810,7 +5784,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C50595140</t>
+          <t>C08816901</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -5818,12 +5792,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CCOC(=O)[C@](C)([NH3+])CCCCn1nc(C)c(Br)c1C</t>
+          <t>CCCCCOC(=O)CSc1ncnc2c1sc1[nH+]c(N3CCOCC3)c3c(c12)CC(C)(C)OC3</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>CCOC(=O)[C@](C)([NH3+])CCCCn1nc(C)c(Br)c1C</t>
+          <t>CCCCCOC(=O)CSc1ncnc2c1sc1[nH+]c(N3CCOCC3)c3c(c12)CC(C)(C)OC3</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5837,25 +5811,25 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>347.28</v>
+        <v>517.7</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J79" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M79" t="n">
-        <v>71.76000000000001</v>
+        <v>87.92</v>
       </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -5866,7 +5840,7 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85364580&gt;</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -5878,7 +5852,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C65944383</t>
+          <t>C43677189</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -5886,12 +5860,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>O=C1C(=O)N(CN2CC3C[C@@H]4CC2C[C@H](C3)C4)C(=O)N1Cc1cccs1</t>
+          <t>[NH3+]CCc1cccc(Br)c1OCc1sccc1Br</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>O=C1C(=O)N(CN2CC3C[C@H]4CC2C[C@@H](C3)C4)C(=O)N1Cc1cccs1</t>
+          <t>[NH3+]CCc1cccc(Br)c1OCc1sccc1Br</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5905,25 +5879,25 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>373.48</v>
+        <v>392.14</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K80" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M80" t="n">
-        <v>60.93</v>
+        <v>36.87</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -5934,7 +5908,7 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C2340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A853677D0&gt;</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -5946,7 +5920,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C12566679</t>
+          <t>C22064462</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -5954,12 +5928,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=S)N(CC[NH+](C)C)Cc2cc3cc(C)cc(C)c3[nH]c2=O)c(C)c1</t>
+          <t>O[C@H](C[NH2+]C[C@H](O)[C@H]1CCc2cc(F)ccc2O1)[C@@H]1CCc2cc(F)ccc2O1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=S)N(CC[NH+](C)C)Cc2cc3cc(C)cc(C)c3[nH]c2=O)c(C)c1</t>
+          <t>O[C@@H](C[NH2+]C[C@@H](O)[C@@H]1CCc2cc(F)ccc2O1)[C@H]1CCc2cc(F)ccc2O1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5973,7 +5947,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>437.63</v>
+        <v>406.45</v>
       </c>
       <c r="H81" t="n">
         <v>3</v>
@@ -5985,13 +5959,13 @@
         <v>6</v>
       </c>
       <c r="K81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M81" t="n">
-        <v>52.57</v>
+        <v>75.53</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -6002,7 +5976,7 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BDB60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85365FC0&gt;</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -6014,7 +5988,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C01612853</t>
+          <t>C10138411</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -6022,12 +5996,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CO[C@]1(Cc2cc(O)c(O)c(Br)c2Br)C(=O)O[C@@H]2[C@@H](O)CO[C@@]21O</t>
+          <t>CCCn1c(N)c(C(=O)C[NH2+][C@H](c2ccc(Cl)cc2)C(C)C)c(=O)[nH]c1=O</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>CO[C@]1(Cc2cc(O)c(O)c(Br)c2Br)C(=O)O[C@@H]2[C@@H](O)CO[C@@]21O</t>
+          <t>CCCn1c(N)c(C(=O)C[NH2+][C@H](c2ccc(Cl)cc2)C(C)C)c(=O)[nH]c1=O</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -6041,25 +6015,25 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>470.07</v>
+        <v>393.9</v>
       </c>
       <c r="H82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
+        <v>4</v>
+      </c>
+      <c r="J82" t="n">
         <v>8</v>
       </c>
-      <c r="J82" t="n">
-        <v>3</v>
-      </c>
       <c r="K82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M82" t="n">
-        <v>125.68</v>
+        <v>114.56</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -6070,7 +6044,7 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD9A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85365A80&gt;</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -6082,7 +6056,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>C63195391</t>
+          <t>C67501625</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6090,12 +6064,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>C=CCNC(=O)NC(=O)CN1CCCC[C@@H]1[C@H](C)[NH3+]</t>
+          <t>COc1cc(C[NH2+][C@H]2CCc3cc(Cl)ccc32)cc(OC)c1OCC(N)=O</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>C=CCNC(=O)NC(=O)CN1CCCC[C@@H]1[C@H](C)[NH3+]</t>
+          <t>COc1cc(C[NH2+][C@H]2CCc3cc(Cl)ccc32)cc(OC)c1OCC(N)=O</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -6109,25 +6083,25 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>269.37</v>
+        <v>391.88</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J83" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M83" t="n">
-        <v>89.08</v>
+        <v>87.39</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -6138,7 +6112,7 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BDC40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85366B20&gt;</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -6150,7 +6124,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C02792782</t>
+          <t>C44549924</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6158,12 +6132,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cc1ccc(-n2c([S-])nnc2CSc2nnc(-c3ccn(C)n3)n2C[C@@H]2CCCO2)cc1</t>
+          <t>COc1cc(Cc2n[nH]c(SC[C@@H](O)C[NH2+]C3CCCCC3)n2)cc(OC)c1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Cc1ccc(-n2c([S-])nnc2CSc2nnc(-c3ccn(C)n3)n2C[C@@H]2CCCO2)cc1</t>
+          <t>COc1cc(Cc2n[nH]c(SC[C@@H](O)C[NH2+]C3CCCCC3)n2)cc(OC)c1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -6177,25 +6151,25 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>467.6</v>
+        <v>407.56</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J84" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M84" t="n">
-        <v>88.47</v>
+        <v>96.87</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -6206,7 +6180,7 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BDA10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85364660&gt;</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -6218,7 +6192,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>C19327658</t>
+          <t>C52782992</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6226,12 +6200,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Cc1ccc(O)c(C[NH+]2CCN(Cc3cc(O)ccc3C)[C@@H]2c2ccccc2)c1</t>
+          <t>Nc1cc(Br)ccc1SCCC[C@H]1CCC[NH2+]1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Cc1ccc(O)c(C[NH+]2CCN(Cc3cc(O)ccc3C)[C@@H]2c2ccccc2)c1</t>
+          <t>Nc1cc(Br)ccc1SCCC[C@H]1CCC[NH2+]1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -6245,25 +6219,25 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>389.52</v>
+        <v>316.29</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
         <v>5</v>
       </c>
       <c r="K85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M85" t="n">
-        <v>48.14</v>
+        <v>42.63</v>
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -6274,7 +6248,7 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD8C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85365E70&gt;</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -6286,7 +6260,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C33928151</t>
+          <t>C38018545</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6294,12 +6268,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>N#CC1=C(SCC(N)=O)N[C@@](O)(C(F)(F)F)[C@H](C(=O)c2cccs2)[C@@H]1c1ccccc1Cl</t>
+          <t>C[C@@H]([NH2+]Cc1ccc(Br)s1)c1cc(O)ccc1O</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>N#CC1=C(SCC(N)=O)N[C@@](O)(C(F)(F)F)[C@H](C(=O)c2cccs2)[C@@H]1c1ccccc1Cl</t>
+          <t>C[C@@H]([NH2+]Cc1ccc(Br)s1)c1cc(O)ccc1O</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -6313,25 +6287,25 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>501.94</v>
+        <v>329.24</v>
       </c>
       <c r="H86" t="n">
         <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L86" t="n">
         <v>2</v>
       </c>
       <c r="M86" t="n">
-        <v>116.21</v>
+        <v>57.07</v>
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
@@ -6342,7 +6316,7 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85365EE0&gt;</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -6354,7 +6328,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C39316185</t>
+          <t>C39945004</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6362,12 +6336,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Cc1ccc(C)n1[C@H]1C=CS[C@H]1[C@@H]1C=C(/[NH+]=c2/c(C=O)coc3ccc(F)cc23)N=N1</t>
+          <t>NC(=O)[C@@H]1C2=C(CCC2)S[C@@H]1NC(=O)COC(=O)c1ccc2[nH]c3c(c2c1)CCCC3</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Cc1ccc(C)n1[C@H]1C=CS[C@H]1[C@@H]1C=C(/[NH+]=c2/c(C=O)coc3ccc(F)cc23)N=N1</t>
+          <t>NC(=O)[C@@H]1C2=C(CCC2)S[C@@H]1NC(=O)COC(=O)c1ccc2[nH]c3c(c2c1)CCCC3</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6381,25 +6355,25 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>435.5</v>
+        <v>439.54</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K87" t="n">
         <v>5</v>
       </c>
       <c r="L87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M87" t="n">
-        <v>73.83</v>
+        <v>114.28</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -6410,7 +6384,7 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD7E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85365C40&gt;</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -6422,7 +6396,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>C15707529</t>
+          <t>C63650872</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6430,12 +6404,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>COCCNC(=S)N[C@H]1C[C@H]2C(=O)NC[C@@H](CCC(=O)N3CCCC3)[NH+]2C1</t>
+          <t>Nc1nc(N)nc(CSCc2coc(-c3ccc(Br)cc3)n2)n1</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>COCCNC(=S)N[C@H]1C[C@H]2C(=O)NC[C@@H](CCC(=O)N3CCCC3)[NH+]2C1</t>
+          <t>Nc1nc(N)nc(CSCc2coc(-c3ccc(Br)cc3)n2)n1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6449,25 +6423,25 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>398.55</v>
+        <v>393.27</v>
       </c>
       <c r="H88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J88" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K88" t="n">
         <v>3</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M88" t="n">
-        <v>87.14</v>
+        <v>116.74</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -6478,7 +6452,7 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85367220&gt;</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -6490,7 +6464,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>C09467827</t>
+          <t>C66513311</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6498,12 +6472,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Cc1ccc(Nc2nc(N)nc(C[NH+](C)Cc3ccco3)n2)cc1</t>
+          <t>CCCC[NH+]1Cc2cccc(NC(=O)c3ccc(CNC(C)=O)s3)c2C1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Cc1ccc(Nc2nc(N)nc(C[NH+](C)Cc3ccco3)n2)cc1</t>
+          <t>CCCC[NH+]1Cc2cccc(NC(=O)c3ccc(CNC(C)=O)s3)c2C1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6517,25 +6491,25 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>325.4</v>
+        <v>372.51</v>
       </c>
       <c r="H89" t="n">
         <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K89" t="n">
         <v>3</v>
       </c>
       <c r="L89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M89" t="n">
-        <v>94.3</v>
+        <v>62.64</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -6546,7 +6520,7 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BDA80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85364040&gt;</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
@@ -6558,7 +6532,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>C36369753</t>
+          <t>C28351212</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6566,12 +6540,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>OC[C@@H](O)[C@@H](O)[C@@H](O)[C@H](O)[C@@H]1N2C[C@@]3(c4ccccc4)C[NH+]1C[C@@](c1ccccc1)(C2)C3O</t>
+          <t>O=c1cc(NCCC[NH2+]Cc2cc(Br)cc(Br)c2)[nH]c2sccc12</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>OC[C@@H](O)[C@@H](O)[C@@H](O)[C@H](O)[C@@H]1N2C[C@@]3(c4ccccc4)C[NH+]1C[C@@](c1ccccc1)(C2)C3O</t>
+          <t>O=c1cc(NCCC[NH2+]Cc2cc(Br)cc(Br)c2)[nH]c2sccc12</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6585,25 +6559,25 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>457.55</v>
+        <v>472.23</v>
       </c>
       <c r="H90" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
         <v>7</v>
       </c>
       <c r="K90" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M90" t="n">
-        <v>129.06</v>
+        <v>61.5</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -6614,7 +6588,7 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BDAF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85367BC0&gt;</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -6626,7 +6600,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>C43277621</t>
+          <t>C43222414</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6634,12 +6608,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Nc1ccc2cc3ccc(=[NH2+])cc-3n(CCCC(=O)NCCN3C(=O)C=CC3=O)c2c1</t>
+          <t>Cc1ccc(CCNC(=O)[C@H]2C[NH2+]C[C@@H]2C(=O)N[C@@H](C)CCc2ccccc2)cc1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Nc1ccc2cc3ccc(=[NH2+])cc-3n(CCCC(=O)NCCN3C(=O)C=CC3=O)c2c1</t>
+          <t>Cc1ccc(CCNC(=O)[C@H]2C[NH2+]C[C@@H]2C(=O)N[C@@H](C)CCc2ccccc2)cc1</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6653,25 +6627,25 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>418.48</v>
+        <v>408.57</v>
       </c>
       <c r="H91" t="n">
         <v>3</v>
       </c>
       <c r="I91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M91" t="n">
-        <v>123.02</v>
+        <v>74.81</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -6682,7 +6656,7 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849779EAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85366260&gt;</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -6694,7 +6668,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>C38717990</t>
+          <t>C63282152</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6702,12 +6676,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>C[NH+]1CCN(NC(=O)C(=O)NCCN2CCOCC2)CC1</t>
+          <t>O=C(/C=C1/CS[C@H](NS(=O)(=O)c2ccc(Cl)cc2)N1)NCC[C@@H]1C=c2ccccc2=[NH+]1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>C[NH+]1CCN(NC(=O)C(=O)NCCN2CCOCC2)CC1</t>
+          <t>O=C(/C=C1/CS[C@H](NS(=O)(=O)c2ccc(Cl)cc2)N1)NCC[C@@H]1C=c2ccccc2=[NH+]1</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6721,25 +6695,25 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>300.38</v>
+        <v>478.02</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I92" t="n">
         <v>5</v>
       </c>
       <c r="J92" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K92" t="n">
+        <v>4</v>
+      </c>
+      <c r="L92" t="n">
         <v>2</v>
       </c>
-      <c r="L92" t="n">
-        <v>0</v>
-      </c>
       <c r="M92" t="n">
-        <v>78.34999999999999</v>
+        <v>101.27</v>
       </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
@@ -6750,7 +6724,7 @@
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849779E8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85367840&gt;</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
@@ -6762,7 +6736,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>C36298801</t>
+          <t>C12566679</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -6770,12 +6744,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CC(C)C[C@H]([NH3+])CNS(=O)(=O)c1cn(C)c(=O)n(C)c1=O</t>
+          <t>Cc1ccc(NC(=S)N(CC[NH+](C)C)Cc2cc3cc(C)cc(C)c3[nH]c2=O)c(C)c1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>CC(C)C[C@H]([NH3+])CNS(=O)(=O)c1cn(C)c(=O)n(C)c1=O</t>
+          <t>Cc1ccc(NC(=S)N(CC[NH+](C)C)Cc2cc3cc(C)cc(C)c3[nH]c2=O)c(C)c1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6789,10 +6763,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>319.41</v>
+        <v>437.63</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93" t="n">
         <v>4</v>
@@ -6801,13 +6775,13 @@
         <v>6</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M93" t="n">
-        <v>117.81</v>
+        <v>52.57</v>
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
@@ -6818,7 +6792,7 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849779EB20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85364740&gt;</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -6830,7 +6804,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>C15062423</t>
+          <t>C49526880</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -6838,12 +6812,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>O=C1N(CC2CC2)CCC[C@]1(O)C[NH2+]C1CCN(c2ccccc2)CC1</t>
+          <t>Cc1cc(C)c(C(N)=S)c(N[C@@H](C)c2ccc(Br)cc2)[nH+]1</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>O=C1N(CC2CC2)CCC[C@]1(O)C[NH2+]C1CCN(c2ccccc2)CC1</t>
+          <t>Cc1cc(C)c(C(N)=S)c(N[C@@H](C)c2ccc(Br)cc2)[nH+]1</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6857,7 +6831,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>358.51</v>
+        <v>365.32</v>
       </c>
       <c r="H94" t="n">
         <v>2</v>
@@ -6866,16 +6840,16 @@
         <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M94" t="n">
-        <v>60.39</v>
+        <v>52.19</v>
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -6886,7 +6860,7 @@
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849779E880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85366110&gt;</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -6898,7 +6872,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>C20203547</t>
+          <t>C32666012</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -6906,12 +6880,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Cc1ccc(Cn2cnc3sc4c(c3c2=O)CC[C@@H]([NH2+]CC(C)(C)CO)C4)cc1</t>
+          <t>COc1cccc(/C=c2\sc(=C(C#N)C#N)n(-c3ccc(Cl)cc3)c2=O)c1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Cc1ccc(Cn2cnc3sc4c(c3c2=O)CC[C@@H]([NH2+]CC(C)(C)CO)C4)cc1</t>
+          <t>COc1cccc(/C=c2\sc(=C(C#N)C#N)n(-c3ccc(Cl)cc3)c2=O)c1</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -6925,25 +6899,25 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>412.58</v>
+        <v>393.86</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J95" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L95" t="n">
         <v>3</v>
       </c>
       <c r="M95" t="n">
-        <v>71.73</v>
+        <v>78.81</v>
       </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
@@ -6954,7 +6928,7 @@
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849779E7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A853678B0&gt;</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -6966,7 +6940,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>C39738095</t>
+          <t>C02792782</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -6974,12 +6948,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Nc1c(/N=N/c2cccc(/C=C/C3[NH+]=c4ccccc4=[NH+]3)c2)cc(S(=O)(=O)[O-])c2ccccc12</t>
+          <t>Cc1ccc(-n2c([S-])nnc2CSc2nnc(-c3ccn(C)n3)n2C[C@@H]2CCCO2)cc1</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Nc1c(/N=N/c2cccc(/C=C/C3[NH+]=c4ccccc4=[NH+]3)c2)cc(S(=O)(=O)[O-])c2ccccc12</t>
+          <t>Cc1ccc(-n2c([S-])nnc2CSc2nnc(-c3ccn(C)n3)n2C[C@@H]2CCCO2)cc1</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -6993,16 +6967,16 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>470.53</v>
+        <v>467.6</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J96" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K96" t="n">
         <v>5</v>
@@ -7011,7 +6985,7 @@
         <v>4</v>
       </c>
       <c r="M96" t="n">
-        <v>135.88</v>
+        <v>88.47</v>
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
@@ -7022,7 +6996,7 @@
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849779E810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85367760&gt;</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
@@ -7034,7 +7008,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>C13489294</t>
+          <t>C42321381</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -7042,12 +7016,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>COC(=O)[C@H](CSC1CCCCC1)n1c(=O)n2n(c1=O)[C@@H](C(=O)NCc1ccc(N)[nH+]c1C)C=CC2</t>
+          <t>CC(C)c1csc(Nc2ccc(N)c(C(N)=O)c2)n1</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>COC(=O)[C@H](CSC1CCCCC1)n1c(=O)n2n(c1=O)[C@@H](C(=O)NCc1ccc(N)[nH+]c1C)C=CC2</t>
+          <t>CC(C)c1csc(Nc2ccc(N)c(C(N)=O)c2)n1</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -7061,25 +7035,25 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>517.63</v>
+        <v>276.37</v>
       </c>
       <c r="H97" t="n">
+        <v>3</v>
+      </c>
+      <c r="I97" t="n">
+        <v>4</v>
+      </c>
+      <c r="J97" t="n">
+        <v>4</v>
+      </c>
+      <c r="K97" t="n">
         <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>7</v>
-      </c>
-      <c r="J97" t="n">
-        <v>8</v>
-      </c>
-      <c r="K97" t="n">
-        <v>4</v>
       </c>
       <c r="L97" t="n">
         <v>2</v>
       </c>
       <c r="M97" t="n">
-        <v>144.49</v>
+        <v>94.03</v>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
@@ -7090,7 +7064,7 @@
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849779E650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85364AC0&gt;</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
@@ -7102,7 +7076,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>C14542489</t>
+          <t>C19327658</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -7110,12 +7084,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CC(C)C[C@H]([NH2+][C@H]1CCc2c(c(C(=O)N(C)C)nn2CC2CCCCC2)C1)C(N)=O</t>
+          <t>Cc1ccc(O)c(C[NH+]2CCN(Cc3cc(O)ccc3C)[C@@H]2c2ccccc2)c1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>CC(C)C[C@H]([NH2+][C@H]1CCc2c(c(C(=O)N(C)C)nn2CC2CCCCC2)C1)C(N)=O</t>
+          <t>Cc1ccc(O)c(C[NH+]2CCN(Cc3cc(O)ccc3C)[C@@H]2c2ccccc2)c1</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -7129,25 +7103,25 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>418.61</v>
+        <v>389.52</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I98" t="n">
         <v>3</v>
       </c>
       <c r="J98" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M98" t="n">
-        <v>97.83</v>
+        <v>48.14</v>
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -7158,7 +7132,7 @@
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849779E9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85365380&gt;</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
@@ -7170,7 +7144,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>C03840706</t>
+          <t>C43741069</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -7178,12 +7152,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>C[C@H](C(=O)N1CC[NH+](C)CC1)[C@H]1CC[C@@]2(C)Cc3sc(COC(=O)C(C)(C)C)nc3[C@@H](C)[C@@H]2[C@H]1O</t>
+          <t>O=c1cccc2n1C[C@@H]1C[C@H]2C[NH+](C[C@@H](O)CNc2ccc(O)cc2)C1</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>C[C@@H]1c2nc(COC(=O)C(C)(C)C)sc2C[C@]2(C)CC[C@H]([C@H](C)C(=O)N3CC[NH+](C)CC3)[C@H](O)[C@@H]12</t>
+          <t>O=c1cccc2n1C[C@@H]1C[C@H]2C[NH+](C[C@@H](O)CNc2ccc(O)cc2)C1</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -7193,29 +7167,29 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>506.73</v>
+        <v>356.45</v>
       </c>
       <c r="H99" t="n">
+        <v>4</v>
+      </c>
+      <c r="I99" t="n">
+        <v>4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>4</v>
+      </c>
+      <c r="L99" t="n">
         <v>2</v>
       </c>
-      <c r="I99" t="n">
-        <v>5</v>
-      </c>
-      <c r="J99" t="n">
-        <v>4</v>
-      </c>
-      <c r="K99" t="n">
-        <v>4</v>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
       <c r="M99" t="n">
-        <v>84.17</v>
+        <v>78.93000000000001</v>
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -7226,7 +7200,7 @@
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849779EA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85365BD0&gt;</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
@@ -7238,7 +7212,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>C49634647</t>
+          <t>C36813053</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7246,12 +7220,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>C[C@H](Sc1nnc([C@@H](C)[NH+](C)C)n1-c1ccc(F)cc1)C(=O)/N=c1/[nH]c(-c2ccccc2)cs1</t>
+          <t>N#Cc1ccccc1Nc1c(N)c[nH+]c2ccc(Br)cc12</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>C[C@H](Sc1nnc([C@@H](C)[NH+](C)C)n1-c1ccc(F)cc1)C(=O)/N=c1/[nH]c(-c2ccccc2)cs1</t>
+          <t>N#Cc1ccccc1Nc1c(N)c[nH+]c2ccc(Br)cc12</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -7261,29 +7235,29 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>497.65</v>
+        <v>340.2</v>
       </c>
       <c r="H100" t="n">
         <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J100" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M100" t="n">
-        <v>80.37</v>
+        <v>75.98</v>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
@@ -7294,7 +7268,7 @@
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849779E960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85366730&gt;</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
@@ -7306,7 +7280,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>C43741815</t>
+          <t>C13729383</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7314,12 +7288,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>C[C@@]12CC/C(=N/OCC(=O)NCc3ccncc3)C=C1CC[C@H]1[C@@H]2[C@H](O)C[C@]2(C)[C@@H]1CC[C@@]2(O)C(=O)CO</t>
+          <t>OC12C[C@H]3C[C@@H](C1)CC([NH2+]Cc1cc(Br)c(OCc4ccccc4)c(Br)c1)(C3)C2</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>C[C@@]12CC/C(=N/OCC(=O)NCc3ccncc3)C=C1CC[C@H]1[C@@H]2[C@H](O)C[C@]2(C)[C@@H]1CC[C@@]2(O)C(=O)CO</t>
+          <t>OC12C[C@H]3C[C@@H](C1)CC([NH2+]Cc1cc(Br)c(OCc4ccccc4)c(Br)c1)(C3)C2</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -7329,29 +7303,29 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>525.65</v>
+        <v>522.3</v>
       </c>
       <c r="H101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K101" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M101" t="n">
-        <v>141.34</v>
+        <v>46.07</v>
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
@@ -7362,7 +7336,7 @@
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887F990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85367450&gt;</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
@@ -7374,7 +7348,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>C39265540</t>
+          <t>C37450742</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7382,12 +7356,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>[H]/N=C1\N=C2N=CN=C2[C@@H](S[C@@H](C)C(=O)N[C@@]2(c3ccccc3)CCCC[C@H]2O)N1</t>
+          <t>Cc1nn(C)c(Cl)c1/C=C/C(=O)Nc1sccc1C(=O)[O-]</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>[H]/N=C1\N=C2N=CN=C2[C@@H](S[C@@H](C)C(=O)N[C@@]2(c3ccccc3)CCCC[C@H]2O)N1</t>
+          <t>Cc1nn(C)c(Cl)c1/C=C/C(=O)Nc1sccc1C(=O)[O-]</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -7397,29 +7371,29 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>412.52</v>
+        <v>324.77</v>
       </c>
       <c r="H102" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>4</v>
       </c>
       <c r="J102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K102" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M102" t="n">
-        <v>122.29</v>
+        <v>87.05</v>
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
@@ -7430,7 +7404,7 @@
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887D150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85366960&gt;</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
@@ -7442,7 +7416,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>C63205687</t>
+          <t>C57433274</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -7450,12 +7424,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>O=C([C@@H](NC[C@@H](C1=c2ccccc2=[NH+]C1)c1ccccc1)c1ccccc1)N1CCOCC1</t>
+          <t>O=C1CNC(/N=C(\[O-])Cc2csc(-c3ccc(Cl)s3)n2)=N1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>O=C([C@@H](NC[C@@H](C1=c2ccccc2=[NH+]C1)c1ccccc1)c1ccccc1)N1CCOCC1</t>
+          <t>O=C1CNC(/N=C(\[O-])Cc2csc(-c3ccc(Cl)s3)n2)=N1</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7465,29 +7439,29 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>440.57</v>
+        <v>339.81</v>
       </c>
       <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>4</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3</v>
+      </c>
+      <c r="K103" t="n">
+        <v>3</v>
+      </c>
+      <c r="L103" t="n">
         <v>2</v>
       </c>
-      <c r="I103" t="n">
-        <v>3</v>
-      </c>
-      <c r="J103" t="n">
-        <v>7</v>
-      </c>
-      <c r="K103" t="n">
-        <v>5</v>
-      </c>
-      <c r="L103" t="n">
-        <v>3</v>
-      </c>
       <c r="M103" t="n">
-        <v>55.54</v>
+        <v>89.77</v>
       </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
@@ -7498,7 +7472,7 @@
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887EE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A85366500&gt;</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
@@ -7510,7 +7484,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>C03084920</t>
+          <t>C36397258</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -7518,12 +7492,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccc(Oc2ccc(/C=N/c3ccc(-c4nc5ccccc5s4)c(O)c3)cc2)c([N+](=O)[O-])c1</t>
+          <t>Cc1ccn(-c2ccc(C(=O)N3CCN(c4cc(C)[nH+]c(C(C)C)n4)CC3)cc2)n1</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccc(Oc2ccc(/C=N/c3ccc(-c4nc5ccccc5s4)c(O)c3)cc2)c([N+](=O)[O-])c1</t>
+          <t>Cc1ccn(-c2ccc(C(=O)N3CCN(c4cc(C)[nH+]c(C(C)C)n4)CC3)cc2)n1</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -7533,29 +7507,29 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>512.5</v>
+        <v>405.53</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J104" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K104" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L104" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M104" t="n">
-        <v>140.99</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -7566,7 +7540,7 @@
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887F680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A852D47B0&gt;</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
@@ -7578,7 +7552,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>C37892407</t>
+          <t>C67560524</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -7586,12 +7560,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Cc1ccc(OC[C@H](O)C[NH2+]CC(=O)NC(C)C)c(Br)c1</t>
+          <t>O=c1[nH]nc(CCNc2nc(-c3ccccc3)nc3c2CC[NH2+]C3)[nH]1</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Cc1ccc(OC[C@H](O)C[NH2+]CC(=O)NC(C)C)c(Br)c1</t>
+          <t>O=c1[nH]nc(CCNc2nc(-c3ccccc3)nc3c2CC[NH2+]C3)[nH]1</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -7601,29 +7575,29 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>360.27</v>
+        <v>338.4</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J105" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K105" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M105" t="n">
-        <v>75.17</v>
+        <v>115.96</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -7634,7 +7608,7 @@
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887CA50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A852D65E0&gt;</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
@@ -7646,7 +7620,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>C59818976</t>
+          <t>C09421180</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -7654,12 +7628,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CCN(C)C(=O)[C@@H](C)Sc1n[nH]c(N/N=C/c2cc(Br)c(O)c(Br)c2)n1</t>
+          <t>O=C(CNc1nc(Cl)nc2[nH]cnc12)NCCc1c[nH+]c[nH]1</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>CCN(C)C(=O)[C@@H](C)Sc1n[nH]c(N/N=C/c2cc(Br)c(O)c(Br)c2)n1</t>
+          <t>O=C(CNc1nc(Cl)nc2[nH]cnc12)NCCc1c[nH+]c[nH]1</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -7669,29 +7643,29 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>506.22</v>
+        <v>321.75</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I106" t="n">
+        <v>5</v>
+      </c>
+      <c r="J106" t="n">
         <v>6</v>
       </c>
-      <c r="J106" t="n">
-        <v>7</v>
-      </c>
       <c r="K106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M106" t="n">
-        <v>106.5</v>
+        <v>125.52</v>
       </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
@@ -7702,7 +7676,7 @@
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887E420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A852D4CF0&gt;</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
@@ -7714,7 +7688,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>C25680387</t>
+          <t>C15062423</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -7722,12 +7696,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>C[C@@H](C(=O)Nc1sc2c(c1C#N)CCCCC2)[NH+]1CC=C(c2ccc(O)cc2)CC1</t>
+          <t>O=C1N(CC2CC2)CCC[C@]1(O)C[NH2+]C1CCN(c2ccccc2)CC1</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>C[C@@H](C(=O)Nc1sc2c(c1C#N)CCCCC2)[NH+]1CC=C(c2ccc(O)cc2)CC1</t>
+          <t>O=C1N(CC2CC2)CCC[C@]1(O)C[NH2+]C1CCN(c2ccccc2)CC1</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -7737,29 +7711,29 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>422.57</v>
+        <v>358.51</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
         <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K107" t="n">
         <v>4</v>
       </c>
       <c r="L107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M107" t="n">
-        <v>77.56</v>
+        <v>60.39</v>
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
@@ -7770,7 +7744,7 @@
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887CE40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A852D5BD0&gt;</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
@@ -7782,7 +7756,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>C16957850</t>
+          <t>C14990835</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -7790,12 +7764,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[H]/N=C\CCN(CC/C=N/[H])c1ccc(/C=C2/CN(NC(=O)c3ccc(Cl)cc3)C(c3ccccc3)=[NH+]2)cc1</t>
+          <t>C/C=C(\C)C[NH+]1CCC(O)(c2ccc3oc(C(=O)Nc4ccc5c(c4)OCO5)cc3c2)CC1</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>[H]/N=C\CCN(CC/C=N/[H])c1ccc(/C=C2/CN(NC(=O)c3ccc(Cl)cc3)C(c3ccccc3)=[NH+]2)cc1</t>
+          <t>C/C=C(\C)C[NH+]1CCC(O)(c2ccc3oc(C(=O)Nc4ccc5c(c4)OCO5)cc3c2)CC1</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -7805,29 +7779,29 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>514.05</v>
+        <v>449.53</v>
       </c>
       <c r="H108" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J108" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L108" t="n">
         <v>3</v>
       </c>
       <c r="M108" t="n">
-        <v>97.25</v>
+        <v>85.37</v>
       </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
@@ -7838,7 +7812,7 @@
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887F6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A852D4270&gt;</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
@@ -7850,7 +7824,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>C09236225</t>
+          <t>C38547678</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -7858,12 +7832,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>COC(=O)c1ccc([C@@H]2Nn3c(nnc3-c3ccccc3)S[C@H]2C(=O)Nc2cccc(C)c2C)cc1</t>
+          <t>COc1ccc([C@@H](Nc2cc(C)cc[nH+]2)c2c(NC(=O)c3ccco3)sc(C)c2C)c(OC)c1</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>COC(=O)c1ccc([C@@H]2Nn3c(nnc3-c3ccccc3)S[C@H]2C(=O)Nc2cccc(C)c2C)cc1</t>
+          <t>COc1ccc([C@@H](Nc2cc(C)cc[nH+]2)c2c(NC(=O)c3ccco3)sc(C)c2C)c(OC)c1</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -7873,29 +7847,29 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>499.6</v>
+        <v>478.59</v>
       </c>
       <c r="H109" t="n">
         <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J109" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K109" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L109" t="n">
         <v>4</v>
       </c>
       <c r="M109" t="n">
-        <v>98.14</v>
+        <v>86.87</v>
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -7906,7 +7880,7 @@
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887EDC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A852D6AB0&gt;</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
@@ -7918,7 +7892,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>C37012195</t>
+          <t>C20275677</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -7926,12 +7900,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccccc1SC(F)(F)F)[C@@H]1C[C@@H](O)C[NH2+]1</t>
+          <t>C[C@@]12CC[C@](O)(C[NH+]3CC3)C[C@@H]1CC[C@@H]1[C@H]3CC[C@](O)(C[NH+]4CC4)[C@]3(C)CC[C@@H]12</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccccc1SC(F)(F)F)[C@@H]1C[C@@H](O)C[NH2+]1</t>
+          <t>C[C@@]12CC[C@](O)(C[NH+]3CC3)C[C@@H]1CC[C@H]1[C@@H]2CC[C@]2(C)[C@@H]1CC[C@]2(O)C[NH+]1CC1</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -7945,25 +7919,25 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>307.32</v>
+        <v>404.64</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K110" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M110" t="n">
-        <v>65.94</v>
+        <v>49.34</v>
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
@@ -7974,7 +7948,7 @@
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887ECE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A852D7290&gt;</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
@@ -7986,7 +7960,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>C63781088</t>
+          <t>C12659690</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -7994,12 +7968,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CC(C)[C@H]1N=N/C(=N\C(=O)[C@@H]2CC(=O)N(c3ccc(Br)cc3)C2)S1</t>
+          <t>COc1c2c(cc3c1[C@H](CC(=O)c1cc4c(cc1C)C(C)(C)[C@@H](C)CC4(C)C)[NH+](C)CC3)OCO2</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>CC(C)[C@H]1N=N/C(=N\C(=O)[C@@H]2CC(=O)N(c3ccc(Br)cc3)C2)S1</t>
+          <t>COc1c2c(cc3c1[C@H](CC(=O)c1cc4c(cc1C)C(C)(C)[C@@H](C)CC4(C)C)[NH+](C)CC3)OCO2</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -8013,25 +7987,25 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>409.31</v>
+        <v>478.65</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K111" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M111" t="n">
-        <v>74.45999999999999</v>
+        <v>49.2</v>
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
@@ -8042,7 +8016,7 @@
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887E5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A852D52A0&gt;</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
@@ -8054,7 +8028,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>C36609344</t>
+          <t>C20684624</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -8062,12 +8036,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CCCCNC(=O)[C@@H](c1c(O)cc(O)cc1O)N(C(=O)c1cc([N+](=O)[O-])ccc1O)c1ccccc1</t>
+          <t>CCn1c2ccccc2c2cc([C@@H]3Nc4ccc(S(=O)(=O)N5CC[NH+](C)CC5)cc4[C@@H]4C=CC[C@H]43)ccc21</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>CCCCNC(=O)[C@@H](c1c(O)cc(O)cc1O)N(C(=O)c1cc([N+](=O)[O-])ccc1O)c1ccccc1</t>
+          <t>CCn1c2ccccc2c2cc([C@@H]3Nc4ccc(S(=O)(=O)N5CC[NH+](C)CC5)cc4[C@@H]4C=CC[C@H]43)ccc21</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -8081,25 +8055,25 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>495.49</v>
+        <v>527.71</v>
       </c>
       <c r="H112" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J112" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K112" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M112" t="n">
-        <v>173.47</v>
+        <v>58.78</v>
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
@@ -8110,7 +8084,7 @@
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887F8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A852D6570&gt;</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
@@ -8122,7 +8096,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CHEMBL579387</t>
+          <t>C63933677</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -8130,12 +8104,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>O=C1OC(c2ccccc2)=N/C1=C\c1cccnc1</t>
+          <t>Cc1cc(C)cc(N2C(=O)[C@H]([C@H]3NCCC4=c5ccccc5=[NH+][C@@H]43)C(O)=N[C@H]2O)c1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>O=C1OC(c2ccccc2)=N/C1=C\c1cccnc1</t>
+          <t>Cc1cc(C)cc(N2C(=O)[C@H]([C@H]3NCCC4=c5ccccc5=[NH+][C@@H]43)C(O)=N[C@H]2O)c1</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -8145,66 +8119,40 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>250.26</v>
+        <v>405.48</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J113" t="n">
         <v>2</v>
       </c>
       <c r="K113" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L113" t="n">
         <v>2</v>
       </c>
       <c r="M113" t="n">
-        <v>51.55</v>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q113" t="n">
-        <v>12</v>
-      </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>CHEMBL1113463</t>
-        </is>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 at 10 uM</t>
-        </is>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>99.13</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887C510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A852D6500&gt;</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
@@ -8216,7 +8164,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CHEMBL1215346</t>
+          <t>C43741815</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -8224,12 +8172,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CN(C)CCCc1c(/C=C2\C(=O)Nc3ccc(NS(=O)(=O)c4ccccc4)cc32)[nH]c2c1C(=O)CCC2</t>
+          <t>C[C@@]12CC/C(=N/OCC(=O)NCc3ccncc3)C=C1CC[C@H]1[C@@H]2[C@H](O)C[C@]2(C)[C@@H]1CC[C@@]2(O)C(=O)CO</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CN(C)CCCc1c(/C=C2\C(=O)Nc3ccc(NS(=O)(=O)c4ccccc4)cc32)[nH]c2c1C(=O)CCC2</t>
+          <t>C[C@@]12CC/C(=N/OCC(=O)NCc3ccncc3)C=C1CC[C@H]1[C@@H]2[C@H](O)C[C@]2(C)[C@@H]1CC[C@@]2(O)C(=O)CO</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -8239,66 +8187,40 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>518.64</v>
+        <v>525.65</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I114" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J114" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K114" t="n">
         <v>5</v>
       </c>
       <c r="L114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M114" t="n">
-        <v>111.37</v>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q114" t="n">
-        <v>9</v>
-      </c>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>CHEMBL1219734</t>
-        </is>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 at 1 uM by radiometric method</t>
-        </is>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>141.34</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887D620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A852D6340&gt;</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
@@ -8310,7 +8232,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CHEMBL3408382</t>
+          <t>C63205687</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -8318,12 +8240,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>N#Cc1c(-c2ccccc2)cc(-c2ccccc2)nc1/N=c1\sc(-c2ccccc2)nn1-c1ccccc1</t>
+          <t>O=C([C@@H](NC[C@@H](C1=c2ccccc2=[NH+]C1)c1ccccc1)c1ccccc1)N1CCOCC1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>N#Cc1c(-c2ccccc2)cc(-c2ccccc2)nc1/N=c1\sc(-c2ccccc2)nn1-c1ccccc1</t>
+          <t>O=C([C@@H](NC[C@@H](C1=c2ccccc2=[NH+]C1)c1ccccc1)c1ccccc1)N1CCOCC1</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -8333,66 +8255,40 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>507.62</v>
+        <v>440.57</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
         <v>3</v>
       </c>
       <c r="J115" t="n">
+        <v>7</v>
+      </c>
+      <c r="K115" t="n">
         <v>5</v>
       </c>
-      <c r="K115" t="n">
-        <v>6</v>
-      </c>
       <c r="L115" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M115" t="n">
-        <v>66.86</v>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q115" t="n">
-        <v>2</v>
-      </c>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>CHEMBL3412788</t>
-        </is>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin) assessed as inhibition of peptide phosphorylation at 30 uM by based microfluidic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>55.54</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887DEE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A852D4AC0&gt;</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
@@ -8404,7 +8300,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CHEMBL3746022</t>
+          <t>C16957850</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -8412,12 +8308,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CN1CCN(CCCNc2ncc3cc(Oc4ccc(F)cc4F)c(=O)n(C)c3n2)CC1</t>
+          <t>[H]/N=C\CCN(CC/C=N/[H])c1ccc(/C=C2/CN(NC(=O)c3ccc(Cl)cc3)C(c3ccccc3)=[NH+]2)cc1</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>CN1CCN(CCCNc2ncc3cc(Oc4ccc(F)cc4F)c(=O)n(C)c3n2)CC1</t>
+          <t>[H]/N=C\CCN(CC/C=N/[H])c1ccc(/C=C2/CN(NC(=O)c3ccc(Cl)cc3)C(c3ccccc3)=[NH+]2)cc1</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -8427,20 +8323,20 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>444.49</v>
+        <v>514.05</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I116" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J116" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K116" t="n">
         <v>4</v>
@@ -8449,44 +8345,18 @@
         <v>3</v>
       </c>
       <c r="M116" t="n">
-        <v>75.52</v>
-      </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q116" t="n">
-        <v>0</v>
-      </c>
-      <c r="R116" t="inlineStr">
-        <is>
-          <t>CHEMBL3751441</t>
-        </is>
-      </c>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin) at 10 uM</t>
-        </is>
-      </c>
-      <c r="T116" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>97.25</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887C820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A852D4430&gt;</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
@@ -8498,7 +8368,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CHEMBL4463436</t>
+          <t>C12551860</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -8506,12 +8376,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Cc1nccc(Nc2cc(NC3CCN(c4ccc(C#N)cc4)CC3)c(C(N)=O)cn2)n1</t>
+          <t>CCOc1c(Br)cc([C@H]2NC(=[NH2+])Nc3nc4cc5c(cc4n32)OCCCO5)cc1OC</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Cc1nccc(Nc2cc(NC3CCN(c4ccc(C#N)cc4)CC3)c(C(N)=O)cn2)n1</t>
+          <t>CCOc1c(Br)cc([C@H]2NC(=[NH2+])Nc3nc4cc5c(cc4n32)OCCCO5)cc1OC</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -8521,66 +8391,40 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>428.5</v>
+        <v>489.35</v>
       </c>
       <c r="H117" t="n">
         <v>3</v>
       </c>
       <c r="I117" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J117" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K117" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L117" t="n">
         <v>3</v>
       </c>
       <c r="M117" t="n">
-        <v>132.85</v>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q117" t="n">
-        <v>10</v>
-      </c>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>CHEMBL4429545</t>
-        </is>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin) at 1 uM</t>
-        </is>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>104.39</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887F140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A852D6960&gt;</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
@@ -8592,7 +8436,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CHEMBL160937</t>
+          <t>C62432608</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -8600,12 +8444,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cccc(O)c1</t>
+          <t>CCc1ccc(Cc2nc3ccccn3c2[C@@H](N)C[NH+](C)C)cc1</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cccc(O)c1</t>
+          <t>CCc1ccc(Cc2nc3ccccn3c2[C@@H](N)C[NH+](C)C)cc1</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -8615,66 +8459,40 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>314.73</v>
+        <v>323.46</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K118" t="n">
         <v>3</v>
       </c>
       <c r="L118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M118" t="n">
-        <v>78.43000000000001</v>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q118" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R118" t="inlineStr">
-        <is>
-          <t>CHEMBL1961874</t>
-        </is>
-      </c>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>47.76</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887C2E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A852D5EE0&gt;</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
@@ -8686,7 +8504,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CHEMBL187985</t>
+          <t>C04045706</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -8694,12 +8512,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(N3CCCC3)nccc21</t>
+          <t>C=C1CC[C@@H]2[C@](C)(CCC[C@]2(C)C(=O)OC)[C@H]1CCc1ccoc1C[NH3+]</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(N3CCCC3)nccc21</t>
+          <t>C=C1CC[C@H]2[C@@](C)(C(=O)OC)CCC[C@]2(C)[C@H]1CCc1ccoc1C[NH3+]</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -8709,66 +8527,40 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>299.34</v>
+        <v>360.52</v>
       </c>
       <c r="H119" t="n">
         <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J119" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M119" t="n">
-        <v>98.89</v>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q119" t="n">
-        <v>-2.14</v>
-      </c>
-      <c r="R119" t="inlineStr">
-        <is>
-          <t>CHEMBL1961874</t>
-        </is>
-      </c>
-      <c r="S119" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>67.08</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887C430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A852D4820&gt;</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
@@ -8780,7 +8572,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CHEMBL188381</t>
+          <t>C33032941</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -8788,12 +8580,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CN(c1ccc(NC(=O)Nc2ccc(OC(F)(F)F)cc2)cc1)c1ccnc(Nc2cccc(S(N)(=O)=O)c2)n1</t>
+          <t>CCN(CC)C(=O)c1ccc(N2CC[NH2+]CC2)c(NS(=O)(=O)c2ccc(Br)cc2)c1</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>CN(c1ccc(NC(=O)Nc2ccc(OC(F)(F)F)cc2)cc1)c1ccnc(Nc2cccc(S(N)(=O)=O)c2)n1</t>
+          <t>CCN(CC)C(=O)c1ccc(N2CC[NH2+]CC2)c(NS(=O)(=O)c2ccc(Br)cc2)c1</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -8803,66 +8595,40 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>573.5599999999999</v>
+        <v>496.45</v>
       </c>
       <c r="H120" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J120" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K120" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L120" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M120" t="n">
-        <v>151.57</v>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q120" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="R120" t="inlineStr">
-        <is>
-          <t>CHEMBL1961875</t>
-        </is>
-      </c>
-      <c r="S120" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T120" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>86.33</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887C890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A852D7BC0&gt;</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
@@ -8874,7 +8640,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CHEMBL202891</t>
+          <t>C63755543</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -8882,12 +8648,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2cc(-c3c[nH]nc3-c3ccccn3)ccn2)cc1</t>
+          <t>COc1ccccc1C(=O)NCCSC1=c2ccccc2=[NH+][C@@H]1c1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2cc(-c3c[nH]nc3-c3ccccn3)ccn2)cc1</t>
+          <t>COc1ccccc1C(=O)NCCSC1=c2ccccc2=[NH+][C@@H]1c1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -8897,66 +8663,40 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>328.38</v>
+        <v>482.42</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J121" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K121" t="n">
         <v>4</v>
       </c>
       <c r="L121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M121" t="n">
-        <v>63.69</v>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q121" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R121" t="inlineStr">
-        <is>
-          <t>CHEMBL1961874</t>
-        </is>
-      </c>
-      <c r="S121" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T121" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>52.3</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887C200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022A852D54D0&gt;</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
